--- a/Gait_Analysis.xlsx
+++ b/Gait_Analysis.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,28 +485,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>43.43731915792193</v>
+        <v>110.8618721996889</v>
       </c>
       <c r="C2" t="n">
-        <v>43.43731915792193</v>
+        <v>110.8618721996889</v>
       </c>
       <c r="D2" t="n">
-        <v>48.56519651430318</v>
+        <v>91.82079236924159</v>
       </c>
       <c r="E2" t="n">
-        <v>101.5583041691956</v>
+        <v>97.51818200091377</v>
       </c>
       <c r="F2" t="n">
-        <v>7.936470645275733</v>
+        <v>115.5408624467534</v>
       </c>
       <c r="G2" t="n">
-        <v>15.39869696735622</v>
+        <v>110.4628353640593</v>
       </c>
       <c r="H2" t="n">
-        <v>113.8872550956897</v>
+        <v>37.3286607231549</v>
       </c>
       <c r="I2" t="n">
-        <v>102.9625541835099</v>
+        <v>54.97411221339851</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -517,28 +517,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>42.47096949066079</v>
+        <v>110.104020410283</v>
       </c>
       <c r="C3" t="n">
-        <v>42.47096949066079</v>
+        <v>110.104020410283</v>
       </c>
       <c r="D3" t="n">
-        <v>46.74194934580328</v>
+        <v>92.70336298718736</v>
       </c>
       <c r="E3" t="n">
-        <v>105.3358442279223</v>
+        <v>97.28640668147929</v>
       </c>
       <c r="F3" t="n">
-        <v>6.622270971000091</v>
+        <v>118.3058632889712</v>
       </c>
       <c r="G3" t="n">
-        <v>16.37778044824597</v>
+        <v>112.1720931908</v>
       </c>
       <c r="H3" t="n">
-        <v>116.7364241637881</v>
+        <v>36.94223955164748</v>
       </c>
       <c r="I3" t="n">
-        <v>108.2000006718012</v>
+        <v>57.40774947671083</v>
       </c>
       <c r="J3" t="n">
         <v>0.04</v>
@@ -549,28 +549,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42.53800521274641</v>
+        <v>109.3143678103407</v>
       </c>
       <c r="C4" t="n">
-        <v>42.53800521274641</v>
+        <v>109.3143678103407</v>
       </c>
       <c r="D4" t="n">
-        <v>46.59084124516218</v>
+        <v>92.87552362514012</v>
       </c>
       <c r="E4" t="n">
-        <v>105.2398065512317</v>
+        <v>96.75609235337308</v>
       </c>
       <c r="F4" t="n">
-        <v>6.086312078761694</v>
+        <v>117.57779737287</v>
       </c>
       <c r="G4" t="n">
-        <v>15.78782457617444</v>
+        <v>111.7000030469214</v>
       </c>
       <c r="H4" t="n">
-        <v>118.3250314665413</v>
+        <v>36.08231927669551</v>
       </c>
       <c r="I4" t="n">
-        <v>106.8953727917411</v>
+        <v>57.23542787961049</v>
       </c>
       <c r="J4" t="n">
         <v>0.08</v>
@@ -581,28 +581,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.70838015320999</v>
+        <v>109.6948051570421</v>
       </c>
       <c r="C5" t="n">
-        <v>41.70838015320999</v>
+        <v>109.6948051570421</v>
       </c>
       <c r="D5" t="n">
-        <v>46.31476049781429</v>
+        <v>95.49489130120644</v>
       </c>
       <c r="E5" t="n">
-        <v>106.8688152042188</v>
+        <v>96.57470635101285</v>
       </c>
       <c r="F5" t="n">
-        <v>7.675931246016489</v>
+        <v>123.4636280293848</v>
       </c>
       <c r="G5" t="n">
-        <v>20.4671417208678</v>
+        <v>111.7684244798637</v>
       </c>
       <c r="H5" t="n">
-        <v>117.7267652875243</v>
+        <v>36.16675228565973</v>
       </c>
       <c r="I5" t="n">
-        <v>111.9643097733578</v>
+        <v>57.32762383883597</v>
       </c>
       <c r="J5" t="n">
         <v>0.12</v>
@@ -613,28 +613,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41.98644139845635</v>
+        <v>108.7203346031202</v>
       </c>
       <c r="C6" t="n">
-        <v>41.98644139845635</v>
+        <v>108.7203346031202</v>
       </c>
       <c r="D6" t="n">
-        <v>47.01035849570056</v>
+        <v>95.39063358368907</v>
       </c>
       <c r="E6" t="n">
-        <v>105.918587759359</v>
+        <v>96.35476648204813</v>
       </c>
       <c r="F6" t="n">
-        <v>12.98061875838641</v>
+        <v>121.3297221603058</v>
       </c>
       <c r="G6" t="n">
-        <v>23.80516584996391</v>
+        <v>111.8029316669636</v>
       </c>
       <c r="H6" t="n">
-        <v>114.5838871371026</v>
+        <v>37.54527592690371</v>
       </c>
       <c r="I6" t="n">
-        <v>112.2282739462307</v>
+        <v>57.64660172669362</v>
       </c>
       <c r="J6" t="n">
         <v>0.16</v>
@@ -645,28 +645,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43.02312621659257</v>
+        <v>108.5172155094278</v>
       </c>
       <c r="C7" t="n">
-        <v>43.02312621659257</v>
+        <v>108.5172155094278</v>
       </c>
       <c r="D7" t="n">
-        <v>50.85044340084622</v>
+        <v>95.78852480340284</v>
       </c>
       <c r="E7" t="n">
-        <v>103.2163076418732</v>
+        <v>96.34369566814701</v>
       </c>
       <c r="F7" t="n">
-        <v>17.93029491243738</v>
+        <v>120.3509447205742</v>
       </c>
       <c r="G7" t="n">
-        <v>26.89515572863439</v>
+        <v>109.5196437206011</v>
       </c>
       <c r="H7" t="n">
-        <v>109.4437438209096</v>
+        <v>41.73946473063582</v>
       </c>
       <c r="I7" t="n">
-        <v>112.3137820384897</v>
+        <v>54.98825848905534</v>
       </c>
       <c r="J7" t="n">
         <v>0.2</v>
@@ -677,28 +677,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45.47568415776621</v>
+        <v>105.8751494589905</v>
       </c>
       <c r="C8" t="n">
-        <v>45.47568415776621</v>
+        <v>105.8751494589905</v>
       </c>
       <c r="D8" t="n">
-        <v>52.94337487391417</v>
+        <v>94.0611357189092</v>
       </c>
       <c r="E8" t="n">
-        <v>101.7408211363979</v>
+        <v>94.24828983640944</v>
       </c>
       <c r="F8" t="n">
-        <v>24.47509869994059</v>
+        <v>117.4821457198665</v>
       </c>
       <c r="G8" t="n">
-        <v>25.68934352814526</v>
+        <v>109.7836941024237</v>
       </c>
       <c r="H8" t="n">
-        <v>105.8679142978997</v>
+        <v>44.32683843625795</v>
       </c>
       <c r="I8" t="n">
-        <v>111.2768019683325</v>
+        <v>51.73953367520715</v>
       </c>
       <c r="J8" t="n">
         <v>0.24</v>
@@ -709,28 +709,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>47.39008526598514</v>
+        <v>103.6301369568961</v>
       </c>
       <c r="C9" t="n">
-        <v>47.39008526598514</v>
+        <v>103.6301369568961</v>
       </c>
       <c r="D9" t="n">
-        <v>54.76979888638611</v>
+        <v>88.25267749862121</v>
       </c>
       <c r="E9" t="n">
-        <v>102.3279058412841</v>
+        <v>93.73826324855315</v>
       </c>
       <c r="F9" t="n">
-        <v>32.288188326354</v>
+        <v>97.21771716481484</v>
       </c>
       <c r="G9" t="n">
-        <v>24.19344737384918</v>
+        <v>105.0358489464535</v>
       </c>
       <c r="H9" t="n">
-        <v>104.2966876461769</v>
+        <v>46.61742958412582</v>
       </c>
       <c r="I9" t="n">
-        <v>111.6102858167502</v>
+        <v>47.23373687809662</v>
       </c>
       <c r="J9" t="n">
         <v>0.28</v>
@@ -741,28 +741,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>46.95140819954534</v>
+        <v>103.3718226134007</v>
       </c>
       <c r="C10" t="n">
-        <v>46.95140819954534</v>
+        <v>103.3718226134007</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94595617657477</v>
+        <v>88.47272696994399</v>
       </c>
       <c r="E10" t="n">
-        <v>103.7049939404389</v>
+        <v>93.41543662833044</v>
       </c>
       <c r="F10" t="n">
-        <v>35.2478070274926</v>
+        <v>97.97322258981069</v>
       </c>
       <c r="G10" t="n">
-        <v>21.4716250738291</v>
+        <v>108.2877864983062</v>
       </c>
       <c r="H10" t="n">
-        <v>102.8548188943625</v>
+        <v>50.48728956144777</v>
       </c>
       <c r="I10" t="n">
-        <v>111.0112759772959</v>
+        <v>49.22989271579353</v>
       </c>
       <c r="J10" t="n">
         <v>0.32</v>
@@ -773,28 +773,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>45.99355439053704</v>
+        <v>103.2954349389113</v>
       </c>
       <c r="C11" t="n">
-        <v>45.99355439053704</v>
+        <v>103.2954349389113</v>
       </c>
       <c r="D11" t="n">
-        <v>48.06837984722631</v>
+        <v>89.80709398748181</v>
       </c>
       <c r="E11" t="n">
-        <v>106.6130814833721</v>
+        <v>93.28303465077548</v>
       </c>
       <c r="F11" t="n">
-        <v>34.3912927223902</v>
+        <v>104.0950840305061</v>
       </c>
       <c r="G11" t="n">
-        <v>17.72314471065789</v>
+        <v>110.7872763232855</v>
       </c>
       <c r="H11" t="n">
-        <v>103.9817493214571</v>
+        <v>53.37256313054898</v>
       </c>
       <c r="I11" t="n">
-        <v>111.2846328067314</v>
+        <v>50.52391966624862</v>
       </c>
       <c r="J11" t="n">
         <v>0.36</v>
@@ -805,28 +805,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>45.77177674475544</v>
+        <v>103.0661083995129</v>
       </c>
       <c r="C12" t="n">
-        <v>45.77177674475544</v>
+        <v>103.0661083995129</v>
       </c>
       <c r="D12" t="n">
-        <v>50.23630102945071</v>
+        <v>90.3944630821114</v>
       </c>
       <c r="E12" t="n">
-        <v>113.2580233495828</v>
+        <v>93.03559715313334</v>
       </c>
       <c r="F12" t="n">
-        <v>38.22135577962518</v>
+        <v>107.3464102568649</v>
       </c>
       <c r="G12" t="n">
-        <v>13.45995579570987</v>
+        <v>112.6154174330122</v>
       </c>
       <c r="H12" t="n">
-        <v>111.0018087446046</v>
+        <v>53.86562342933775</v>
       </c>
       <c r="I12" t="n">
-        <v>113.9275671994277</v>
+        <v>51.362875623012</v>
       </c>
       <c r="J12" t="n">
         <v>0.4</v>
@@ -837,28 +837,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>45.49854478172341</v>
+        <v>102.8177441834349</v>
       </c>
       <c r="C13" t="n">
-        <v>45.49854478172341</v>
+        <v>102.8177441834349</v>
       </c>
       <c r="D13" t="n">
-        <v>53.30163228675778</v>
+        <v>91.01866428343699</v>
       </c>
       <c r="E13" t="n">
-        <v>117.8636966030462</v>
+        <v>92.76397550716027</v>
       </c>
       <c r="F13" t="n">
-        <v>40.73363249064082</v>
+        <v>110.3435114657295</v>
       </c>
       <c r="G13" t="n">
-        <v>11.59560990356886</v>
+        <v>112.9506686818478</v>
       </c>
       <c r="H13" t="n">
-        <v>102.4453750618751</v>
+        <v>53.24125472350085</v>
       </c>
       <c r="I13" t="n">
-        <v>116.8467386964016</v>
+        <v>51.83551375034366</v>
       </c>
       <c r="J13" t="n">
         <v>0.44</v>
@@ -869,28 +869,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>43.87834152763384</v>
+        <v>101.8886676805218</v>
       </c>
       <c r="C14" t="n">
-        <v>43.87834152763384</v>
+        <v>101.8886676805218</v>
       </c>
       <c r="D14" t="n">
-        <v>49.38913168185414</v>
+        <v>89.81550387158526</v>
       </c>
       <c r="E14" t="n">
-        <v>120.4513257930444</v>
+        <v>92.30926113513308</v>
       </c>
       <c r="F14" t="n">
-        <v>37.28617983795718</v>
+        <v>106.6254340596492</v>
       </c>
       <c r="G14" t="n">
-        <v>10.15524228179609</v>
+        <v>111.8929367667131</v>
       </c>
       <c r="H14" t="n">
-        <v>102.3734548552252</v>
+        <v>44.76386779982385</v>
       </c>
       <c r="I14" t="n">
-        <v>117.7251090502733</v>
+        <v>51.70565653968769</v>
       </c>
       <c r="J14" t="n">
         <v>0.48</v>
@@ -901,28 +901,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.57514956038739</v>
+        <v>103.2991101176035</v>
       </c>
       <c r="C15" t="n">
-        <v>47.57514956038739</v>
+        <v>103.2991101176035</v>
       </c>
       <c r="D15" t="n">
-        <v>50.59184667502379</v>
+        <v>91.17694513319252</v>
       </c>
       <c r="E15" t="n">
-        <v>118.79213288384</v>
+        <v>91.68708208075763</v>
       </c>
       <c r="F15" t="n">
-        <v>39.16138008780376</v>
+        <v>113.7322573022091</v>
       </c>
       <c r="G15" t="n">
-        <v>11.73844339412844</v>
+        <v>112.0260933874991</v>
       </c>
       <c r="H15" t="n">
-        <v>105.0138468336713</v>
+        <v>41.51636531961249</v>
       </c>
       <c r="I15" t="n">
-        <v>120.1994451060795</v>
+        <v>49.64471677763205</v>
       </c>
       <c r="J15" t="n">
         <v>0.52</v>
@@ -933,28 +933,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47.22891801239311</v>
+        <v>94.85372075755937</v>
       </c>
       <c r="C16" t="n">
-        <v>47.22891801239311</v>
+        <v>94.85372075755937</v>
       </c>
       <c r="D16" t="n">
-        <v>58.33296590603663</v>
+        <v>89.01292032722539</v>
       </c>
       <c r="E16" t="n">
-        <v>108.7945644420633</v>
+        <v>87.75655574643812</v>
       </c>
       <c r="F16" t="n">
-        <v>48.2608679127288</v>
+        <v>122.2907564025582</v>
       </c>
       <c r="G16" t="n">
-        <v>14.5338797740435</v>
+        <v>121.8618425198584</v>
       </c>
       <c r="H16" t="n">
-        <v>92.61021166185752</v>
+        <v>38.58624845928972</v>
       </c>
       <c r="I16" t="n">
-        <v>112.9688121202817</v>
+        <v>43.33663863992275</v>
       </c>
       <c r="J16" t="n">
         <v>0.5600000000000001</v>
@@ -965,28 +965,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>47.15705556178199</v>
+        <v>80.69095440463379</v>
       </c>
       <c r="C17" t="n">
-        <v>47.15705556178199</v>
+        <v>80.69095440463379</v>
       </c>
       <c r="D17" t="n">
-        <v>60.3406116356184</v>
+        <v>88.78985606974005</v>
       </c>
       <c r="E17" t="n">
-        <v>89.17002377828699</v>
+        <v>88.68649173993052</v>
       </c>
       <c r="F17" t="n">
-        <v>36.31730632911473</v>
+        <v>125.0060388131868</v>
       </c>
       <c r="G17" t="n">
-        <v>22.28836835350265</v>
+        <v>125.4501245138184</v>
       </c>
       <c r="H17" t="n">
-        <v>112.4044749425902</v>
+        <v>46.6515071079945</v>
       </c>
       <c r="I17" t="n">
-        <v>104.1771779728379</v>
+        <v>43.21107960007828</v>
       </c>
       <c r="J17" t="n">
         <v>0.6</v>
@@ -997,28 +997,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>44.59432930017078</v>
+        <v>77.89372965441611</v>
       </c>
       <c r="C18" t="n">
-        <v>44.59432930017078</v>
+        <v>77.89372965441611</v>
       </c>
       <c r="D18" t="n">
-        <v>48.17376393597209</v>
+        <v>91.47909518003316</v>
       </c>
       <c r="E18" t="n">
-        <v>99.32684229523042</v>
+        <v>90.39740738466276</v>
       </c>
       <c r="F18" t="n">
-        <v>19.50547065345211</v>
+        <v>130.3199408379484</v>
       </c>
       <c r="G18" t="n">
-        <v>16.3625815829725</v>
+        <v>130.2019414464266</v>
       </c>
       <c r="H18" t="n">
-        <v>118.3652856342169</v>
+        <v>58.37404369053108</v>
       </c>
       <c r="I18" t="n">
-        <v>106.6882221973863</v>
+        <v>41.76030994353113</v>
       </c>
       <c r="J18" t="n">
         <v>0.64</v>
@@ -1029,28 +1029,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>42.93689222253562</v>
+        <v>71.13944563679146</v>
       </c>
       <c r="C19" t="n">
-        <v>42.93689222253562</v>
+        <v>71.13944563679146</v>
       </c>
       <c r="D19" t="n">
-        <v>47.67487528237001</v>
+        <v>93.408492022248</v>
       </c>
       <c r="E19" t="n">
-        <v>101.5565926010716</v>
+        <v>95.23461261406744</v>
       </c>
       <c r="F19" t="n">
-        <v>14.82371198612231</v>
+        <v>134.3850606980164</v>
       </c>
       <c r="G19" t="n">
-        <v>22.38958510350216</v>
+        <v>136.5070320766432</v>
       </c>
       <c r="H19" t="n">
-        <v>117.0480594955287</v>
+        <v>63.36016189582216</v>
       </c>
       <c r="I19" t="n">
-        <v>117.3683417662542</v>
+        <v>41.85403247209671</v>
       </c>
       <c r="J19" t="n">
         <v>0.68</v>
@@ -1061,28 +1061,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>42.32758054654101</v>
+        <v>70.57169562548829</v>
       </c>
       <c r="C20" t="n">
-        <v>42.32758054654101</v>
+        <v>70.57169562548829</v>
       </c>
       <c r="D20" t="n">
-        <v>47.08211133961763</v>
+        <v>94.64781644199893</v>
       </c>
       <c r="E20" t="n">
-        <v>107.8090805941027</v>
+        <v>94.97393169546916</v>
       </c>
       <c r="F20" t="n">
-        <v>13.95208663860089</v>
+        <v>129.6637604393702</v>
       </c>
       <c r="G20" t="n">
-        <v>22.73594830819434</v>
+        <v>134.3942587760005</v>
       </c>
       <c r="H20" t="n">
-        <v>117.9413534417232</v>
+        <v>61.60372018423535</v>
       </c>
       <c r="I20" t="n">
-        <v>122.4740424358907</v>
+        <v>41.48516205603638</v>
       </c>
       <c r="J20" t="n">
         <v>0.72</v>
@@ -1093,28 +1093,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>42.97849974351064</v>
+        <v>71.60373682874358</v>
       </c>
       <c r="C21" t="n">
-        <v>42.97849974351064</v>
+        <v>71.60373682874358</v>
       </c>
       <c r="D21" t="n">
-        <v>49.61913235109751</v>
+        <v>94.91506136123743</v>
       </c>
       <c r="E21" t="n">
-        <v>107.8978178054717</v>
+        <v>94.46688391920553</v>
       </c>
       <c r="F21" t="n">
-        <v>15.02981252518686</v>
+        <v>128.1236413275043</v>
       </c>
       <c r="G21" t="n">
-        <v>21.66021608437381</v>
+        <v>133.9576703843452</v>
       </c>
       <c r="H21" t="n">
-        <v>116.7929299692588</v>
+        <v>61.06022804051997</v>
       </c>
       <c r="I21" t="n">
-        <v>121.4388139398024</v>
+        <v>40.85551772491792</v>
       </c>
       <c r="J21" t="n">
         <v>0.76</v>
@@ -1125,28 +1125,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>43.37430880928028</v>
+        <v>70.00846387016145</v>
       </c>
       <c r="C22" t="n">
-        <v>43.37430880928028</v>
+        <v>70.00846387016145</v>
       </c>
       <c r="D22" t="n">
-        <v>50.15990064705994</v>
+        <v>95.19564547494235</v>
       </c>
       <c r="E22" t="n">
-        <v>101.4749061032303</v>
+        <v>95.18712533802272</v>
       </c>
       <c r="F22" t="n">
-        <v>14.6632086282234</v>
+        <v>128.1606878527406</v>
       </c>
       <c r="G22" t="n">
-        <v>27.44693880662021</v>
+        <v>134.2575402293275</v>
       </c>
       <c r="H22" t="n">
-        <v>122.2356041877822</v>
+        <v>60.96868045039545</v>
       </c>
       <c r="I22" t="n">
-        <v>120.2259085406907</v>
+        <v>40.8388210527926</v>
       </c>
       <c r="J22" t="n">
         <v>0.8</v>
@@ -1157,28 +1157,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>42.43225185483814</v>
+        <v>70.68263055631036</v>
       </c>
       <c r="C23" t="n">
-        <v>42.43225185483814</v>
+        <v>70.68263055631036</v>
       </c>
       <c r="D23" t="n">
-        <v>50.78437296533488</v>
+        <v>96.35295681908238</v>
       </c>
       <c r="E23" t="n">
-        <v>102.5981352394636</v>
+        <v>94.44379402838932</v>
       </c>
       <c r="F23" t="n">
-        <v>15.84271412049912</v>
+        <v>123.5238316712786</v>
       </c>
       <c r="G23" t="n">
-        <v>27.5941634684537</v>
+        <v>132.7199847657198</v>
       </c>
       <c r="H23" t="n">
-        <v>122.9845650896755</v>
+        <v>58.89010328744288</v>
       </c>
       <c r="I23" t="n">
-        <v>120.8036126447234</v>
+        <v>39.71050612404758</v>
       </c>
       <c r="J23" t="n">
         <v>0.84</v>
@@ -1189,28 +1189,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.68595898870035</v>
+        <v>69.23866524928636</v>
       </c>
       <c r="C24" t="n">
-        <v>42.68595898870035</v>
+        <v>69.23866524928636</v>
       </c>
       <c r="D24" t="n">
-        <v>46.59120654102151</v>
+        <v>96.68796506031057</v>
       </c>
       <c r="E24" t="n">
-        <v>104.7495893282393</v>
+        <v>95.93219787563743</v>
       </c>
       <c r="F24" t="n">
-        <v>13.98389517685513</v>
+        <v>116.6388551840138</v>
       </c>
       <c r="G24" t="n">
-        <v>28.79490543029959</v>
+        <v>133.7908492555402</v>
       </c>
       <c r="H24" t="n">
-        <v>122.4541296227332</v>
+        <v>53.62132233223083</v>
       </c>
       <c r="I24" t="n">
-        <v>122.2636211008429</v>
+        <v>38.41983889833211</v>
       </c>
       <c r="J24" t="n">
         <v>0.88</v>
@@ -1221,28 +1221,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>43.23722702345322</v>
+        <v>69.20835741851847</v>
       </c>
       <c r="C25" t="n">
-        <v>43.23722702345322</v>
+        <v>69.20835741851847</v>
       </c>
       <c r="D25" t="n">
-        <v>47.22753736341622</v>
+        <v>95.01376705840364</v>
       </c>
       <c r="E25" t="n">
-        <v>103.029712260479</v>
+        <v>96.31975461211313</v>
       </c>
       <c r="F25" t="n">
-        <v>13.19367991664592</v>
+        <v>116.8366192849505</v>
       </c>
       <c r="G25" t="n">
-        <v>32.30125256932371</v>
+        <v>134.0782026947815</v>
       </c>
       <c r="H25" t="n">
-        <v>124.9824043836055</v>
+        <v>52.02892358346163</v>
       </c>
       <c r="I25" t="n">
-        <v>122.3471436018438</v>
+        <v>38.00794094914891</v>
       </c>
       <c r="J25" t="n">
         <v>0.92</v>
@@ -1253,28 +1253,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>43.61326713712035</v>
+        <v>69.97899828546412</v>
       </c>
       <c r="C26" t="n">
-        <v>43.61326713712035</v>
+        <v>69.97899828546412</v>
       </c>
       <c r="D26" t="n">
-        <v>55.15759019076327</v>
+        <v>94.47016196278189</v>
       </c>
       <c r="E26" t="n">
-        <v>104.8550386429057</v>
+        <v>95.53999025349216</v>
       </c>
       <c r="F26" t="n">
-        <v>16.96283276466048</v>
+        <v>118.1340347232558</v>
       </c>
       <c r="G26" t="n">
-        <v>32.42137235443042</v>
+        <v>132.8819108895376</v>
       </c>
       <c r="H26" t="n">
-        <v>118.4294486642668</v>
+        <v>52.89631285980153</v>
       </c>
       <c r="I26" t="n">
-        <v>121.0787014744133</v>
+        <v>38.06559640526982</v>
       </c>
       <c r="J26" t="n">
         <v>0.96</v>
@@ -1285,28 +1285,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44.82549669820733</v>
+        <v>75.58063077328144</v>
       </c>
       <c r="C27" t="n">
-        <v>44.82549669820733</v>
+        <v>75.58063077328144</v>
       </c>
       <c r="D27" t="n">
-        <v>66.51536369746965</v>
+        <v>93.42345054012975</v>
       </c>
       <c r="E27" t="n">
-        <v>110.6553311934695</v>
+        <v>92.91764684030427</v>
       </c>
       <c r="F27" t="n">
-        <v>23.59023825366847</v>
+        <v>115.9097928606663</v>
       </c>
       <c r="G27" t="n">
-        <v>30.63897606953228</v>
+        <v>132.1088769930155</v>
       </c>
       <c r="H27" t="n">
-        <v>113.7211843356788</v>
+        <v>51.59837604635322</v>
       </c>
       <c r="I27" t="n">
-        <v>120.5170023863915</v>
+        <v>37.30120477488157</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1317,28 +1317,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>45.1345495448785</v>
+        <v>79.00383781730487</v>
       </c>
       <c r="C28" t="n">
-        <v>45.1345495448785</v>
+        <v>79.00383781730487</v>
       </c>
       <c r="D28" t="n">
-        <v>65.22600578453604</v>
+        <v>93.02405802395758</v>
       </c>
       <c r="E28" t="n">
-        <v>113.2653777187311</v>
+        <v>91.2329634240231</v>
       </c>
       <c r="F28" t="n">
-        <v>22.78307630746471</v>
+        <v>113.1039243759451</v>
       </c>
       <c r="G28" t="n">
-        <v>32.46924446450222</v>
+        <v>129.9013998802185</v>
       </c>
       <c r="H28" t="n">
-        <v>115.639060674711</v>
+        <v>49.80834220243822</v>
       </c>
       <c r="I28" t="n">
-        <v>119.3322507279724</v>
+        <v>37.57524762796318</v>
       </c>
       <c r="J28" t="n">
         <v>1.04</v>
@@ -1349,28 +1349,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>45.50250084118755</v>
+        <v>81.31149062164579</v>
       </c>
       <c r="C29" t="n">
-        <v>45.50250084118755</v>
+        <v>81.31149062164579</v>
       </c>
       <c r="D29" t="n">
-        <v>62.4983790301393</v>
+        <v>93.07787951003596</v>
       </c>
       <c r="E29" t="n">
-        <v>117.1870072827617</v>
+        <v>89.98714441011759</v>
       </c>
       <c r="F29" t="n">
-        <v>21.6097786774283</v>
+        <v>106.4700487788573</v>
       </c>
       <c r="G29" t="n">
-        <v>34.53501725192527</v>
+        <v>125.5552921899593</v>
       </c>
       <c r="H29" t="n">
-        <v>117.3243823101482</v>
+        <v>46.92062395405312</v>
       </c>
       <c r="I29" t="n">
-        <v>117.9187986975193</v>
+        <v>42.11587964273667</v>
       </c>
       <c r="J29" t="n">
         <v>1.08</v>
@@ -1381,28 +1381,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>46.09555638874991</v>
+        <v>86.53466936715505</v>
       </c>
       <c r="C30" t="n">
-        <v>46.09555638874991</v>
+        <v>86.53466936715505</v>
       </c>
       <c r="D30" t="n">
-        <v>65.35903322635095</v>
+        <v>91.43943993898399</v>
       </c>
       <c r="E30" t="n">
-        <v>115.8722512120629</v>
+        <v>86.84490822939648</v>
       </c>
       <c r="F30" t="n">
-        <v>27.26978918441316</v>
+        <v>101.4921050908982</v>
       </c>
       <c r="G30" t="n">
-        <v>29.64788388186943</v>
+        <v>114.696322896043</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4040360960695</v>
+        <v>43.73674556639091</v>
       </c>
       <c r="I30" t="n">
-        <v>125.4224626796498</v>
+        <v>46.28752417400219</v>
       </c>
       <c r="J30" t="n">
         <v>1.12</v>
@@ -1413,28 +1413,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>45.13758169953658</v>
+        <v>90.15101315167158</v>
       </c>
       <c r="C31" t="n">
-        <v>45.13758169953658</v>
+        <v>90.15101315167158</v>
       </c>
       <c r="D31" t="n">
-        <v>69.01348574300832</v>
+        <v>90.0686139774426</v>
       </c>
       <c r="E31" t="n">
-        <v>106.1331894085031</v>
+        <v>85.79807076181967</v>
       </c>
       <c r="F31" t="n">
-        <v>33.83681764351871</v>
+        <v>99.37409961768164</v>
       </c>
       <c r="G31" t="n">
-        <v>35.52447362843844</v>
+        <v>112.0105751074267</v>
       </c>
       <c r="H31" t="n">
-        <v>101.8909462378666</v>
+        <v>42.78413438324966</v>
       </c>
       <c r="I31" t="n">
-        <v>120.650724833994</v>
+        <v>47.32011108488314</v>
       </c>
       <c r="J31" t="n">
         <v>1.16</v>
@@ -1445,28 +1445,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>44.58997126202016</v>
+        <v>93.61253723443087</v>
       </c>
       <c r="C32" t="n">
-        <v>44.58997126202016</v>
+        <v>93.61253723443087</v>
       </c>
       <c r="D32" t="n">
-        <v>70.07396275599116</v>
+        <v>88.47541173868004</v>
       </c>
       <c r="E32" t="n">
-        <v>101.0479060606806</v>
+        <v>85.07407670555097</v>
       </c>
       <c r="F32" t="n">
-        <v>28.82991951552538</v>
+        <v>96.51017656999554</v>
       </c>
       <c r="G32" t="n">
-        <v>60.29287855972007</v>
+        <v>113.0766531746235</v>
       </c>
       <c r="H32" t="n">
-        <v>105.8965147358622</v>
+        <v>41.4628657938896</v>
       </c>
       <c r="I32" t="n">
-        <v>106.220563603338</v>
+        <v>43.99480000490092</v>
       </c>
       <c r="J32" t="n">
         <v>1.2</v>
@@ -1477,28 +1477,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>46.51213547489604</v>
+        <v>100.6188427761402</v>
       </c>
       <c r="C33" t="n">
-        <v>46.51213547489604</v>
+        <v>100.6188427761402</v>
       </c>
       <c r="D33" t="n">
-        <v>76.9607680172914</v>
+        <v>87.13661958869338</v>
       </c>
       <c r="E33" t="n">
-        <v>88.82854125167901</v>
+        <v>84.20212618654115</v>
       </c>
       <c r="F33" t="n">
-        <v>31.33101789189675</v>
+        <v>101.3813240403375</v>
       </c>
       <c r="G33" t="n">
-        <v>75.05525284407638</v>
+        <v>109.0049751720256</v>
       </c>
       <c r="H33" t="n">
-        <v>106.1434069802823</v>
+        <v>40.44762776250857</v>
       </c>
       <c r="I33" t="n">
-        <v>100.961778409648</v>
+        <v>40.01514909473853</v>
       </c>
       <c r="J33" t="n">
         <v>1.24</v>
@@ -1509,28 +1509,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>48.33958779466778</v>
+        <v>101.59821894138</v>
       </c>
       <c r="C34" t="n">
-        <v>48.33958779466778</v>
+        <v>101.59821894138</v>
       </c>
       <c r="D34" t="n">
-        <v>83.50485740515862</v>
+        <v>89.23307028147968</v>
       </c>
       <c r="E34" t="n">
-        <v>83.71686466869527</v>
+        <v>85.76454045994811</v>
       </c>
       <c r="F34" t="n">
-        <v>31.38959683864556</v>
+        <v>109.5887274232316</v>
       </c>
       <c r="G34" t="n">
-        <v>78.64038377555346</v>
+        <v>109.8615699974203</v>
       </c>
       <c r="H34" t="n">
-        <v>98.86087202420505</v>
+        <v>39.87510366908869</v>
       </c>
       <c r="I34" t="n">
-        <v>96.74545633950346</v>
+        <v>39.90497077821066</v>
       </c>
       <c r="J34" t="n">
         <v>1.28</v>
@@ -1541,28 +1541,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>50.36465108827022</v>
+        <v>102.020020761272</v>
       </c>
       <c r="C35" t="n">
-        <v>50.36465108827022</v>
+        <v>102.020020761272</v>
       </c>
       <c r="D35" t="n">
-        <v>76.42291679260208</v>
+        <v>90.11215801129273</v>
       </c>
       <c r="E35" t="n">
-        <v>81.40722231204293</v>
+        <v>85.86325513537767</v>
       </c>
       <c r="F35" t="n">
-        <v>20.46824462166987</v>
+        <v>113.999508276484</v>
       </c>
       <c r="G35" t="n">
-        <v>75.95245969628546</v>
+        <v>115.3127341697553</v>
       </c>
       <c r="H35" t="n">
-        <v>93.9183842211901</v>
+        <v>40.13744239275302</v>
       </c>
       <c r="I35" t="n">
-        <v>100.8585630568058</v>
+        <v>42.45294120225422</v>
       </c>
       <c r="J35" t="n">
         <v>1.32</v>
@@ -1573,28 +1573,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>51.35507674755297</v>
+        <v>102.8657991159999</v>
       </c>
       <c r="C36" t="n">
-        <v>51.35507674755297</v>
+        <v>102.8657991159999</v>
       </c>
       <c r="D36" t="n">
-        <v>73.07627295973319</v>
+        <v>91.56470372795079</v>
       </c>
       <c r="E36" t="n">
-        <v>83.56107296611961</v>
+        <v>85.89737369483461</v>
       </c>
       <c r="F36" t="n">
-        <v>15.83000478709241</v>
+        <v>117.252017082157</v>
       </c>
       <c r="G36" t="n">
-        <v>69.008007352484</v>
+        <v>116.6223296150166</v>
       </c>
       <c r="H36" t="n">
-        <v>94.67204762713634</v>
+        <v>40.21986747720867</v>
       </c>
       <c r="I36" t="n">
-        <v>104.7652278566301</v>
+        <v>44.92317307424576</v>
       </c>
       <c r="J36" t="n">
         <v>1.36</v>
@@ -1605,28 +1605,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>50.8182920267698</v>
+        <v>102.9599680187332</v>
       </c>
       <c r="C37" t="n">
-        <v>50.8182920267698</v>
+        <v>102.9599680187332</v>
       </c>
       <c r="D37" t="n">
-        <v>70.0029768646842</v>
+        <v>92.07074614047158</v>
       </c>
       <c r="E37" t="n">
-        <v>85.06875054981475</v>
+        <v>86.50979240989714</v>
       </c>
       <c r="F37" t="n">
-        <v>15.96849748849854</v>
+        <v>117.6636577422744</v>
       </c>
       <c r="G37" t="n">
-        <v>61.81766366719691</v>
+        <v>116.9727523763922</v>
       </c>
       <c r="H37" t="n">
-        <v>100.2909157324267</v>
+        <v>40.61819170938428</v>
       </c>
       <c r="I37" t="n">
-        <v>110.764702008654</v>
+        <v>47.28066196183627</v>
       </c>
       <c r="J37" t="n">
         <v>1.4</v>
@@ -1637,28 +1637,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>46.52241773326548</v>
+        <v>103.8847613353312</v>
       </c>
       <c r="C38" t="n">
-        <v>46.52241773326548</v>
+        <v>103.8847613353312</v>
       </c>
       <c r="D38" t="n">
-        <v>68.84667788055435</v>
+        <v>92.69664043056795</v>
       </c>
       <c r="E38" t="n">
-        <v>89.54926384148678</v>
+        <v>88.11462060290806</v>
       </c>
       <c r="F38" t="n">
-        <v>16.81164596676027</v>
+        <v>117.6406174698736</v>
       </c>
       <c r="G38" t="n">
-        <v>50.91153709609253</v>
+        <v>114.4752954147153</v>
       </c>
       <c r="H38" t="n">
-        <v>107.3792936217881</v>
+        <v>39.02068591070284</v>
       </c>
       <c r="I38" t="n">
-        <v>112.9618435508897</v>
+        <v>49.59939895720112</v>
       </c>
       <c r="J38" t="n">
         <v>1.44</v>
@@ -1669,28 +1669,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>43.30979012486861</v>
+        <v>103.4442021613348</v>
       </c>
       <c r="C39" t="n">
-        <v>43.30979012486861</v>
+        <v>103.4442021613348</v>
       </c>
       <c r="D39" t="n">
-        <v>57.92669514855763</v>
+        <v>92.36613602216427</v>
       </c>
       <c r="E39" t="n">
-        <v>96.59236470189923</v>
+        <v>89.76960036817248</v>
       </c>
       <c r="F39" t="n">
-        <v>11.05636117870594</v>
+        <v>114.6961329637313</v>
       </c>
       <c r="G39" t="n">
-        <v>41.85898141117269</v>
+        <v>112.2928829675056</v>
       </c>
       <c r="H39" t="n">
-        <v>110.9204791151352</v>
+        <v>37.30963207179057</v>
       </c>
       <c r="I39" t="n">
-        <v>111.8409376425964</v>
+        <v>51.64020703314063</v>
       </c>
       <c r="J39" t="n">
         <v>1.48</v>
@@ -1701,28 +1701,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>42.59737213513094</v>
+        <v>103.7687366819585</v>
       </c>
       <c r="C40" t="n">
-        <v>42.59737213513094</v>
+        <v>103.7687366819585</v>
       </c>
       <c r="D40" t="n">
-        <v>55.18293651325001</v>
+        <v>92.80191016222733</v>
       </c>
       <c r="E40" t="n">
-        <v>100.5152008045874</v>
+        <v>91.08898091992346</v>
       </c>
       <c r="F40" t="n">
-        <v>9.327118757544582</v>
+        <v>116.8392757299636</v>
       </c>
       <c r="G40" t="n">
-        <v>36.08433295136854</v>
+        <v>112.1636562096846</v>
       </c>
       <c r="H40" t="n">
-        <v>112.4221725887716</v>
+        <v>36.84920809056432</v>
       </c>
       <c r="I40" t="n">
-        <v>113.520388238879</v>
+        <v>53.88109532078651</v>
       </c>
       <c r="J40" t="n">
         <v>1.52</v>
@@ -1733,28 +1733,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>42.32680476418463</v>
+        <v>104.4064537016592</v>
       </c>
       <c r="C41" t="n">
-        <v>42.32680476418463</v>
+        <v>104.4064537016592</v>
       </c>
       <c r="D41" t="n">
-        <v>51.4132983438796</v>
+        <v>92.5527574217014</v>
       </c>
       <c r="E41" t="n">
-        <v>98.72887566709062</v>
+        <v>92.07232378097734</v>
       </c>
       <c r="F41" t="n">
-        <v>7.919214012958321</v>
+        <v>115.4881325080818</v>
       </c>
       <c r="G41" t="n">
-        <v>30.02098293339105</v>
+        <v>111.0168171416891</v>
       </c>
       <c r="H41" t="n">
-        <v>115.3883186741096</v>
+        <v>36.75282573631051</v>
       </c>
       <c r="I41" t="n">
-        <v>110.3111623655252</v>
+        <v>54.59469611940963</v>
       </c>
       <c r="J41" t="n">
         <v>1.56</v>
@@ -1765,28 +1765,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>42.18273593522053</v>
+        <v>105.4833113110196</v>
       </c>
       <c r="C42" t="n">
-        <v>42.18273593522053</v>
+        <v>105.4833113110196</v>
       </c>
       <c r="D42" t="n">
-        <v>47.78408479086207</v>
+        <v>92.55757059642147</v>
       </c>
       <c r="E42" t="n">
-        <v>99.66463856813702</v>
+        <v>92.9713661829727</v>
       </c>
       <c r="F42" t="n">
-        <v>6.611048347519386</v>
+        <v>115.4692917127469</v>
       </c>
       <c r="G42" t="n">
-        <v>24.95263075795711</v>
+        <v>110.2689082769062</v>
       </c>
       <c r="H42" t="n">
-        <v>116.8997365333543</v>
+        <v>36.42708844935983</v>
       </c>
       <c r="I42" t="n">
-        <v>108.8720429916535</v>
+        <v>54.78069264747494</v>
       </c>
       <c r="J42" t="n">
         <v>1.6</v>
@@ -1797,28 +1797,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>42.31933068620856</v>
+        <v>105.5325728575946</v>
       </c>
       <c r="C43" t="n">
-        <v>42.31933068620856</v>
+        <v>105.5325728575946</v>
       </c>
       <c r="D43" t="n">
-        <v>47.77848022165091</v>
+        <v>92.52327844205473</v>
       </c>
       <c r="E43" t="n">
-        <v>99.5710053705978</v>
+        <v>93.38185955762238</v>
       </c>
       <c r="F43" t="n">
-        <v>6.047343549779043</v>
+        <v>115.303516661957</v>
       </c>
       <c r="G43" t="n">
-        <v>22.80096959867663</v>
+        <v>109.9662944722447</v>
       </c>
       <c r="H43" t="n">
-        <v>116.8156497699808</v>
+        <v>36.17768579552313</v>
       </c>
       <c r="I43" t="n">
-        <v>107.8758735392798</v>
+        <v>55.25547382737967</v>
       </c>
       <c r="J43" t="n">
         <v>1.64</v>
@@ -1829,28 +1829,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>42.22393812536092</v>
+        <v>105.3824428303646</v>
       </c>
       <c r="C44" t="n">
-        <v>42.22393812536092</v>
+        <v>105.3824428303646</v>
       </c>
       <c r="D44" t="n">
-        <v>46.77497128708001</v>
+        <v>92.30160608858482</v>
       </c>
       <c r="E44" t="n">
-        <v>101.2294286997006</v>
+        <v>93.50865171382891</v>
       </c>
       <c r="F44" t="n">
-        <v>5.483218779819794</v>
+        <v>114.4453203300978</v>
       </c>
       <c r="G44" t="n">
-        <v>19.78503760839482</v>
+        <v>109.5607930464708</v>
       </c>
       <c r="H44" t="n">
-        <v>116.7953390457585</v>
+        <v>35.9117518071502</v>
       </c>
       <c r="I44" t="n">
-        <v>105.6799505275666</v>
+        <v>55.30925697160635</v>
       </c>
       <c r="J44" t="n">
         <v>1.68</v>
@@ -1861,28 +1861,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>42.18092678538048</v>
+        <v>105.6701218385423</v>
       </c>
       <c r="C45" t="n">
-        <v>42.18092678538048</v>
+        <v>105.6701218385423</v>
       </c>
       <c r="D45" t="n">
-        <v>45.98050913596524</v>
+        <v>92.69139861730206</v>
       </c>
       <c r="E45" t="n">
-        <v>102.1166206199574</v>
+        <v>93.94942244043666</v>
       </c>
       <c r="F45" t="n">
-        <v>5.321630562445392</v>
+        <v>116.1051193088478</v>
       </c>
       <c r="G45" t="n">
-        <v>19.27735997311817</v>
+        <v>109.8283463375352</v>
       </c>
       <c r="H45" t="n">
-        <v>116.8728425237526</v>
+        <v>36.09247930203765</v>
       </c>
       <c r="I45" t="n">
-        <v>106.0474496313338</v>
+        <v>56.20683825508512</v>
       </c>
       <c r="J45" t="n">
         <v>1.72</v>
@@ -1893,28 +1893,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>42.21848615557832</v>
+        <v>104.7021767492261</v>
       </c>
       <c r="C46" t="n">
-        <v>42.21848615557832</v>
+        <v>104.7021767492261</v>
       </c>
       <c r="D46" t="n">
-        <v>47.16535384162898</v>
+        <v>92.33779538946808</v>
       </c>
       <c r="E46" t="n">
-        <v>101.0171552143238</v>
+        <v>93.36247737862686</v>
       </c>
       <c r="F46" t="n">
-        <v>6.400340583797202</v>
+        <v>114.9732433799504</v>
       </c>
       <c r="G46" t="n">
-        <v>20.68709924401549</v>
+        <v>110.0067322998935</v>
       </c>
       <c r="H46" t="n">
-        <v>119.290839326366</v>
+        <v>36.48008316899612</v>
       </c>
       <c r="I46" t="n">
-        <v>108.2480138406404</v>
+        <v>55.15998304879341</v>
       </c>
       <c r="J46" t="n">
         <v>1.76</v>
@@ -1925,28 +1925,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>41.67552081732387</v>
+        <v>103.0067320132402</v>
       </c>
       <c r="C47" t="n">
-        <v>41.67552081732387</v>
+        <v>103.0067320132402</v>
       </c>
       <c r="D47" t="n">
-        <v>47.64958791959529</v>
+        <v>91.61770352089729</v>
       </c>
       <c r="E47" t="n">
-        <v>103.3826218615466</v>
+        <v>93.09187866746991</v>
       </c>
       <c r="F47" t="n">
-        <v>7.773275350939002</v>
+        <v>114.7387751735674</v>
       </c>
       <c r="G47" t="n">
-        <v>23.24416835786704</v>
+        <v>110.6574481275924</v>
       </c>
       <c r="H47" t="n">
-        <v>119.2242899147846</v>
+        <v>36.96988989753598</v>
       </c>
       <c r="I47" t="n">
-        <v>113.3378152802201</v>
+        <v>54.81122140661984</v>
       </c>
       <c r="J47" t="n">
         <v>1.8</v>
@@ -1957,28 +1957,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>41.2927994358445</v>
+        <v>102.3036533948868</v>
       </c>
       <c r="C48" t="n">
-        <v>41.2927994358445</v>
+        <v>102.3036533948868</v>
       </c>
       <c r="D48" t="n">
-        <v>48.12235908651866</v>
+        <v>90.21451354352675</v>
       </c>
       <c r="E48" t="n">
-        <v>102.4442605455493</v>
+        <v>93.07471365865406</v>
       </c>
       <c r="F48" t="n">
-        <v>10.17321908996792</v>
+        <v>109.3514616135697</v>
       </c>
       <c r="G48" t="n">
-        <v>23.09917502062561</v>
+        <v>109.9787633062642</v>
       </c>
       <c r="H48" t="n">
-        <v>115.4283452087612</v>
+        <v>37.26705073086632</v>
       </c>
       <c r="I48" t="n">
-        <v>109.4463995006712</v>
+        <v>53.95914688909131</v>
       </c>
       <c r="J48" t="n">
         <v>1.84</v>
@@ -1989,28 +1989,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>41.93343728683806</v>
+        <v>103.0718103170624</v>
       </c>
       <c r="C49" t="n">
-        <v>41.93343728683806</v>
+        <v>103.0718103170624</v>
       </c>
       <c r="D49" t="n">
-        <v>48.51061664715738</v>
+        <v>90.63873352512718</v>
       </c>
       <c r="E49" t="n">
-        <v>100.8903847455649</v>
+        <v>93.60712733740382</v>
       </c>
       <c r="F49" t="n">
-        <v>15.04039579539818</v>
+        <v>109.3185393954907</v>
       </c>
       <c r="G49" t="n">
-        <v>24.1352241146746</v>
+        <v>110.3063455695011</v>
       </c>
       <c r="H49" t="n">
-        <v>112.1361747291947</v>
+        <v>39.99705536677578</v>
       </c>
       <c r="I49" t="n">
-        <v>108.5364134617685</v>
+        <v>54.31690577027272</v>
       </c>
       <c r="J49" t="n">
         <v>1.88</v>
@@ -2021,28 +2021,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44.5339538135556</v>
+        <v>103.0345497045834</v>
       </c>
       <c r="C50" t="n">
-        <v>44.5339538135556</v>
+        <v>103.0345497045834</v>
       </c>
       <c r="D50" t="n">
-        <v>51.50744182706578</v>
+        <v>90.85161839038147</v>
       </c>
       <c r="E50" t="n">
-        <v>100.9768621188799</v>
+        <v>93.54627892141727</v>
       </c>
       <c r="F50" t="n">
-        <v>20.07954264440227</v>
+        <v>107.8075473183546</v>
       </c>
       <c r="G50" t="n">
-        <v>23.64015861728828</v>
+        <v>108.9358711331404</v>
       </c>
       <c r="H50" t="n">
-        <v>106.490950352995</v>
+        <v>44.69685894901542</v>
       </c>
       <c r="I50" t="n">
-        <v>108.5448066440973</v>
+        <v>53.41052092659397</v>
       </c>
       <c r="J50" t="n">
         <v>1.92</v>
@@ -2053,28 +2053,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>45.23267440802525</v>
+        <v>102.8488994275692</v>
       </c>
       <c r="C51" t="n">
-        <v>45.23267440802525</v>
+        <v>102.8488994275692</v>
       </c>
       <c r="D51" t="n">
-        <v>51.74356133263291</v>
+        <v>90.2964768825847</v>
       </c>
       <c r="E51" t="n">
-        <v>102.7877838918537</v>
+        <v>92.96609259163398</v>
       </c>
       <c r="F51" t="n">
-        <v>25.10931072088786</v>
+        <v>105.1210826689687</v>
       </c>
       <c r="G51" t="n">
-        <v>23.59688168767502</v>
+        <v>107.4996731719144</v>
       </c>
       <c r="H51" t="n">
-        <v>102.9414654977689</v>
+        <v>46.07526791913877</v>
       </c>
       <c r="I51" t="n">
-        <v>110.7864984672003</v>
+        <v>50.11449153149459</v>
       </c>
       <c r="J51" t="n">
         <v>1.96</v>
@@ -2085,28 +2085,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>45.29171776766097</v>
+        <v>102.2761210406664</v>
       </c>
       <c r="C52" t="n">
-        <v>45.29171776766097</v>
+        <v>102.2761210406664</v>
       </c>
       <c r="D52" t="n">
-        <v>51.66977242480939</v>
+        <v>89.37591685196359</v>
       </c>
       <c r="E52" t="n">
-        <v>104.6731997141375</v>
+        <v>92.51922747658202</v>
       </c>
       <c r="F52" t="n">
-        <v>30.29834098989255</v>
+        <v>102.0241567536926</v>
       </c>
       <c r="G52" t="n">
-        <v>22.32444889735478</v>
+        <v>107.5122729565666</v>
       </c>
       <c r="H52" t="n">
-        <v>103.9696417099241</v>
+        <v>47.66635116300626</v>
       </c>
       <c r="I52" t="n">
-        <v>111.4720376377518</v>
+        <v>47.87418910739005</v>
       </c>
       <c r="J52" t="n">
         <v>2</v>
@@ -2117,28 +2117,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>44.56049266958303</v>
+        <v>102.1126610100952</v>
       </c>
       <c r="C53" t="n">
-        <v>44.56049266958303</v>
+        <v>102.1126610100952</v>
       </c>
       <c r="D53" t="n">
-        <v>47.49650750776976</v>
+        <v>87.68628640342233</v>
       </c>
       <c r="E53" t="n">
-        <v>104.508582924674</v>
+        <v>92.28483134469897</v>
       </c>
       <c r="F53" t="n">
-        <v>32.81950868390317</v>
+        <v>95.30471918423139</v>
       </c>
       <c r="G53" t="n">
-        <v>19.29396857616837</v>
+        <v>106.7111113107781</v>
       </c>
       <c r="H53" t="n">
-        <v>103.1582686225839</v>
+        <v>51.13545308718152</v>
       </c>
       <c r="I53" t="n">
-        <v>109.9888579271093</v>
+        <v>45.90977152983253</v>
       </c>
       <c r="J53" t="n">
         <v>2.04</v>
@@ -2149,28 +2149,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>44.39637605879983</v>
+        <v>102.5173826904822</v>
       </c>
       <c r="C54" t="n">
-        <v>44.39637605879983</v>
+        <v>102.5173826904822</v>
       </c>
       <c r="D54" t="n">
-        <v>48.34927318619506</v>
+        <v>90.16392326333606</v>
       </c>
       <c r="E54" t="n">
-        <v>109.9413272510227</v>
+        <v>92.6340798178541</v>
       </c>
       <c r="F54" t="n">
-        <v>36.73438776774969</v>
+        <v>107.0069922050789</v>
       </c>
       <c r="G54" t="n">
-        <v>15.45446423318953</v>
+        <v>108.7405107673633</v>
       </c>
       <c r="H54" t="n">
-        <v>103.5387463517902</v>
+        <v>51.4013447814113</v>
       </c>
       <c r="I54" t="n">
-        <v>112.3595806085757</v>
+        <v>47.31117665283594</v>
       </c>
       <c r="J54" t="n">
         <v>2.08</v>
@@ -2181,28 +2181,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>44.68611445316861</v>
+        <v>101.9794968330726</v>
       </c>
       <c r="C55" t="n">
-        <v>44.68611445316861</v>
+        <v>101.9794968330726</v>
       </c>
       <c r="D55" t="n">
-        <v>53.76477148886542</v>
+        <v>90.94479803912178</v>
       </c>
       <c r="E55" t="n">
-        <v>115.8388001395277</v>
+        <v>93.02560265691753</v>
       </c>
       <c r="F55" t="n">
-        <v>41.12634626149892</v>
+        <v>112.8191982167695</v>
       </c>
       <c r="G55" t="n">
-        <v>12.34692695425773</v>
+        <v>110.6016642467977</v>
       </c>
       <c r="H55" t="n">
-        <v>100.9987640204839</v>
+        <v>51.80971942809026</v>
       </c>
       <c r="I55" t="n">
-        <v>115.5539856526141</v>
+        <v>50.437489647588</v>
       </c>
       <c r="J55" t="n">
         <v>2.12</v>
@@ -2213,28 +2213,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>44.12138704542906</v>
+        <v>101.9741113438927</v>
       </c>
       <c r="C56" t="n">
-        <v>44.12138704542906</v>
+        <v>101.9741113438927</v>
       </c>
       <c r="D56" t="n">
-        <v>50.33310592422822</v>
+        <v>91.1571407243549</v>
       </c>
       <c r="E56" t="n">
-        <v>123.3335021066058</v>
+        <v>93.05058394205899</v>
       </c>
       <c r="F56" t="n">
-        <v>39.37774451532704</v>
+        <v>113.9687970959476</v>
       </c>
       <c r="G56" t="n">
-        <v>9.320721791828333</v>
+        <v>112.2865859008858</v>
       </c>
       <c r="H56" t="n">
-        <v>103.8795184950648</v>
+        <v>50.52363270776028</v>
       </c>
       <c r="I56" t="n">
-        <v>119.3543285507872</v>
+        <v>52.23214163476747</v>
       </c>
       <c r="J56" t="n">
         <v>2.16</v>
@@ -2245,28 +2245,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>44.24925640970261</v>
+        <v>102.6416562941462</v>
       </c>
       <c r="C57" t="n">
-        <v>44.24925640970261</v>
+        <v>102.6416562941462</v>
       </c>
       <c r="D57" t="n">
-        <v>50.60791556819805</v>
+        <v>91.07713464659518</v>
       </c>
       <c r="E57" t="n">
-        <v>119.5211234839474</v>
+        <v>93.03597699703677</v>
       </c>
       <c r="F57" t="n">
-        <v>40.72223472266069</v>
+        <v>111.8945983586747</v>
       </c>
       <c r="G57" t="n">
-        <v>11.02766192430735</v>
+        <v>111.2912952412802</v>
       </c>
       <c r="H57" t="n">
-        <v>100.8475904278185</v>
+        <v>49.19785395424647</v>
       </c>
       <c r="I57" t="n">
-        <v>118.4382147967738</v>
+        <v>52.8673095000935</v>
       </c>
       <c r="J57" t="n">
         <v>2.2</v>
@@ -2277,28 +2277,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>45.89249799491515</v>
+        <v>102.4234230507512</v>
       </c>
       <c r="C58" t="n">
-        <v>45.89249799491515</v>
+        <v>102.4234230507512</v>
       </c>
       <c r="D58" t="n">
-        <v>52.25123936317181</v>
+        <v>91.40106956458392</v>
       </c>
       <c r="E58" t="n">
-        <v>120.9107191029541</v>
+        <v>89.96424499099911</v>
       </c>
       <c r="F58" t="n">
-        <v>45.49471026792469</v>
+        <v>118.1744989543368</v>
       </c>
       <c r="G58" t="n">
-        <v>11.96860479830806</v>
+        <v>114.7699276555805</v>
       </c>
       <c r="H58" t="n">
-        <v>99.56454543625452</v>
+        <v>35.13354942837864</v>
       </c>
       <c r="I58" t="n">
-        <v>116.1491075547045</v>
+        <v>45.97664361539558</v>
       </c>
       <c r="J58" t="n">
         <v>2.24</v>
@@ -2309,28 +2309,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>47.33141843960041</v>
+        <v>91.80122978158673</v>
       </c>
       <c r="C59" t="n">
-        <v>47.33141843960041</v>
+        <v>91.80122978158673</v>
       </c>
       <c r="D59" t="n">
-        <v>61.777755078217</v>
+        <v>88.52175800173336</v>
       </c>
       <c r="E59" t="n">
-        <v>103.2937578621127</v>
+        <v>87.85559379496186</v>
       </c>
       <c r="F59" t="n">
-        <v>38.69238072058383</v>
+        <v>122.9612597478733</v>
       </c>
       <c r="G59" t="n">
-        <v>15.35784761030862</v>
+        <v>122.7830257858511</v>
       </c>
       <c r="H59" t="n">
-        <v>114.307029399241</v>
+        <v>42.68198252650207</v>
       </c>
       <c r="I59" t="n">
-        <v>110.03663120278</v>
+        <v>44.39922704764576</v>
       </c>
       <c r="J59" t="n">
         <v>2.28</v>
@@ -2341,28 +2341,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>45.48472986565827</v>
+        <v>81.27303497766087</v>
       </c>
       <c r="C60" t="n">
-        <v>45.48472986565827</v>
+        <v>81.27303497766087</v>
       </c>
       <c r="D60" t="n">
-        <v>55.82839390920213</v>
+        <v>89.91215639872122</v>
       </c>
       <c r="E60" t="n">
-        <v>98.66457662015706</v>
+        <v>89.45235945271419</v>
       </c>
       <c r="F60" t="n">
-        <v>29.74980687233906</v>
+        <v>125.247162297839</v>
       </c>
       <c r="G60" t="n">
-        <v>18.34366592450152</v>
+        <v>129.3459424162293</v>
       </c>
       <c r="H60" t="n">
-        <v>120.5977407096711</v>
+        <v>50.77579737176622</v>
       </c>
       <c r="I60" t="n">
-        <v>108.6864719761371</v>
+        <v>42.34600709059405</v>
       </c>
       <c r="J60" t="n">
         <v>2.32</v>
@@ -2373,28 +2373,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>42.62448963195325</v>
+        <v>78.39364373592181</v>
       </c>
       <c r="C61" t="n">
-        <v>42.62448963195325</v>
+        <v>78.39364373592181</v>
       </c>
       <c r="D61" t="n">
-        <v>48.17377073418976</v>
+        <v>92.06944796066061</v>
       </c>
       <c r="E61" t="n">
-        <v>102.5657244349417</v>
+        <v>91.15741785613672</v>
       </c>
       <c r="F61" t="n">
-        <v>17.25680636046732</v>
+        <v>128.8941585551238</v>
       </c>
       <c r="G61" t="n">
-        <v>17.30428860855</v>
+        <v>133.1425196884683</v>
       </c>
       <c r="H61" t="n">
-        <v>118.0644637897755</v>
+        <v>58.36495669499449</v>
       </c>
       <c r="I61" t="n">
-        <v>111.6277300183265</v>
+        <v>41.22759806856612</v>
       </c>
       <c r="J61" t="n">
         <v>2.36</v>
@@ -2405,28 +2405,28 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>42.9491389105888</v>
+        <v>73.1428826162133</v>
       </c>
       <c r="C62" t="n">
-        <v>42.9491389105888</v>
+        <v>73.1428826162133</v>
       </c>
       <c r="D62" t="n">
-        <v>50.4995430453763</v>
+        <v>94.41528831295879</v>
       </c>
       <c r="E62" t="n">
-        <v>103.5516238026962</v>
+        <v>93.81898058199633</v>
       </c>
       <c r="F62" t="n">
-        <v>14.33672953874708</v>
+        <v>127.8940066290976</v>
       </c>
       <c r="G62" t="n">
-        <v>24.20257701384742</v>
+        <v>134.8458312211064</v>
       </c>
       <c r="H62" t="n">
-        <v>116.1253331879262</v>
+        <v>60.22856524096833</v>
       </c>
       <c r="I62" t="n">
-        <v>119.8946505856711</v>
+        <v>40.96424119147299</v>
       </c>
       <c r="J62" t="n">
         <v>2.4</v>
@@ -2437,28 +2437,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>42.94307228053017</v>
+        <v>72.01231772532539</v>
       </c>
       <c r="C63" t="n">
-        <v>42.94307228053017</v>
+        <v>72.01231772532539</v>
       </c>
       <c r="D63" t="n">
-        <v>51.27553406493647</v>
+        <v>96.02170828689319</v>
       </c>
       <c r="E63" t="n">
-        <v>106.5936657809834</v>
+        <v>94.30248743869905</v>
       </c>
       <c r="F63" t="n">
-        <v>15.70933591631388</v>
+        <v>122.381043652858</v>
       </c>
       <c r="G63" t="n">
-        <v>23.51099751813243</v>
+        <v>133.5252734797218</v>
       </c>
       <c r="H63" t="n">
-        <v>118.1170949873146</v>
+        <v>58.57866996864298</v>
       </c>
       <c r="I63" t="n">
-        <v>121.4822059205546</v>
+        <v>40.70726451544169</v>
       </c>
       <c r="J63" t="n">
         <v>2.44</v>
@@ -2469,28 +2469,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>42.69687180746385</v>
+        <v>73.18534721887312</v>
       </c>
       <c r="C64" t="n">
-        <v>42.69687180746385</v>
+        <v>73.18534721887312</v>
       </c>
       <c r="D64" t="n">
-        <v>50.56603044284543</v>
+        <v>96.34522817275349</v>
       </c>
       <c r="E64" t="n">
-        <v>106.4504456705941</v>
+        <v>93.35370358747087</v>
       </c>
       <c r="F64" t="n">
-        <v>15.96260151097331</v>
+        <v>120.3908503911969</v>
       </c>
       <c r="G64" t="n">
-        <v>23.80880187634156</v>
+        <v>132.1425108839847</v>
       </c>
       <c r="H64" t="n">
-        <v>120.9377133750587</v>
+        <v>57.92605727798079</v>
       </c>
       <c r="I64" t="n">
-        <v>121.5265252688829</v>
+        <v>40.3063445509971</v>
       </c>
       <c r="J64" t="n">
         <v>2.48</v>
@@ -2501,28 +2501,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>43.08964376278445</v>
+        <v>70.05186787161834</v>
       </c>
       <c r="C65" t="n">
-        <v>43.08964376278445</v>
+        <v>70.05186787161834</v>
       </c>
       <c r="D65" t="n">
-        <v>50.80853762972512</v>
+        <v>96.74964321600967</v>
       </c>
       <c r="E65" t="n">
-        <v>103.4464128164133</v>
+        <v>95.18448606367065</v>
       </c>
       <c r="F65" t="n">
-        <v>16.07057747209578</v>
+        <v>121.5160786923116</v>
       </c>
       <c r="G65" t="n">
-        <v>25.92333833868847</v>
+        <v>133.9630369819131</v>
       </c>
       <c r="H65" t="n">
-        <v>121.3340839845604</v>
+        <v>57.73446292250844</v>
       </c>
       <c r="I65" t="n">
-        <v>120.8041656584621</v>
+        <v>40.13729986140656</v>
       </c>
       <c r="J65" t="n">
         <v>2.52</v>
@@ -2533,28 +2533,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>43.33215964419421</v>
+        <v>70.78100159924888</v>
       </c>
       <c r="C66" t="n">
-        <v>43.33215964419421</v>
+        <v>70.78100159924888</v>
       </c>
       <c r="D66" t="n">
-        <v>47.16829244630421</v>
+        <v>96.8707975901513</v>
       </c>
       <c r="E66" t="n">
-        <v>104.2695787338543</v>
+        <v>94.34443418702428</v>
       </c>
       <c r="F66" t="n">
-        <v>14.73357766868855</v>
+        <v>116.5458301511267</v>
       </c>
       <c r="G66" t="n">
-        <v>29.5160303091142</v>
+        <v>131.4524816085708</v>
       </c>
       <c r="H66" t="n">
-        <v>123.786143079524</v>
+        <v>54.63707913724838</v>
       </c>
       <c r="I66" t="n">
-        <v>122.323935812637</v>
+        <v>39.64850144708838</v>
       </c>
       <c r="J66" t="n">
         <v>2.56</v>
@@ -2565,28 +2565,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>44.308384600789</v>
+        <v>70.19785018610932</v>
       </c>
       <c r="C67" t="n">
-        <v>44.308384600789</v>
+        <v>70.19785018610932</v>
       </c>
       <c r="D67" t="n">
-        <v>47.51674686764284</v>
+        <v>96.64608668096153</v>
       </c>
       <c r="E67" t="n">
-        <v>104.9845437793689</v>
+        <v>94.94689555082736</v>
       </c>
       <c r="F67" t="n">
-        <v>12.54067302711428</v>
+        <v>113.6540087340311</v>
       </c>
       <c r="G67" t="n">
-        <v>30.12572781107849</v>
+        <v>131.7035117665094</v>
       </c>
       <c r="H67" t="n">
-        <v>124.2428737000015</v>
+        <v>52.09742274554312</v>
       </c>
       <c r="I67" t="n">
-        <v>121.144772382603</v>
+        <v>38.90709412366873</v>
       </c>
       <c r="J67" t="n">
         <v>2.6</v>
@@ -2597,28 +2597,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>43.46231037995224</v>
+        <v>70.37074785665769</v>
       </c>
       <c r="C68" t="n">
-        <v>43.46231037995224</v>
+        <v>70.37074785665769</v>
       </c>
       <c r="D68" t="n">
-        <v>53.93428663607833</v>
+        <v>95.13686389289994</v>
       </c>
       <c r="E68" t="n">
-        <v>102.9376246343736</v>
+        <v>96.24002094293743</v>
       </c>
       <c r="F68" t="n">
-        <v>15.73819271534376</v>
+        <v>115.9648323014107</v>
       </c>
       <c r="G68" t="n">
-        <v>32.44164305408614</v>
+        <v>134.8939404299753</v>
       </c>
       <c r="H68" t="n">
-        <v>119.7701999822058</v>
+        <v>51.43087546527367</v>
       </c>
       <c r="I68" t="n">
-        <v>118.8216259219338</v>
+        <v>38.57062866798677</v>
       </c>
       <c r="J68" t="n">
         <v>2.64</v>
@@ -2629,28 +2629,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>44.35517764477737</v>
+        <v>74.19405623622016</v>
       </c>
       <c r="C69" t="n">
-        <v>44.35517764477737</v>
+        <v>74.19405623622016</v>
       </c>
       <c r="D69" t="n">
-        <v>66.35131291105998</v>
+        <v>94.11927830027116</v>
       </c>
       <c r="E69" t="n">
-        <v>104.5572814060666</v>
+        <v>93.87904151195121</v>
       </c>
       <c r="F69" t="n">
-        <v>22.45179703183851</v>
+        <v>115.8931632566722</v>
       </c>
       <c r="G69" t="n">
-        <v>33.76641789384794</v>
+        <v>133.3758832695877</v>
       </c>
       <c r="H69" t="n">
-        <v>113.2194268579547</v>
+        <v>50.85830175174567</v>
       </c>
       <c r="I69" t="n">
-        <v>119.4635678747713</v>
+        <v>38.15733966044358</v>
       </c>
       <c r="J69" t="n">
         <v>2.68</v>
@@ -2661,28 +2661,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>45.38799400317524</v>
+        <v>79.27752820251186</v>
       </c>
       <c r="C70" t="n">
-        <v>45.38799400317524</v>
+        <v>79.27752820251186</v>
       </c>
       <c r="D70" t="n">
-        <v>66.09201956573723</v>
+        <v>93.386900074704</v>
       </c>
       <c r="E70" t="n">
-        <v>111.9646767196257</v>
+        <v>91.26538890201611</v>
       </c>
       <c r="F70" t="n">
-        <v>21.93357011754634</v>
+        <v>113.3451034291111</v>
       </c>
       <c r="G70" t="n">
-        <v>30.88462050105016</v>
+        <v>131.9571598469248</v>
       </c>
       <c r="H70" t="n">
-        <v>114.7539189735062</v>
+        <v>50.41868886014198</v>
       </c>
       <c r="I70" t="n">
-        <v>119.1330110820697</v>
+        <v>37.34811976778357</v>
       </c>
       <c r="J70" t="n">
         <v>2.72</v>
@@ -2693,28 +2693,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>47.13701819785797</v>
+        <v>82.69362422284193</v>
       </c>
       <c r="C71" t="n">
-        <v>47.13701819785797</v>
+        <v>82.69362422284193</v>
       </c>
       <c r="D71" t="n">
-        <v>63.62724090545292</v>
+        <v>92.86744024334928</v>
       </c>
       <c r="E71" t="n">
-        <v>117.0937343291311</v>
+        <v>89.61627170222812</v>
       </c>
       <c r="F71" t="n">
-        <v>18.3791845256373</v>
+        <v>110.5469894090131</v>
       </c>
       <c r="G71" t="n">
-        <v>26.00724924924629</v>
+        <v>129.8858698350614</v>
       </c>
       <c r="H71" t="n">
-        <v>116.8622354033879</v>
+        <v>48.95340554646369</v>
       </c>
       <c r="I71" t="n">
-        <v>114.3906145933037</v>
+        <v>39.70586510786487</v>
       </c>
       <c r="J71" t="n">
         <v>2.76</v>
@@ -2725,28 +2725,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>46.62651252339674</v>
+        <v>84.56195612166877</v>
       </c>
       <c r="C72" t="n">
-        <v>46.62651252339674</v>
+        <v>84.56195612166877</v>
       </c>
       <c r="D72" t="n">
-        <v>62.20946545727709</v>
+        <v>92.37060137142494</v>
       </c>
       <c r="E72" t="n">
-        <v>119.237001506345</v>
+        <v>87.92780123068073</v>
       </c>
       <c r="F72" t="n">
-        <v>25.13493311365815</v>
+        <v>104.360275354023</v>
       </c>
       <c r="G72" t="n">
-        <v>23.20908343900601</v>
+        <v>120.4752226734216</v>
       </c>
       <c r="H72" t="n">
-        <v>120.9632515913845</v>
+        <v>44.47434557521505</v>
       </c>
       <c r="I72" t="n">
-        <v>122.281883455056</v>
+        <v>45.08064172088203</v>
       </c>
       <c r="J72" t="n">
         <v>2.8</v>
@@ -2757,28 +2757,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>46.54630473813091</v>
+        <v>89.68554043506639</v>
       </c>
       <c r="C73" t="n">
-        <v>46.54630473813091</v>
+        <v>89.68554043506639</v>
       </c>
       <c r="D73" t="n">
-        <v>68.08305036507632</v>
+        <v>90.6975836343498</v>
       </c>
       <c r="E73" t="n">
-        <v>110.7675981885848</v>
+        <v>85.86841156664994</v>
       </c>
       <c r="F73" t="n">
-        <v>26.21042702534098</v>
+        <v>99.97665803278083</v>
       </c>
       <c r="G73" t="n">
-        <v>39.41443383244504</v>
+        <v>113.5127627268447</v>
       </c>
       <c r="H73" t="n">
-        <v>119.1435285117958</v>
+        <v>43.01656481920087</v>
       </c>
       <c r="I73" t="n">
-        <v>106.4891404363429</v>
+        <v>47.31533608313756</v>
       </c>
       <c r="J73" t="n">
         <v>2.84</v>
@@ -2789,28 +2789,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>45.01763428627299</v>
+        <v>91.28666629280107</v>
       </c>
       <c r="C74" t="n">
-        <v>45.01763428627299</v>
+        <v>91.28666629280107</v>
       </c>
       <c r="D74" t="n">
-        <v>67.97817798159917</v>
+        <v>89.87130892311193</v>
       </c>
       <c r="E74" t="n">
-        <v>97.78452583949139</v>
+        <v>85.64038170889962</v>
       </c>
       <c r="F74" t="n">
-        <v>26.00411643194781</v>
+        <v>98.44813317402854</v>
       </c>
       <c r="G74" t="n">
-        <v>56.66899665097561</v>
+        <v>111.7918424654306</v>
       </c>
       <c r="H74" t="n">
-        <v>114.5702079826986</v>
+        <v>42.74753812562241</v>
       </c>
       <c r="I74" t="n">
-        <v>107.5153459434069</v>
+        <v>47.5209045157741</v>
       </c>
       <c r="J74" t="n">
         <v>2.88</v>
@@ -2821,28 +2821,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>46.20952421127373</v>
+        <v>92.39287053185785</v>
       </c>
       <c r="C75" t="n">
-        <v>46.20952421127373</v>
+        <v>92.39287053185785</v>
       </c>
       <c r="D75" t="n">
-        <v>76.99652129351801</v>
+        <v>89.15567801963186</v>
       </c>
       <c r="E75" t="n">
-        <v>89.81853286795591</v>
+        <v>85.64001284827161</v>
       </c>
       <c r="F75" t="n">
-        <v>29.88116072941227</v>
+        <v>96.60115963407196</v>
       </c>
       <c r="G75" t="n">
-        <v>73.76360383127295</v>
+        <v>114.2959158955299</v>
       </c>
       <c r="H75" t="n">
-        <v>113.0566314986207</v>
+        <v>41.54214874330548</v>
       </c>
       <c r="I75" t="n">
-        <v>106.5181157561129</v>
+        <v>42.49212720897446</v>
       </c>
       <c r="J75" t="n">
         <v>2.92</v>
@@ -2853,28 +2853,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>47.89594886438161</v>
+        <v>102.4786147217264</v>
       </c>
       <c r="C76" t="n">
-        <v>47.89594886438161</v>
+        <v>102.4786147217264</v>
       </c>
       <c r="D76" t="n">
-        <v>80.02534819797805</v>
+        <v>88.25242823495293</v>
       </c>
       <c r="E76" t="n">
-        <v>83.06887397278449</v>
+        <v>83.6332889368917</v>
       </c>
       <c r="F76" t="n">
-        <v>30.02365653395123</v>
+        <v>106.4426820392481</v>
       </c>
       <c r="G76" t="n">
-        <v>80.54317987310064</v>
+        <v>113.7091525572119</v>
       </c>
       <c r="H76" t="n">
-        <v>101.8550231410853</v>
+        <v>41.04408278910695</v>
       </c>
       <c r="I76" t="n">
-        <v>87.00909139321024</v>
+        <v>38.73069278396466</v>
       </c>
       <c r="J76" t="n">
         <v>2.96</v>
@@ -2885,28 +2885,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>49.82085479322825</v>
+        <v>101.3074322991825</v>
       </c>
       <c r="C77" t="n">
-        <v>49.82085479322825</v>
+        <v>101.3074322991825</v>
       </c>
       <c r="D77" t="n">
-        <v>81.40641283974425</v>
+        <v>90.00595752156471</v>
       </c>
       <c r="E77" t="n">
-        <v>81.45051831496242</v>
+        <v>85.13795030995335</v>
       </c>
       <c r="F77" t="n">
-        <v>24.92464090785944</v>
+        <v>111.5461175966716</v>
       </c>
       <c r="G77" t="n">
-        <v>80.30094544601462</v>
+        <v>115.9893290060105</v>
       </c>
       <c r="H77" t="n">
-        <v>93.20005502210255</v>
+        <v>40.29005087458185</v>
       </c>
       <c r="I77" t="n">
-        <v>96.28072439261459</v>
+        <v>40.70734971216859</v>
       </c>
       <c r="J77" t="n">
         <v>3</v>
@@ -2917,28 +2917,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>50.37415852519274</v>
+        <v>100.7059834751278</v>
       </c>
       <c r="C78" t="n">
-        <v>50.37415852519274</v>
+        <v>100.7059834751278</v>
       </c>
       <c r="D78" t="n">
-        <v>75.30836065576035</v>
+        <v>90.88299580059743</v>
       </c>
       <c r="E78" t="n">
-        <v>82.98109204093058</v>
+        <v>85.82062297773201</v>
       </c>
       <c r="F78" t="n">
-        <v>18.21151329104467</v>
+        <v>115.8831921983634</v>
       </c>
       <c r="G78" t="n">
-        <v>71.84364422862011</v>
+        <v>117.5566940444233</v>
       </c>
       <c r="H78" t="n">
-        <v>93.71609068388399</v>
+        <v>40.36722953254822</v>
       </c>
       <c r="I78" t="n">
-        <v>102.0745702245909</v>
+        <v>44.05690826911216</v>
       </c>
       <c r="J78" t="n">
         <v>3.04</v>
@@ -2949,28 +2949,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>49.73354620924948</v>
+        <v>101.7421539731382</v>
       </c>
       <c r="C79" t="n">
-        <v>49.73354620924948</v>
+        <v>101.7421539731382</v>
       </c>
       <c r="D79" t="n">
-        <v>72.1803407476507</v>
+        <v>91.7968741140719</v>
       </c>
       <c r="E79" t="n">
-        <v>84.87631721521832</v>
+        <v>86.29622567683737</v>
       </c>
       <c r="F79" t="n">
-        <v>16.65340416285918</v>
+        <v>117.9495233072604</v>
       </c>
       <c r="G79" t="n">
-        <v>64.75695319945054</v>
+        <v>117.3800210678417</v>
       </c>
       <c r="H79" t="n">
-        <v>95.55296377679885</v>
+        <v>40.41212880156407</v>
       </c>
       <c r="I79" t="n">
-        <v>109.9644331226456</v>
+        <v>46.32665347986515</v>
       </c>
       <c r="J79" t="n">
         <v>3.08</v>
@@ -2981,28 +2981,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>47.91912066982761</v>
+        <v>101.8179180748733</v>
       </c>
       <c r="C80" t="n">
-        <v>47.91912066982761</v>
+        <v>101.8179180748733</v>
       </c>
       <c r="D80" t="n">
-        <v>69.25788709409984</v>
+        <v>92.02960249843628</v>
       </c>
       <c r="E80" t="n">
-        <v>86.8451283676096</v>
+        <v>86.85909489483154</v>
       </c>
       <c r="F80" t="n">
-        <v>14.62125984326482</v>
+        <v>116.2471731015498</v>
       </c>
       <c r="G80" t="n">
-        <v>57.86739971243198</v>
+        <v>115.5854913600715</v>
       </c>
       <c r="H80" t="n">
-        <v>102.0627260331399</v>
+        <v>39.76098139359028</v>
       </c>
       <c r="I80" t="n">
-        <v>111.1986633052338</v>
+        <v>47.18422377136046</v>
       </c>
       <c r="J80" t="n">
         <v>3.12</v>
@@ -3013,28 +3013,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>44.02969796880251</v>
+        <v>102.4635284618603</v>
       </c>
       <c r="C81" t="n">
-        <v>44.02969796880251</v>
+        <v>102.4635284618603</v>
       </c>
       <c r="D81" t="n">
-        <v>63.68202826322883</v>
+        <v>92.35783322614796</v>
       </c>
       <c r="E81" t="n">
-        <v>94.36898195876933</v>
+        <v>88.36319311262845</v>
       </c>
       <c r="F81" t="n">
-        <v>11.16366397743366</v>
+        <v>115.8864586698888</v>
       </c>
       <c r="G81" t="n">
-        <v>47.55314321305966</v>
+        <v>113.821811392629</v>
       </c>
       <c r="H81" t="n">
-        <v>104.0301402202248</v>
+        <v>38.10860552658502</v>
       </c>
       <c r="I81" t="n">
-        <v>110.1822659519762</v>
+        <v>49.39427553941491</v>
       </c>
       <c r="J81" t="n">
         <v>3.16</v>
@@ -3045,28 +3045,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>42.36623237104928</v>
+        <v>102.1884539508965</v>
       </c>
       <c r="C82" t="n">
-        <v>42.36623237104928</v>
+        <v>102.1884539508965</v>
       </c>
       <c r="D82" t="n">
-        <v>54.76279216546612</v>
+        <v>92.41156375022355</v>
       </c>
       <c r="E82" t="n">
-        <v>96.91792607606281</v>
+        <v>89.69479180678628</v>
       </c>
       <c r="F82" t="n">
-        <v>9.148773970377704</v>
+        <v>115.8451185112542</v>
       </c>
       <c r="G82" t="n">
-        <v>40.87543567964519</v>
+        <v>112.6610449945139</v>
       </c>
       <c r="H82" t="n">
-        <v>112.6787376625879</v>
+        <v>36.96505657141159</v>
       </c>
       <c r="I82" t="n">
-        <v>111.9372419513986</v>
+        <v>51.79705180879313</v>
       </c>
       <c r="J82" t="n">
         <v>3.2</v>
@@ -3077,28 +3077,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>41.99119899519431</v>
+        <v>102.7473284491049</v>
       </c>
       <c r="C83" t="n">
-        <v>41.99119899519431</v>
+        <v>102.7473284491049</v>
       </c>
       <c r="D83" t="n">
-        <v>51.94037229332082</v>
+        <v>92.77333369563742</v>
       </c>
       <c r="E83" t="n">
-        <v>99.51494964795222</v>
+        <v>91.15114123652693</v>
       </c>
       <c r="F83" t="n">
-        <v>8.165162488752941</v>
+        <v>118.3599433316757</v>
       </c>
       <c r="G83" t="n">
-        <v>33.84910125943762</v>
+        <v>112.9508607896891</v>
       </c>
       <c r="H83" t="n">
-        <v>114.9196894603326</v>
+        <v>37.22037813666383</v>
       </c>
       <c r="I83" t="n">
-        <v>111.2437615738454</v>
+        <v>55.09296163226062</v>
       </c>
       <c r="J83" t="n">
         <v>3.24</v>
@@ -3109,28 +3109,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>41.97538714854105</v>
+        <v>104.2427309831445</v>
       </c>
       <c r="C84" t="n">
-        <v>41.97538714854105</v>
+        <v>104.2427309831445</v>
       </c>
       <c r="D84" t="n">
-        <v>49.88530553773401</v>
+        <v>93.26248073404842</v>
       </c>
       <c r="E84" t="n">
-        <v>100.0879844632084</v>
+        <v>92.18607162528575</v>
       </c>
       <c r="F84" t="n">
-        <v>7.242067188285233</v>
+        <v>119.8685002401735</v>
       </c>
       <c r="G84" t="n">
-        <v>28.08441482375912</v>
+        <v>112.5188379243822</v>
       </c>
       <c r="H84" t="n">
-        <v>116.4458523192676</v>
+        <v>37.0523130815832</v>
       </c>
       <c r="I84" t="n">
-        <v>110.6192624934255</v>
+        <v>55.71851373775992</v>
       </c>
       <c r="J84" t="n">
         <v>3.28</v>
@@ -3141,28 +3141,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>42.52952422639117</v>
+        <v>104.755647488837</v>
       </c>
       <c r="C85" t="n">
-        <v>42.52952422639117</v>
+        <v>104.755647488837</v>
       </c>
       <c r="D85" t="n">
-        <v>50.13019221241731</v>
+        <v>93.61463208548375</v>
       </c>
       <c r="E85" t="n">
-        <v>99.15968922104003</v>
+        <v>93.05038291116125</v>
       </c>
       <c r="F85" t="n">
-        <v>6.772923058780606</v>
+        <v>120.8855864523628</v>
       </c>
       <c r="G85" t="n">
-        <v>24.52011954647094</v>
+        <v>112.3784149756803</v>
       </c>
       <c r="H85" t="n">
-        <v>116.4763012501253</v>
+        <v>36.86033629311931</v>
       </c>
       <c r="I85" t="n">
-        <v>108.3469523184437</v>
+        <v>57.41943351207532</v>
       </c>
       <c r="J85" t="n">
         <v>3.32</v>
@@ -3173,28 +3173,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>42.55389146849271</v>
+        <v>105.570816261819</v>
       </c>
       <c r="C86" t="n">
-        <v>42.55389146849271</v>
+        <v>105.570816261819</v>
       </c>
       <c r="D86" t="n">
-        <v>49.11110080721713</v>
+        <v>93.15553180422793</v>
       </c>
       <c r="E86" t="n">
-        <v>99.80669728079046</v>
+        <v>93.61259371623947</v>
       </c>
       <c r="F86" t="n">
-        <v>6.371423981402558</v>
+        <v>118.5994468141173</v>
       </c>
       <c r="G86" t="n">
-        <v>22.6407339570867</v>
+        <v>110.6672543731469</v>
       </c>
       <c r="H86" t="n">
-        <v>116.9589500039141</v>
+        <v>36.53219912268164</v>
       </c>
       <c r="I86" t="n">
-        <v>107.3710919442925</v>
+        <v>56.01701229033362</v>
       </c>
       <c r="J86" t="n">
         <v>3.36</v>
@@ -3205,28 +3205,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>42.56945307321035</v>
+        <v>105.5700152550952</v>
       </c>
       <c r="C87" t="n">
-        <v>42.56945307321035</v>
+        <v>105.5700152550952</v>
       </c>
       <c r="D87" t="n">
-        <v>47.74178043689847</v>
+        <v>92.98859116705204</v>
       </c>
       <c r="E87" t="n">
-        <v>102.5155181705856</v>
+        <v>93.75998231495947</v>
       </c>
       <c r="F87" t="n">
-        <v>5.562804530272643</v>
+        <v>117.7327973712833</v>
       </c>
       <c r="G87" t="n">
-        <v>20.01992879246839</v>
+        <v>110.3825431823802</v>
       </c>
       <c r="H87" t="n">
-        <v>116.6946308207677</v>
+        <v>36.22110039855958</v>
       </c>
       <c r="I87" t="n">
-        <v>106.8976783099495</v>
+        <v>56.06369447139393</v>
       </c>
       <c r="J87" t="n">
         <v>3.4</v>
@@ -3237,28 +3237,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>42.42539501704681</v>
+        <v>105.4047727866535</v>
       </c>
       <c r="C88" t="n">
-        <v>42.42539501704681</v>
+        <v>105.4047727866535</v>
       </c>
       <c r="D88" t="n">
-        <v>48.02236938593791</v>
+        <v>93.6852967502643</v>
       </c>
       <c r="E88" t="n">
-        <v>103.7970053602606</v>
+        <v>94.02840384142188</v>
       </c>
       <c r="F88" t="n">
-        <v>5.664022423720581</v>
+        <v>120.6624193625064</v>
       </c>
       <c r="G88" t="n">
-        <v>20.08428333011022</v>
+        <v>111.5076330527583</v>
       </c>
       <c r="H88" t="n">
-        <v>116.9539111811345</v>
+        <v>36.47510370623795</v>
       </c>
       <c r="I88" t="n">
-        <v>109.3500742429123</v>
+        <v>57.63475729862652</v>
       </c>
       <c r="J88" t="n">
         <v>3.44</v>
@@ -3269,28 +3269,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>42.16563769774075</v>
+        <v>104.4722273469573</v>
       </c>
       <c r="C89" t="n">
-        <v>42.16563769774075</v>
+        <v>104.4722273469573</v>
       </c>
       <c r="D89" t="n">
-        <v>48.73109689370878</v>
+        <v>92.78293572877517</v>
       </c>
       <c r="E89" t="n">
-        <v>102.8630247553824</v>
+        <v>93.65751406917686</v>
       </c>
       <c r="F89" t="n">
-        <v>6.36543747037706</v>
+        <v>117.9386732791638</v>
       </c>
       <c r="G89" t="n">
-        <v>20.84552337735261</v>
+        <v>110.8032444707578</v>
       </c>
       <c r="H89" t="n">
-        <v>116.7208049442513</v>
+        <v>36.9932800006378</v>
       </c>
       <c r="I89" t="n">
-        <v>109.8232851146436</v>
+        <v>56.08960335455651</v>
       </c>
       <c r="J89" t="n">
         <v>3.48</v>
@@ -3301,28 +3301,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>41.7531473646371</v>
+        <v>102.1162573805549</v>
       </c>
       <c r="C90" t="n">
-        <v>41.7531473646371</v>
+        <v>102.1162573805549</v>
       </c>
       <c r="D90" t="n">
-        <v>49.30825079550164</v>
+        <v>91.72129951010666</v>
       </c>
       <c r="E90" t="n">
-        <v>102.9537318353359</v>
+        <v>93.10324049668836</v>
       </c>
       <c r="F90" t="n">
-        <v>8.888434534597337</v>
+        <v>116.5454200640909</v>
       </c>
       <c r="G90" t="n">
-        <v>22.3390335828631</v>
+        <v>110.5228136795309</v>
       </c>
       <c r="H90" t="n">
-        <v>115.3551542640161</v>
+        <v>37.03336469668663</v>
       </c>
       <c r="I90" t="n">
-        <v>111.5292088048437</v>
+        <v>55.05817133628645</v>
       </c>
       <c r="J90" t="n">
         <v>3.52</v>
@@ -3333,28 +3333,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>41.87418953364852</v>
+        <v>102.0627193728076</v>
       </c>
       <c r="C91" t="n">
-        <v>41.87418953364852</v>
+        <v>102.0627193728076</v>
       </c>
       <c r="D91" t="n">
-        <v>49.31164492031979</v>
+        <v>90.86675635571405</v>
       </c>
       <c r="E91" t="n">
-        <v>99.15767256583239</v>
+        <v>93.07793339833867</v>
       </c>
       <c r="F91" t="n">
-        <v>12.5216955327212</v>
+        <v>112.3046603247264</v>
       </c>
       <c r="G91" t="n">
-        <v>22.70935463330565</v>
+        <v>110.5499472820067</v>
       </c>
       <c r="H91" t="n">
-        <v>112.8376901184464</v>
+        <v>38.81036843286433</v>
       </c>
       <c r="I91" t="n">
-        <v>106.0312041290741</v>
+        <v>54.37265798964712</v>
       </c>
       <c r="J91" t="n">
         <v>3.56</v>
@@ -3365,28 +3365,28 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>43.97938932620909</v>
+        <v>102.1833449343855</v>
       </c>
       <c r="C92" t="n">
-        <v>43.97938932620909</v>
+        <v>102.1833449343855</v>
       </c>
       <c r="D92" t="n">
-        <v>51.39128312096133</v>
+        <v>90.28064787188136</v>
       </c>
       <c r="E92" t="n">
-        <v>97.0045363431435</v>
+        <v>93.16055282043433</v>
       </c>
       <c r="F92" t="n">
-        <v>17.09653224461491</v>
+        <v>106.5739367292731</v>
       </c>
       <c r="G92" t="n">
-        <v>24.03520333429478</v>
+        <v>108.0253624035531</v>
       </c>
       <c r="H92" t="n">
-        <v>110.8502330258633</v>
+        <v>43.58787644459338</v>
       </c>
       <c r="I92" t="n">
-        <v>105.4061205171877</v>
+        <v>52.65453492489368</v>
       </c>
       <c r="J92" t="n">
         <v>3.6</v>
@@ -3397,28 +3397,28 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>45.94534409580766</v>
+        <v>101.8345411570991</v>
       </c>
       <c r="C93" t="n">
-        <v>45.94534409580766</v>
+        <v>101.8345411570991</v>
       </c>
       <c r="D93" t="n">
-        <v>53.38514604837881</v>
+        <v>89.69174889265086</v>
       </c>
       <c r="E93" t="n">
-        <v>97.75999102975993</v>
+        <v>92.6999012625115</v>
       </c>
       <c r="F93" t="n">
-        <v>23.12338290078816</v>
+        <v>103.17441589984</v>
       </c>
       <c r="G93" t="n">
-        <v>24.32133508146384</v>
+        <v>107.2371938833373</v>
       </c>
       <c r="H93" t="n">
-        <v>104.4047000689314</v>
+        <v>45.92299254021204</v>
       </c>
       <c r="I93" t="n">
-        <v>106.9396126097938</v>
+        <v>50.04005803077236</v>
       </c>
       <c r="J93" t="n">
         <v>3.64</v>
@@ -3429,28 +3429,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>45.63242241053342</v>
+        <v>100.7701916514492</v>
       </c>
       <c r="C94" t="n">
-        <v>45.63242241053342</v>
+        <v>100.7701916514492</v>
       </c>
       <c r="D94" t="n">
-        <v>53.04593086544693</v>
+        <v>88.03466162187782</v>
       </c>
       <c r="E94" t="n">
-        <v>102.2680022724876</v>
+        <v>91.85287828252632</v>
       </c>
       <c r="F94" t="n">
-        <v>27.31019497923364</v>
+        <v>95.08283352686323</v>
       </c>
       <c r="G94" t="n">
-        <v>24.81311549242298</v>
+        <v>106.8700735439733</v>
       </c>
       <c r="H94" t="n">
-        <v>103.7530853396086</v>
+        <v>49.31582883252455</v>
       </c>
       <c r="I94" t="n">
-        <v>111.9183662365174</v>
+        <v>46.73730098809055</v>
       </c>
       <c r="J94" t="n">
         <v>3.68</v>
@@ -3461,28 +3461,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>45.63318213073481</v>
+        <v>100.0593008318263</v>
       </c>
       <c r="C95" t="n">
-        <v>45.63318213073481</v>
+        <v>100.0593008318263</v>
       </c>
       <c r="D95" t="n">
-        <v>50.1186010695277</v>
+        <v>87.13432330259816</v>
       </c>
       <c r="E95" t="n">
-        <v>105.5615825877186</v>
+        <v>91.59795718713752</v>
       </c>
       <c r="F95" t="n">
-        <v>31.1728695643354</v>
+        <v>91.97580379964769</v>
       </c>
       <c r="G95" t="n">
-        <v>21.09795361827713</v>
+        <v>107.0937955565953</v>
       </c>
       <c r="H95" t="n">
-        <v>103.5603327573657</v>
+        <v>50.85814834084661</v>
       </c>
       <c r="I95" t="n">
-        <v>111.2877620499049</v>
+        <v>45.71083868382567</v>
       </c>
       <c r="J95" t="n">
         <v>3.72</v>
@@ -3493,28 +3493,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>43.37142181782829</v>
+        <v>99.77153162825562</v>
       </c>
       <c r="C96" t="n">
-        <v>43.37142181782829</v>
+        <v>99.77153162825562</v>
       </c>
       <c r="D96" t="n">
-        <v>48.2563527417141</v>
+        <v>86.85412921618391</v>
       </c>
       <c r="E96" t="n">
-        <v>107.2114746928389</v>
+        <v>91.50776635155245</v>
       </c>
       <c r="F96" t="n">
-        <v>33.40976523664656</v>
+        <v>92.01925613877131</v>
       </c>
       <c r="G96" t="n">
-        <v>17.25486497111712</v>
+        <v>108.5982383285223</v>
       </c>
       <c r="H96" t="n">
-        <v>104.3950325598839</v>
+        <v>53.30792512078621</v>
       </c>
       <c r="I96" t="n">
-        <v>110.6521413615582</v>
+        <v>45.99048140367218</v>
       </c>
       <c r="J96" t="n">
         <v>3.76</v>
@@ -3525,28 +3525,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>44.0039692281029</v>
+        <v>99.81876068481958</v>
       </c>
       <c r="C97" t="n">
-        <v>44.0039692281029</v>
+        <v>99.81876068481958</v>
       </c>
       <c r="D97" t="n">
-        <v>49.47771367414208</v>
+        <v>89.36321469256028</v>
       </c>
       <c r="E97" t="n">
-        <v>113.6550740550254</v>
+        <v>92.03290330688824</v>
       </c>
       <c r="F97" t="n">
-        <v>38.42802402623047</v>
+        <v>106.9877334144151</v>
       </c>
       <c r="G97" t="n">
-        <v>12.96390068198835</v>
+        <v>108.7967112623855</v>
       </c>
       <c r="H97" t="n">
-        <v>104.0430056384791</v>
+        <v>52.67645431043186</v>
       </c>
       <c r="I97" t="n">
-        <v>112.946568212907</v>
+        <v>46.43659625531178</v>
       </c>
       <c r="J97" t="n">
         <v>3.8</v>
@@ -3557,28 +3557,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>44.61789791475377</v>
+        <v>99.80073684887026</v>
       </c>
       <c r="C98" t="n">
-        <v>44.61789791475377</v>
+        <v>99.80073684887026</v>
       </c>
       <c r="D98" t="n">
-        <v>50.86728397862268</v>
+        <v>89.9799964886939</v>
       </c>
       <c r="E98" t="n">
-        <v>119.2895283767203</v>
+        <v>92.08629072641574</v>
       </c>
       <c r="F98" t="n">
-        <v>39.94508592279954</v>
+        <v>110.2342432322127</v>
       </c>
       <c r="G98" t="n">
-        <v>11.68929956418245</v>
+        <v>112.0143427536392</v>
       </c>
       <c r="H98" t="n">
-        <v>107.2523143221338</v>
+        <v>51.78800951960299</v>
       </c>
       <c r="I98" t="n">
-        <v>118.0498187039548</v>
+        <v>50.24058974438164</v>
       </c>
       <c r="J98" t="n">
         <v>3.84</v>
@@ -3589,28 +3589,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>44.05611625975698</v>
+        <v>102.6121118466001</v>
       </c>
       <c r="C99" t="n">
-        <v>44.05611625975698</v>
+        <v>102.6121118466001</v>
       </c>
       <c r="D99" t="n">
-        <v>50.00330990308311</v>
+        <v>93.13237844884263</v>
       </c>
       <c r="E99" t="n">
-        <v>122.2415056718097</v>
+        <v>93.34672450909675</v>
       </c>
       <c r="F99" t="n">
-        <v>38.9204166237439</v>
+        <v>118.9981109535073</v>
       </c>
       <c r="G99" t="n">
-        <v>9.755488675229657</v>
+        <v>113.5108455094782</v>
       </c>
       <c r="H99" t="n">
-        <v>103.7779458955728</v>
+        <v>49.12175326709674</v>
       </c>
       <c r="I99" t="n">
-        <v>118.8034912289966</v>
+        <v>55.52024736647758</v>
       </c>
       <c r="J99" t="n">
         <v>3.88</v>
@@ -3621,28 +3621,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>45.68650652917043</v>
+        <v>102.5543049303963</v>
       </c>
       <c r="C100" t="n">
-        <v>45.68650652917043</v>
+        <v>102.5543049303963</v>
       </c>
       <c r="D100" t="n">
-        <v>49.5104452258679</v>
+        <v>91.96121118631945</v>
       </c>
       <c r="E100" t="n">
-        <v>123.6848051529651</v>
+        <v>91.85646878276778</v>
       </c>
       <c r="F100" t="n">
-        <v>39.06092103844284</v>
+        <v>116.2091216403951</v>
       </c>
       <c r="G100" t="n">
-        <v>9.745745473963751</v>
+        <v>110.9326116594278</v>
       </c>
       <c r="H100" t="n">
-        <v>101.5819042113862</v>
+        <v>39.73197921283964</v>
       </c>
       <c r="I100" t="n">
-        <v>119.659233376146</v>
+        <v>49.32327619835111</v>
       </c>
       <c r="J100" t="n">
         <v>3.92</v>
@@ -3653,28 +3653,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>45.90063226280122</v>
+        <v>92.82872050340767</v>
       </c>
       <c r="C101" t="n">
-        <v>45.90063226280122</v>
+        <v>92.82872050340767</v>
       </c>
       <c r="D101" t="n">
-        <v>60.92759643542871</v>
+        <v>88.41524580881351</v>
       </c>
       <c r="E101" t="n">
-        <v>119.073739369051</v>
+        <v>88.14846578912874</v>
       </c>
       <c r="F101" t="n">
-        <v>51.89644684420549</v>
+        <v>120.1498198823482</v>
       </c>
       <c r="G101" t="n">
-        <v>12.74544004623414</v>
+        <v>120.9862591383195</v>
       </c>
       <c r="H101" t="n">
-        <v>96.08802683249</v>
+        <v>40.00082931035524</v>
       </c>
       <c r="I101" t="n">
-        <v>120.6268850615167</v>
+        <v>43.52737273564732</v>
       </c>
       <c r="J101" t="n">
         <v>3.96</v>
@@ -3685,28 +3685,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>45.47735646523944</v>
+        <v>83.58267660407408</v>
       </c>
       <c r="C102" t="n">
-        <v>45.47735646523944</v>
+        <v>83.58267660407408</v>
       </c>
       <c r="D102" t="n">
-        <v>59.54156877325178</v>
+        <v>88.85183108717752</v>
       </c>
       <c r="E102" t="n">
-        <v>95.93349675800005</v>
+        <v>89.02615999279625</v>
       </c>
       <c r="F102" t="n">
-        <v>34.01607284945567</v>
+        <v>128.1764707471124</v>
       </c>
       <c r="G102" t="n">
-        <v>22.23228304491579</v>
+        <v>129.8199376666338</v>
       </c>
       <c r="H102" t="n">
-        <v>118.6681201263873</v>
+        <v>49.66800606024592</v>
       </c>
       <c r="I102" t="n">
-        <v>110.2479290603143</v>
+        <v>43.70981578720756</v>
       </c>
       <c r="J102" t="n">
         <v>4</v>
@@ -3717,28 +3717,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>44.83884237639981</v>
+        <v>79.4478520378611</v>
       </c>
       <c r="C103" t="n">
-        <v>44.83884237639981</v>
+        <v>79.4478520378611</v>
       </c>
       <c r="D103" t="n">
-        <v>54.42787941771829</v>
+        <v>91.58041066034681</v>
       </c>
       <c r="E103" t="n">
-        <v>97.618917518806</v>
+        <v>90.40966764619429</v>
       </c>
       <c r="F103" t="n">
-        <v>26.59791647310971</v>
+        <v>127.9554784021081</v>
       </c>
       <c r="G103" t="n">
-        <v>19.94615337125182</v>
+        <v>131.5938767359555</v>
       </c>
       <c r="H103" t="n">
-        <v>118.7401574699117</v>
+        <v>56.6739602150243</v>
       </c>
       <c r="I103" t="n">
-        <v>109.0186309262315</v>
+        <v>41.53453247318883</v>
       </c>
       <c r="J103" t="n">
         <v>4.04</v>
@@ -3749,28 +3749,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>42.94045094008496</v>
+        <v>74.3709636703082</v>
       </c>
       <c r="C104" t="n">
-        <v>42.94045094008496</v>
+        <v>74.3709636703082</v>
       </c>
       <c r="D104" t="n">
-        <v>49.29787290811049</v>
+        <v>93.85395289984666</v>
       </c>
       <c r="E104" t="n">
-        <v>101.1549716757746</v>
+        <v>93.09356352949887</v>
       </c>
       <c r="F104" t="n">
-        <v>16.98632699952373</v>
+        <v>126.7992160806048</v>
       </c>
       <c r="G104" t="n">
-        <v>19.21675074510227</v>
+        <v>133.7669291276289</v>
       </c>
       <c r="H104" t="n">
-        <v>116.4521339184838</v>
+        <v>59.02193036007854</v>
       </c>
       <c r="I104" t="n">
-        <v>111.2719073803965</v>
+        <v>40.97602281963427</v>
       </c>
       <c r="J104" t="n">
         <v>4.08</v>
@@ -3781,28 +3781,28 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>42.64183173096478</v>
+        <v>71.76201295681963</v>
       </c>
       <c r="C105" t="n">
-        <v>42.64183173096478</v>
+        <v>71.76201295681963</v>
       </c>
       <c r="D105" t="n">
-        <v>50.5686292535371</v>
+        <v>95.51894341413151</v>
       </c>
       <c r="E105" t="n">
-        <v>107.3736905280362</v>
+        <v>94.67553318313172</v>
       </c>
       <c r="F105" t="n">
-        <v>15.98363232572237</v>
+        <v>125.6402058860455</v>
       </c>
       <c r="G105" t="n">
-        <v>22.33135418615637</v>
+        <v>134.2662788891749</v>
       </c>
       <c r="H105" t="n">
-        <v>117.230036622269</v>
+        <v>60.26259986582154</v>
       </c>
       <c r="I105" t="n">
-        <v>120.8459997541227</v>
+        <v>41.22184566326187</v>
       </c>
       <c r="J105" t="n">
         <v>4.12</v>
@@ -3813,28 +3813,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>42.40487495611916</v>
+        <v>71.55819479104365</v>
       </c>
       <c r="C106" t="n">
-        <v>42.40487495611916</v>
+        <v>71.55819479104365</v>
       </c>
       <c r="D106" t="n">
-        <v>50.94197514014144</v>
+        <v>96.17099138651113</v>
       </c>
       <c r="E106" t="n">
-        <v>110.0759897373992</v>
+        <v>95.14470323952666</v>
       </c>
       <c r="F106" t="n">
-        <v>16.44333040954413</v>
+        <v>123.6435443373443</v>
       </c>
       <c r="G106" t="n">
-        <v>20.50956413273286</v>
+        <v>134.6224707014575</v>
       </c>
       <c r="H106" t="n">
-        <v>119.1762448270522</v>
+        <v>59.98207242659173</v>
       </c>
       <c r="I106" t="n">
-        <v>121.2578736091912</v>
+        <v>40.64689100493258</v>
       </c>
       <c r="J106" t="n">
         <v>4.16</v>
@@ -3845,28 +3845,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>42.12094518674758</v>
+        <v>69.35892511297719</v>
       </c>
       <c r="C107" t="n">
-        <v>42.12094518674758</v>
+        <v>69.35892511297719</v>
       </c>
       <c r="D107" t="n">
-        <v>50.68789593924086</v>
+        <v>97.21125371875758</v>
       </c>
       <c r="E107" t="n">
-        <v>109.8930612168522</v>
+        <v>95.55149334059321</v>
       </c>
       <c r="F107" t="n">
-        <v>16.51492034736165</v>
+        <v>119.6653354227673</v>
       </c>
       <c r="G107" t="n">
-        <v>20.24332850946158</v>
+        <v>133.1681347582569</v>
       </c>
       <c r="H107" t="n">
-        <v>120.9293194250651</v>
+        <v>57.09681419282047</v>
       </c>
       <c r="I107" t="n">
-        <v>120.546198562884</v>
+        <v>40.41315212586972</v>
       </c>
       <c r="J107" t="n">
         <v>4.2</v>
@@ -3877,28 +3877,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>41.62317844145932</v>
+        <v>69.18971299937283</v>
       </c>
       <c r="C108" t="n">
-        <v>41.62317844145932</v>
+        <v>69.18971299937283</v>
       </c>
       <c r="D108" t="n">
-        <v>45.23388262537807</v>
+        <v>97.68727828353701</v>
       </c>
       <c r="E108" t="n">
-        <v>110.0445707792553</v>
+        <v>95.40581397171974</v>
       </c>
       <c r="F108" t="n">
-        <v>14.16748611953065</v>
+        <v>117.0426361572826</v>
       </c>
       <c r="G108" t="n">
-        <v>22.21665671899092</v>
+        <v>132.4875488683856</v>
       </c>
       <c r="H108" t="n">
-        <v>122.9931856994359</v>
+        <v>55.52891824474056</v>
       </c>
       <c r="I108" t="n">
-        <v>121.0943928538239</v>
+        <v>39.77375109796701</v>
       </c>
       <c r="J108" t="n">
         <v>4.24</v>
@@ -3909,28 +3909,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>43.94955245194129</v>
+        <v>69.7147015206189</v>
       </c>
       <c r="C109" t="n">
-        <v>43.94955245194129</v>
+        <v>69.7147015206189</v>
       </c>
       <c r="D109" t="n">
-        <v>46.87913572859912</v>
+        <v>96.99812800303032</v>
       </c>
       <c r="E109" t="n">
-        <v>111.7805635328545</v>
+        <v>95.2208622629302</v>
       </c>
       <c r="F109" t="n">
-        <v>13.37743758581584</v>
+        <v>113.6808673230983</v>
       </c>
       <c r="G109" t="n">
-        <v>24.58087642066732</v>
+        <v>131.6317788306882</v>
       </c>
       <c r="H109" t="n">
-        <v>126.5461908437419</v>
+        <v>52.34021877471739</v>
       </c>
       <c r="I109" t="n">
-        <v>121.1587250210426</v>
+        <v>39.08079428929672</v>
       </c>
       <c r="J109" t="n">
         <v>4.28</v>
@@ -3941,28 +3941,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>45.04124224588429</v>
+        <v>70.10255466598943</v>
       </c>
       <c r="C110" t="n">
-        <v>45.04124224588429</v>
+        <v>70.10255466598943</v>
       </c>
       <c r="D110" t="n">
-        <v>54.10163814695866</v>
+        <v>95.68094491566445</v>
       </c>
       <c r="E110" t="n">
-        <v>107.7485467875894</v>
+        <v>96.14188746752689</v>
       </c>
       <c r="F110" t="n">
-        <v>16.03826156763554</v>
+        <v>114.5259994632762</v>
       </c>
       <c r="G110" t="n">
-        <v>31.26286374030863</v>
+        <v>134.0230889961182</v>
       </c>
       <c r="H110" t="n">
-        <v>120.0986801427313</v>
+        <v>50.9289340801079</v>
       </c>
       <c r="I110" t="n">
-        <v>124.7711689195687</v>
+        <v>38.41682166988757</v>
       </c>
       <c r="J110" t="n">
         <v>4.32</v>
@@ -3973,28 +3973,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>44.4674848335078</v>
+        <v>72.24446602458063</v>
       </c>
       <c r="C111" t="n">
-        <v>44.4674848335078</v>
+        <v>72.24446602458063</v>
       </c>
       <c r="D111" t="n">
-        <v>60.37051048039484</v>
+        <v>94.70813050137626</v>
       </c>
       <c r="E111" t="n">
-        <v>107.3580817696451</v>
+        <v>94.46942793865715</v>
       </c>
       <c r="F111" t="n">
-        <v>20.16715148457362</v>
+        <v>114.2522049009058</v>
       </c>
       <c r="G111" t="n">
-        <v>29.76815686162109</v>
+        <v>132.0623215757335</v>
       </c>
       <c r="H111" t="n">
-        <v>116.9128639454264</v>
+        <v>49.96390694788294</v>
       </c>
       <c r="I111" t="n">
-        <v>120.6033414688982</v>
+        <v>38.04467946157261</v>
       </c>
       <c r="J111" t="n">
         <v>4.36</v>
@@ -4005,28 +4005,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>44.60493851290758</v>
+        <v>77.38713721785469</v>
       </c>
       <c r="C112" t="n">
-        <v>44.60493851290758</v>
+        <v>77.38713721785469</v>
       </c>
       <c r="D112" t="n">
-        <v>63.17016692069512</v>
+        <v>93.87529786882469</v>
       </c>
       <c r="E112" t="n">
-        <v>107.8698587720549</v>
+        <v>91.91176219655563</v>
       </c>
       <c r="F112" t="n">
-        <v>22.06042004867248</v>
+        <v>112.6618766552918</v>
       </c>
       <c r="G112" t="n">
-        <v>31.20989477532589</v>
+        <v>131.1671350689004</v>
       </c>
       <c r="H112" t="n">
-        <v>115.8192271853173</v>
+        <v>49.70995212109213</v>
       </c>
       <c r="I112" t="n">
-        <v>119.3082298035734</v>
+        <v>37.13353056175188</v>
       </c>
       <c r="J112" t="n">
         <v>4.4</v>
@@ -4037,28 +4037,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>46.06153888573809</v>
+        <v>81.40990778964452</v>
       </c>
       <c r="C113" t="n">
-        <v>46.06153888573809</v>
+        <v>81.40990778964452</v>
       </c>
       <c r="D113" t="n">
-        <v>68.08353883877228</v>
+        <v>93.19803631844957</v>
       </c>
       <c r="E113" t="n">
-        <v>112.0544236840012</v>
+        <v>89.93813300696836</v>
       </c>
       <c r="F113" t="n">
-        <v>21.48745921377781</v>
+        <v>110.4635910242718</v>
       </c>
       <c r="G113" t="n">
-        <v>30.92628406781057</v>
+        <v>129.0988341394183</v>
       </c>
       <c r="H113" t="n">
-        <v>113.7612825602131</v>
+        <v>48.42625382023621</v>
       </c>
       <c r="I113" t="n">
-        <v>117.1840420650745</v>
+        <v>38.62863659662133</v>
       </c>
       <c r="J113" t="n">
         <v>4.44</v>
@@ -4069,28 +4069,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>47.19251299368753</v>
+        <v>82.30043058243751</v>
       </c>
       <c r="C114" t="n">
-        <v>47.19251299368753</v>
+        <v>82.30043058243751</v>
       </c>
       <c r="D114" t="n">
-        <v>63.83113997137593</v>
+        <v>93.13428038631102</v>
       </c>
       <c r="E114" t="n">
-        <v>119.1821142679458</v>
+        <v>89.39362597183619</v>
       </c>
       <c r="F114" t="n">
-        <v>21.50549589886509</v>
+        <v>106.2532736729244</v>
       </c>
       <c r="G114" t="n">
-        <v>25.09857881868473</v>
+        <v>125.1168499346791</v>
       </c>
       <c r="H114" t="n">
-        <v>117.1014800023406</v>
+        <v>45.47339007602266</v>
       </c>
       <c r="I114" t="n">
-        <v>114.3635534271734</v>
+        <v>42.68008278187393</v>
       </c>
       <c r="J114" t="n">
         <v>4.48</v>
@@ -4101,28 +4101,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>46.49279382834368</v>
+        <v>87.11118806066918</v>
       </c>
       <c r="C115" t="n">
-        <v>46.49279382834368</v>
+        <v>87.11118806066918</v>
       </c>
       <c r="D115" t="n">
-        <v>63.33998580413572</v>
+        <v>91.81459917668688</v>
       </c>
       <c r="E115" t="n">
-        <v>117.3179679467146</v>
+        <v>86.51535940479963</v>
       </c>
       <c r="F115" t="n">
-        <v>21.00598545078722</v>
+        <v>100.9193918768493</v>
       </c>
       <c r="G115" t="n">
-        <v>34.56880825831851</v>
+        <v>114.0576636385106</v>
       </c>
       <c r="H115" t="n">
-        <v>117.4081610624396</v>
+        <v>43.69262152178872</v>
       </c>
       <c r="I115" t="n">
-        <v>112.4795053022389</v>
+        <v>48.23442584315224</v>
       </c>
       <c r="J115" t="n">
         <v>4.52</v>
@@ -4133,28 +4133,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>45.97557712601548</v>
+        <v>89.99695508979946</v>
       </c>
       <c r="C116" t="n">
-        <v>45.97557712601548</v>
+        <v>89.99695508979946</v>
       </c>
       <c r="D116" t="n">
-        <v>70.00014880743785</v>
+        <v>90.53438822341069</v>
       </c>
       <c r="E116" t="n">
-        <v>107.5016588063202</v>
+        <v>85.89028201936385</v>
       </c>
       <c r="F116" t="n">
-        <v>33.54550574011458</v>
+        <v>98.72386207876828</v>
       </c>
       <c r="G116" t="n">
-        <v>34.00592325578347</v>
+        <v>111.1250594021534</v>
       </c>
       <c r="H116" t="n">
-        <v>105.6520475829625</v>
+        <v>42.710483133248</v>
       </c>
       <c r="I116" t="n">
-        <v>118.7776986371578</v>
+        <v>47.33083103121883</v>
       </c>
       <c r="J116" t="n">
         <v>4.56</v>
@@ -4165,28 +4165,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>44.70123503305751</v>
+        <v>92.13226711885928</v>
       </c>
       <c r="C117" t="n">
-        <v>44.70123503305751</v>
+        <v>92.13226711885928</v>
       </c>
       <c r="D117" t="n">
-        <v>68.41724637335025</v>
+        <v>89.38403966504086</v>
       </c>
       <c r="E117" t="n">
-        <v>98.22121523252531</v>
+        <v>85.76888549572095</v>
       </c>
       <c r="F117" t="n">
-        <v>28.71590872453487</v>
+        <v>97.53776903916763</v>
       </c>
       <c r="G117" t="n">
-        <v>57.71647363120123</v>
+        <v>114.0563203055173</v>
       </c>
       <c r="H117" t="n">
-        <v>111.7813943015097</v>
+        <v>41.75245514803717</v>
       </c>
       <c r="I117" t="n">
-        <v>97.61615297077046</v>
+        <v>42.19147736231913</v>
       </c>
       <c r="J117" t="n">
         <v>4.6</v>
@@ -4197,28 +4197,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>46.88459652479634</v>
+        <v>103.3376053313757</v>
       </c>
       <c r="C118" t="n">
-        <v>46.88459652479634</v>
+        <v>103.3376053313757</v>
       </c>
       <c r="D118" t="n">
-        <v>78.52345179467345</v>
+        <v>87.54223298737098</v>
       </c>
       <c r="E118" t="n">
-        <v>86.86962262974215</v>
+        <v>83.73602558582536</v>
       </c>
       <c r="F118" t="n">
-        <v>33.20313966443189</v>
+        <v>104.109463579088</v>
       </c>
       <c r="G118" t="n">
-        <v>74.38986067031372</v>
+        <v>111.5535993662475</v>
       </c>
       <c r="H118" t="n">
-        <v>111.9265343123602</v>
+        <v>41.18219147541181</v>
       </c>
       <c r="I118" t="n">
-        <v>89.23795505588939</v>
+        <v>39.37109839827873</v>
       </c>
       <c r="J118" t="n">
         <v>4.64</v>
@@ -4229,28 +4229,28 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>47.99037410852785</v>
+        <v>102.3219462584803</v>
       </c>
       <c r="C119" t="n">
-        <v>47.99037410852785</v>
+        <v>102.3219462584803</v>
       </c>
       <c r="D119" t="n">
-        <v>82.47604002107019</v>
+        <v>89.78002211493357</v>
       </c>
       <c r="E119" t="n">
-        <v>84.77311172448691</v>
+        <v>85.42977505168113</v>
       </c>
       <c r="F119" t="n">
-        <v>31.57563596128668</v>
+        <v>110.9043890979385</v>
       </c>
       <c r="G119" t="n">
-        <v>77.38266893343462</v>
+        <v>112.9458699771888</v>
       </c>
       <c r="H119" t="n">
-        <v>100.8188864727488</v>
+        <v>40.88424443645143</v>
       </c>
       <c r="I119" t="n">
-        <v>95.68593188287552</v>
+        <v>40.49957803734473</v>
       </c>
       <c r="J119" t="n">
         <v>4.68</v>
@@ -4261,28 +4261,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>49.75746599709925</v>
+        <v>102.3029731403427</v>
       </c>
       <c r="C120" t="n">
-        <v>49.75746599709925</v>
+        <v>102.3029731403427</v>
       </c>
       <c r="D120" t="n">
-        <v>78.73663980455734</v>
+        <v>90.97184496108137</v>
       </c>
       <c r="E120" t="n">
-        <v>82.83021185263269</v>
+        <v>85.75782540552149</v>
       </c>
       <c r="F120" t="n">
-        <v>22.48347388968762</v>
+        <v>116.9413903601447</v>
       </c>
       <c r="G120" t="n">
-        <v>76.88741594464969</v>
+        <v>117.5531035725411</v>
       </c>
       <c r="H120" t="n">
-        <v>93.23422212560224</v>
+        <v>41.299692699354</v>
       </c>
       <c r="I120" t="n">
-        <v>100.9598355688255</v>
+        <v>43.91722606147956</v>
       </c>
       <c r="J120" t="n">
         <v>4.72</v>
@@ -4293,28 +4293,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>49.48744781415419</v>
+        <v>102.7642002731468</v>
       </c>
       <c r="C121" t="n">
-        <v>49.48744781415419</v>
+        <v>102.7642002731468</v>
       </c>
       <c r="D121" t="n">
-        <v>73.33057766383639</v>
+        <v>91.95961873268841</v>
       </c>
       <c r="E121" t="n">
-        <v>85.78349141244782</v>
+        <v>86.12544373194591</v>
       </c>
       <c r="F121" t="n">
-        <v>21.00843881251788</v>
+        <v>118.2891951027235</v>
       </c>
       <c r="G121" t="n">
-        <v>69.1912236031842</v>
+        <v>117.7366064192341</v>
       </c>
       <c r="H121" t="n">
-        <v>97.0767204576802</v>
+        <v>41.04349689887628</v>
       </c>
       <c r="I121" t="n">
-        <v>104.2119389839501</v>
+        <v>46.22635376486364</v>
       </c>
       <c r="J121" t="n">
         <v>4.76</v>
@@ -4325,28 +4325,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>48.14795882836566</v>
+        <v>102.2261998092042</v>
       </c>
       <c r="C122" t="n">
-        <v>48.14795882836566</v>
+        <v>102.2261998092042</v>
       </c>
       <c r="D122" t="n">
-        <v>70.04256346828596</v>
+        <v>91.8874879740893</v>
       </c>
       <c r="E122" t="n">
-        <v>86.53713114040943</v>
+        <v>86.6918904713979</v>
       </c>
       <c r="F122" t="n">
-        <v>16.1224333119182</v>
+        <v>115.0941656601471</v>
       </c>
       <c r="G122" t="n">
-        <v>62.2427978366794</v>
+        <v>115.6617256636434</v>
       </c>
       <c r="H122" t="n">
-        <v>98.80287567369452</v>
+        <v>39.94714137319683</v>
       </c>
       <c r="I122" t="n">
-        <v>109.5606701591146</v>
+        <v>46.75559320149292</v>
       </c>
       <c r="J122" t="n">
         <v>4.8</v>
@@ -4357,28 +4357,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>45.70415724676334</v>
+        <v>102.515899814059</v>
       </c>
       <c r="C123" t="n">
-        <v>45.70415724676334</v>
+        <v>102.515899814059</v>
       </c>
       <c r="D123" t="n">
-        <v>67.53605346576302</v>
+        <v>92.53437748234133</v>
       </c>
       <c r="E123" t="n">
-        <v>88.70768953931238</v>
+        <v>87.92297212430999</v>
       </c>
       <c r="F123" t="n">
-        <v>14.18752861102988</v>
+        <v>116.2796901338163</v>
       </c>
       <c r="G123" t="n">
-        <v>56.97700178402941</v>
+        <v>114.4037694346564</v>
       </c>
       <c r="H123" t="n">
-        <v>103.9896836760509</v>
+        <v>38.4822987865378</v>
       </c>
       <c r="I123" t="n">
-        <v>110.8914127144976</v>
+        <v>48.80766550260202</v>
       </c>
       <c r="J123" t="n">
         <v>4.84</v>
@@ -4389,28 +4389,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>43.05190525648993</v>
+        <v>102.4587733059267</v>
       </c>
       <c r="C124" t="n">
-        <v>43.05190525648993</v>
+        <v>102.4587733059267</v>
       </c>
       <c r="D124" t="n">
-        <v>57.99929546226741</v>
+        <v>92.60160119200361</v>
       </c>
       <c r="E124" t="n">
-        <v>94.5786206005597</v>
+        <v>89.4699747941315</v>
       </c>
       <c r="F124" t="n">
-        <v>10.2511594719995</v>
+        <v>115.7028020604637</v>
       </c>
       <c r="G124" t="n">
-        <v>45.49845514805125</v>
+        <v>112.5312703746512</v>
       </c>
       <c r="H124" t="n">
-        <v>110.1932938146253</v>
+        <v>37.04650523408781</v>
       </c>
       <c r="I124" t="n">
-        <v>112.6284048884555</v>
+        <v>51.29251444273422</v>
       </c>
       <c r="J124" t="n">
         <v>4.88</v>
@@ -4421,28 +4421,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>42.14118488344548</v>
+        <v>103.2017860389728</v>
       </c>
       <c r="C125" t="n">
-        <v>42.14118488344548</v>
+        <v>103.2017860389728</v>
       </c>
       <c r="D125" t="n">
-        <v>53.75964936478665</v>
+        <v>93.26533219940713</v>
       </c>
       <c r="E125" t="n">
-        <v>97.60709655838939</v>
+        <v>90.90348213514079</v>
       </c>
       <c r="F125" t="n">
-        <v>8.426846206497771</v>
+        <v>119.5400518926031</v>
       </c>
       <c r="G125" t="n">
-        <v>38.86200849296426</v>
+        <v>113.2869060254909</v>
       </c>
       <c r="H125" t="n">
-        <v>113.2732247712813</v>
+        <v>36.97669881274403</v>
       </c>
       <c r="I125" t="n">
-        <v>112.0778150844779</v>
+        <v>54.40913997070921</v>
       </c>
       <c r="J125" t="n">
         <v>4.92</v>
@@ -4453,28 +4453,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>42.09582987093634</v>
+        <v>104.5838181601795</v>
       </c>
       <c r="C126" t="n">
-        <v>42.09582987093634</v>
+        <v>104.5838181601795</v>
       </c>
       <c r="D126" t="n">
-        <v>51.1785941311619</v>
+        <v>93.76129644990075</v>
       </c>
       <c r="E126" t="n">
-        <v>99.39300865802564</v>
+        <v>92.21554903499167</v>
       </c>
       <c r="F126" t="n">
-        <v>7.809469152158727</v>
+        <v>121.4412661683753</v>
       </c>
       <c r="G126" t="n">
-        <v>33.35548098383467</v>
+        <v>113.1695704369597</v>
       </c>
       <c r="H126" t="n">
-        <v>115.3743564024795</v>
+        <v>37.06488288156888</v>
       </c>
       <c r="I126" t="n">
-        <v>112.113554429951</v>
+        <v>56.24107408529976</v>
       </c>
       <c r="J126" t="n">
         <v>4.96</v>
@@ -4485,28 +4485,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>42.34490312751763</v>
+        <v>105.9267549697329</v>
       </c>
       <c r="C127" t="n">
-        <v>42.34490312751763</v>
+        <v>105.9267549697329</v>
       </c>
       <c r="D127" t="n">
-        <v>48.60352387990656</v>
+        <v>94.15656621408988</v>
       </c>
       <c r="E127" t="n">
-        <v>98.6283704816061</v>
+        <v>93.26351072476943</v>
       </c>
       <c r="F127" t="n">
-        <v>7.092953996825059</v>
+        <v>121.9699648260732</v>
       </c>
       <c r="G127" t="n">
-        <v>26.72006236603164</v>
+        <v>113.1159052259932</v>
       </c>
       <c r="H127" t="n">
-        <v>116.9827733839749</v>
+        <v>37.04593454929706</v>
       </c>
       <c r="I127" t="n">
-        <v>108.9151383653073</v>
+        <v>57.4996955274676</v>
       </c>
       <c r="J127" t="n">
         <v>5</v>
@@ -4517,28 +4517,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>42.60185097477466</v>
+        <v>106.9683173686662</v>
       </c>
       <c r="C128" t="n">
-        <v>42.60185097477466</v>
+        <v>106.9683173686662</v>
       </c>
       <c r="D128" t="n">
-        <v>48.91607653350894</v>
+        <v>94.15323655283811</v>
       </c>
       <c r="E128" t="n">
-        <v>98.48668048406635</v>
+        <v>93.99761730873799</v>
       </c>
       <c r="F128" t="n">
-        <v>6.651039402692078</v>
+        <v>121.4299891904077</v>
       </c>
       <c r="G128" t="n">
-        <v>23.48096856102336</v>
+        <v>112.1434615571051</v>
       </c>
       <c r="H128" t="n">
-        <v>116.9070847903175</v>
+        <v>36.86306056363502</v>
       </c>
       <c r="I128" t="n">
-        <v>106.8813032319457</v>
+        <v>57.15915202296033</v>
       </c>
       <c r="J128" t="n">
         <v>5.04</v>
@@ -4549,28 +4549,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>42.62082683585766</v>
+        <v>106.854531452608</v>
       </c>
       <c r="C129" t="n">
-        <v>42.62082683585766</v>
+        <v>106.854531452608</v>
       </c>
       <c r="D129" t="n">
-        <v>48.26770457486444</v>
+        <v>94.02556206459744</v>
       </c>
       <c r="E129" t="n">
-        <v>100.8220484647265</v>
+        <v>94.16761231690136</v>
       </c>
       <c r="F129" t="n">
-        <v>6.043038879141335</v>
+        <v>120.6573550424618</v>
       </c>
       <c r="G129" t="n">
-        <v>20.70806106144155</v>
+        <v>111.8001559443686</v>
       </c>
       <c r="H129" t="n">
-        <v>116.7552107571171</v>
+        <v>36.44425395193515</v>
       </c>
       <c r="I129" t="n">
-        <v>105.3582417280323</v>
+        <v>57.25753349848557</v>
       </c>
       <c r="J129" t="n">
         <v>5.08</v>
@@ -4581,28 +4581,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>42.61789138684392</v>
+        <v>106.656504126212</v>
       </c>
       <c r="C130" t="n">
-        <v>42.61789138684392</v>
+        <v>106.656504126212</v>
       </c>
       <c r="D130" t="n">
-        <v>47.78015129911631</v>
+        <v>93.89287206014644</v>
       </c>
       <c r="E130" t="n">
-        <v>102.9365653984142</v>
+        <v>94.2786353132628</v>
       </c>
       <c r="F130" t="n">
-        <v>5.507923604464281</v>
+        <v>120.314404772059</v>
       </c>
       <c r="G130" t="n">
-        <v>19.67645509244338</v>
+        <v>111.6401755010543</v>
       </c>
       <c r="H130" t="n">
-        <v>116.493959672419</v>
+        <v>36.47839116356688</v>
       </c>
       <c r="I130" t="n">
-        <v>106.5361570672092</v>
+        <v>57.43351526541051</v>
       </c>
       <c r="J130" t="n">
         <v>5.12</v>
@@ -4613,28 +4613,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>42.20748071846876</v>
+        <v>104.9521472810971</v>
       </c>
       <c r="C131" t="n">
-        <v>42.20748071846876</v>
+        <v>104.9521472810971</v>
       </c>
       <c r="D131" t="n">
-        <v>47.38404978755594</v>
+        <v>93.00974731750486</v>
       </c>
       <c r="E131" t="n">
-        <v>102.9983475505515</v>
+        <v>93.62898703236516</v>
       </c>
       <c r="F131" t="n">
-        <v>5.777937385015463</v>
+        <v>118.4516250829675</v>
       </c>
       <c r="G131" t="n">
-        <v>19.95702798144234</v>
+        <v>110.4635763636904</v>
       </c>
       <c r="H131" t="n">
-        <v>117.1333183186201</v>
+        <v>36.80460361393206</v>
       </c>
       <c r="I131" t="n">
-        <v>107.4513213722371</v>
+        <v>55.74610763441083</v>
       </c>
       <c r="J131" t="n">
         <v>5.16</v>
@@ -4645,28 +4645,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>41.93795845485002</v>
+        <v>102.5101756999137</v>
       </c>
       <c r="C132" t="n">
-        <v>41.93795845485002</v>
+        <v>102.5101756999137</v>
       </c>
       <c r="D132" t="n">
-        <v>48.15422515779622</v>
+        <v>91.88165734245111</v>
       </c>
       <c r="E132" t="n">
-        <v>104.2938690005118</v>
+        <v>93.13001033072896</v>
       </c>
       <c r="F132" t="n">
-        <v>6.835621434424127</v>
+        <v>116.8328355415528</v>
       </c>
       <c r="G132" t="n">
-        <v>21.92555368507985</v>
+        <v>110.8447228762218</v>
       </c>
       <c r="H132" t="n">
-        <v>116.6693066569946</v>
+        <v>37.15857085860197</v>
       </c>
       <c r="I132" t="n">
-        <v>112.2367275656958</v>
+        <v>55.34296855173537</v>
       </c>
       <c r="J132" t="n">
         <v>5.2</v>
@@ -4677,28 +4677,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>41.83430837916808</v>
+        <v>102.2359538999224</v>
       </c>
       <c r="C133" t="n">
-        <v>41.83430837916808</v>
+        <v>102.2359538999224</v>
       </c>
       <c r="D133" t="n">
-        <v>49.68093314003067</v>
+        <v>91.17606990612737</v>
       </c>
       <c r="E133" t="n">
-        <v>103.6815256569256</v>
+        <v>93.20721037752327</v>
       </c>
       <c r="F133" t="n">
-        <v>9.809362762667178</v>
+        <v>114.3229020149378</v>
       </c>
       <c r="G133" t="n">
-        <v>21.75381078288657</v>
+        <v>111.1764641821827</v>
       </c>
       <c r="H133" t="n">
-        <v>116.3242144542044</v>
+        <v>37.99348334212508</v>
       </c>
       <c r="I133" t="n">
-        <v>110.3665918299261</v>
+        <v>55.18765666730636</v>
       </c>
       <c r="J133" t="n">
         <v>5.24</v>
@@ -4709,28 +4709,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>42.7018477017491</v>
+        <v>102.6481567604275</v>
       </c>
       <c r="C134" t="n">
-        <v>42.7018477017491</v>
+        <v>102.6481567604275</v>
       </c>
       <c r="D134" t="n">
-        <v>50.77763057007081</v>
+        <v>90.79013789559617</v>
       </c>
       <c r="E134" t="n">
-        <v>99.18004706557218</v>
+        <v>93.45723084781527</v>
       </c>
       <c r="F134" t="n">
-        <v>14.23990324922843</v>
+        <v>110.1503321298927</v>
       </c>
       <c r="G134" t="n">
-        <v>23.56360902786486</v>
+        <v>110.9148792631532</v>
       </c>
       <c r="H134" t="n">
-        <v>112.2959517647038</v>
+        <v>41.51892136596274</v>
       </c>
       <c r="I134" t="n">
-        <v>106.9515712082894</v>
+        <v>54.16823551748438</v>
       </c>
       <c r="J134" t="n">
         <v>5.28</v>
@@ -4741,28 +4741,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>44.52668243691792</v>
+        <v>102.4775603146663</v>
       </c>
       <c r="C135" t="n">
-        <v>44.52668243691792</v>
+        <v>102.4775603146663</v>
       </c>
       <c r="D135" t="n">
-        <v>53.19727675830526</v>
+        <v>90.23205251761965</v>
       </c>
       <c r="E135" t="n">
-        <v>98.18140813528493</v>
+        <v>93.32268858472786</v>
       </c>
       <c r="F135" t="n">
-        <v>18.75302299169408</v>
+        <v>105.9066508640084</v>
       </c>
       <c r="G135" t="n">
-        <v>24.04566221435235</v>
+        <v>107.7131707793784</v>
       </c>
       <c r="H135" t="n">
-        <v>108.7270089534632</v>
+        <v>45.57388589706168</v>
       </c>
       <c r="I135" t="n">
-        <v>106.287373345564</v>
+        <v>51.33777676081102</v>
       </c>
       <c r="J135" t="n">
         <v>5.32</v>
@@ -4773,28 +4773,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>45.53125531519308</v>
+        <v>99.49795225685037</v>
       </c>
       <c r="C136" t="n">
-        <v>45.53125531519308</v>
+        <v>99.49795225685037</v>
       </c>
       <c r="D136" t="n">
-        <v>52.94717776260528</v>
+        <v>87.31328018052152</v>
       </c>
       <c r="E136" t="n">
-        <v>102.2322250565809</v>
+        <v>91.59277081704394</v>
       </c>
       <c r="F136" t="n">
-        <v>24.39352893493762</v>
+        <v>90.45087860227515</v>
       </c>
       <c r="G136" t="n">
-        <v>24.91051183811862</v>
+        <v>105.6511225675291</v>
       </c>
       <c r="H136" t="n">
-        <v>105.909225621046</v>
+        <v>48.96349437980467</v>
       </c>
       <c r="I136" t="n">
-        <v>111.0516239104903</v>
+        <v>45.97769918464228</v>
       </c>
       <c r="J136" t="n">
         <v>5.36</v>
@@ -4805,28 +4805,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>45.42869034722162</v>
+        <v>99.32105646406134</v>
       </c>
       <c r="C137" t="n">
-        <v>45.42869034722162</v>
+        <v>99.32105646406134</v>
       </c>
       <c r="D137" t="n">
-        <v>52.48587784057307</v>
+        <v>87.37267732767435</v>
       </c>
       <c r="E137" t="n">
-        <v>104.4446046227384</v>
+        <v>91.45512803568988</v>
       </c>
       <c r="F137" t="n">
-        <v>27.73715810590988</v>
+        <v>92.33274067783245</v>
       </c>
       <c r="G137" t="n">
-        <v>23.4361134174425</v>
+        <v>106.7329124069696</v>
       </c>
       <c r="H137" t="n">
-        <v>104.3661905705759</v>
+        <v>50.89599442802835</v>
       </c>
       <c r="I137" t="n">
-        <v>112.1117905152286</v>
+        <v>45.80495431551032</v>
       </c>
       <c r="J137" t="n">
         <v>5.4</v>
@@ -4837,28 +4837,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>44.94902629905113</v>
+        <v>96.32166715598078</v>
       </c>
       <c r="C138" t="n">
-        <v>44.94902629905113</v>
+        <v>96.32166715598078</v>
       </c>
       <c r="D138" t="n">
-        <v>47.34874070820041</v>
+        <v>86.46591164768854</v>
       </c>
       <c r="E138" t="n">
-        <v>104.9519074726648</v>
+        <v>90.42051544903811</v>
       </c>
       <c r="F138" t="n">
-        <v>32.64107676040561</v>
+        <v>86.02279759480773</v>
       </c>
       <c r="G138" t="n">
-        <v>22.02928784748332</v>
+        <v>108.4327499885154</v>
       </c>
       <c r="H138" t="n">
-        <v>102.384181091845</v>
+        <v>53.69732154305859</v>
       </c>
       <c r="I138" t="n">
-        <v>112.4989986679749</v>
+        <v>44.8928433795548</v>
       </c>
       <c r="J138" t="n">
         <v>5.44</v>
@@ -4869,28 +4869,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>44.34851877799363</v>
+        <v>96.50801594583724</v>
       </c>
       <c r="C139" t="n">
-        <v>44.34851877799363</v>
+        <v>96.50801594583724</v>
       </c>
       <c r="D139" t="n">
-        <v>47.19565913866089</v>
+        <v>87.2234496567285</v>
       </c>
       <c r="E139" t="n">
-        <v>107.688168112808</v>
+        <v>90.97594227300408</v>
       </c>
       <c r="F139" t="n">
-        <v>35.10607099457312</v>
+        <v>95.80280771234952</v>
       </c>
       <c r="G139" t="n">
-        <v>16.54604758742693</v>
+        <v>109.5788358388818</v>
       </c>
       <c r="H139" t="n">
-        <v>104.3090832707321</v>
+        <v>54.41786565746388</v>
       </c>
       <c r="I139" t="n">
-        <v>110.9826070673179</v>
+        <v>46.48020239732966</v>
       </c>
       <c r="J139" t="n">
         <v>5.48</v>
@@ -4901,28 +4901,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>44.18732731171355</v>
+        <v>96.4869676298682</v>
       </c>
       <c r="C140" t="n">
-        <v>44.18732731171355</v>
+        <v>96.4869676298682</v>
       </c>
       <c r="D140" t="n">
-        <v>48.53962993729823</v>
+        <v>88.77229473375498</v>
       </c>
       <c r="E140" t="n">
-        <v>114.6302258968818</v>
+        <v>91.38113932038681</v>
       </c>
       <c r="F140" t="n">
-        <v>38.65625706092831</v>
+        <v>109.6231048010807</v>
       </c>
       <c r="G140" t="n">
-        <v>11.7348274489332</v>
+        <v>112.4347861321846</v>
       </c>
       <c r="H140" t="n">
-        <v>104.4919175024682</v>
+        <v>52.88958871366054</v>
       </c>
       <c r="I140" t="n">
-        <v>113.5975754300986</v>
+        <v>50.67634188730802</v>
       </c>
       <c r="J140" t="n">
         <v>5.52</v>
@@ -4933,28 +4933,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>43.87140426351763</v>
+        <v>96.29736925843324</v>
       </c>
       <c r="C141" t="n">
-        <v>43.87140426351763</v>
+        <v>96.29736925843324</v>
       </c>
       <c r="D141" t="n">
-        <v>48.87412954634976</v>
+        <v>88.56315694833646</v>
       </c>
       <c r="E141" t="n">
-        <v>123.4446021428312</v>
+        <v>91.33188986730067</v>
       </c>
       <c r="F141" t="n">
-        <v>38.62712402976572</v>
+        <v>108.2894718073693</v>
       </c>
       <c r="G141" t="n">
-        <v>9.887830160309221</v>
+        <v>112.5206349326965</v>
       </c>
       <c r="H141" t="n">
-        <v>105.8761517836128</v>
+        <v>51.50260560332122</v>
       </c>
       <c r="I141" t="n">
-        <v>120.0162957120266</v>
+        <v>51.3995776404923</v>
       </c>
       <c r="J141" t="n">
         <v>5.56</v>
@@ -4965,28 +4965,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>42.51455920196327</v>
+        <v>97.41518506716092</v>
       </c>
       <c r="C142" t="n">
-        <v>42.51455920196327</v>
+        <v>97.41518506716092</v>
       </c>
       <c r="D142" t="n">
-        <v>47.66554332727412</v>
+        <v>89.01944662252859</v>
       </c>
       <c r="E142" t="n">
-        <v>121.5131437764782</v>
+        <v>91.34545899353844</v>
       </c>
       <c r="F142" t="n">
-        <v>37.45057301781353</v>
+        <v>107.9187320361271</v>
       </c>
       <c r="G142" t="n">
-        <v>10.61393332473034</v>
+        <v>110.3632272634133</v>
       </c>
       <c r="H142" t="n">
-        <v>99.90385094305991</v>
+        <v>48.69133262178218</v>
       </c>
       <c r="I142" t="n">
-        <v>119.0633578131125</v>
+        <v>51.68770158145362</v>
       </c>
       <c r="J142" t="n">
         <v>5.6</v>
@@ -4997,28 +4997,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>45.54706183841182</v>
+        <v>97.06009616482436</v>
       </c>
       <c r="C143" t="n">
-        <v>45.54706183841182</v>
+        <v>97.06009616482436</v>
       </c>
       <c r="D143" t="n">
-        <v>48.53479201552585</v>
+        <v>89.41775426169563</v>
       </c>
       <c r="E143" t="n">
-        <v>119.4164517481348</v>
+        <v>88.87549482243621</v>
       </c>
       <c r="F143" t="n">
-        <v>41.88201239906712</v>
+        <v>116.7389797731018</v>
       </c>
       <c r="G143" t="n">
-        <v>14.27939701265723</v>
+        <v>116.3278517815737</v>
       </c>
       <c r="H143" t="n">
-        <v>99.15832508558707</v>
+        <v>35.2278762259252</v>
       </c>
       <c r="I143" t="n">
-        <v>123.0749576383806</v>
+        <v>43.50095514117196</v>
       </c>
       <c r="J143" t="n">
         <v>5.64</v>
@@ -5029,28 +5029,28 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>47.58133709731663</v>
+        <v>85.80415144565683</v>
       </c>
       <c r="C144" t="n">
-        <v>47.58133709731663</v>
+        <v>85.80415144565683</v>
       </c>
       <c r="D144" t="n">
-        <v>65.02409377771372</v>
+        <v>88.39676627433803</v>
       </c>
       <c r="E144" t="n">
-        <v>109.4931873855732</v>
+        <v>88.11986570354372</v>
       </c>
       <c r="F144" t="n">
-        <v>40.96636022571437</v>
+        <v>122.6852004634058</v>
       </c>
       <c r="G144" t="n">
-        <v>14.00689699339597</v>
+        <v>122.7752183039272</v>
       </c>
       <c r="H144" t="n">
-        <v>120.5998273483641</v>
+        <v>43.3105438952873</v>
       </c>
       <c r="I144" t="n">
-        <v>114.7164468515007</v>
+        <v>43.44345029381969</v>
       </c>
       <c r="J144" t="n">
         <v>5.68</v>
@@ -5061,28 +5061,28 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>47.14606740649373</v>
+        <v>79.3571439221212</v>
       </c>
       <c r="C145" t="n">
-        <v>47.14606740649373</v>
+        <v>79.3571439221212</v>
       </c>
       <c r="D145" t="n">
-        <v>62.59517861889705</v>
+        <v>90.62287620525139</v>
       </c>
       <c r="E145" t="n">
-        <v>91.76900204852542</v>
+        <v>89.92185856108193</v>
       </c>
       <c r="F145" t="n">
-        <v>35.1656192823516</v>
+        <v>124.8410111886133</v>
       </c>
       <c r="G145" t="n">
-        <v>23.6542554458178</v>
+        <v>128.4732359774085</v>
       </c>
       <c r="H145" t="n">
-        <v>117.2415002926101</v>
+        <v>52.09607399974472</v>
       </c>
       <c r="I145" t="n">
-        <v>107.4743252812674</v>
+        <v>41.6992217171075</v>
       </c>
       <c r="J145" t="n">
         <v>5.72</v>
@@ -5093,28 +5093,28 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>43.3831811317967</v>
+        <v>74.65978827686956</v>
       </c>
       <c r="C146" t="n">
-        <v>43.3831811317967</v>
+        <v>74.65978827686956</v>
       </c>
       <c r="D146" t="n">
-        <v>48.20258232356764</v>
+        <v>92.67532808773386</v>
       </c>
       <c r="E146" t="n">
-        <v>100.3748276772391</v>
+        <v>92.87509690560992</v>
       </c>
       <c r="F146" t="n">
-        <v>18.14200913545486</v>
+        <v>128.3531210415762</v>
       </c>
       <c r="G146" t="n">
-        <v>16.94997876989447</v>
+        <v>133.4888944750307</v>
       </c>
       <c r="H146" t="n">
-        <v>118.1687507256007</v>
+        <v>58.20329910223182</v>
       </c>
       <c r="I146" t="n">
-        <v>109.1037273377255</v>
+        <v>41.21955280736766</v>
       </c>
       <c r="J146" t="n">
         <v>5.76</v>
@@ -5125,28 +5125,28 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>42.81872257869708</v>
+        <v>72.45107035971863</v>
       </c>
       <c r="C147" t="n">
-        <v>42.81872257869708</v>
+        <v>72.45107035971863</v>
       </c>
       <c r="D147" t="n">
-        <v>50.04452521643194</v>
+        <v>94.6919546570771</v>
       </c>
       <c r="E147" t="n">
-        <v>102.2161430063074</v>
+        <v>94.07835170591885</v>
       </c>
       <c r="F147" t="n">
-        <v>14.86194347686092</v>
+        <v>127.8568447485774</v>
       </c>
       <c r="G147" t="n">
-        <v>27.51656259376736</v>
+        <v>134.4215581434977</v>
       </c>
       <c r="H147" t="n">
-        <v>115.4838418252862</v>
+        <v>60.2517506952673</v>
       </c>
       <c r="I147" t="n">
-        <v>121.8762006850606</v>
+        <v>41.14756115687498</v>
       </c>
       <c r="J147" t="n">
         <v>5.8</v>
@@ -5157,28 +5157,28 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>42.54027735741658</v>
+        <v>72.32532957848487</v>
       </c>
       <c r="C148" t="n">
-        <v>42.54027735741658</v>
+        <v>72.32532957848487</v>
       </c>
       <c r="D148" t="n">
-        <v>50.307106006998</v>
+        <v>95.73580210085281</v>
       </c>
       <c r="E148" t="n">
-        <v>106.262191809009</v>
+        <v>94.56908418043437</v>
       </c>
       <c r="F148" t="n">
-        <v>15.50915190634709</v>
+        <v>124.9604661137939</v>
       </c>
       <c r="G148" t="n">
-        <v>24.47537341413437</v>
+        <v>134.7103015236068</v>
       </c>
       <c r="H148" t="n">
-        <v>118.1056850662777</v>
+        <v>60.07065248588658</v>
       </c>
       <c r="I148" t="n">
-        <v>122.2520272126385</v>
+        <v>41.03443323665325</v>
       </c>
       <c r="J148" t="n">
         <v>5.84</v>
@@ -5189,28 +5189,28 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>42.26419563995256</v>
+        <v>72.6661486764565</v>
       </c>
       <c r="C149" t="n">
-        <v>42.26419563995256</v>
+        <v>72.6661486764565</v>
       </c>
       <c r="D149" t="n">
-        <v>50.26188968490703</v>
+        <v>96.74207060246678</v>
       </c>
       <c r="E149" t="n">
-        <v>106.4125454147447</v>
+        <v>93.40522328902857</v>
       </c>
       <c r="F149" t="n">
-        <v>15.86321919416727</v>
+        <v>119.209482384586</v>
       </c>
       <c r="G149" t="n">
-        <v>23.73980227966806</v>
+        <v>131.750892541547</v>
       </c>
       <c r="H149" t="n">
-        <v>120.7224766339565</v>
+        <v>57.47852693421238</v>
       </c>
       <c r="I149" t="n">
-        <v>121.9270055967662</v>
+        <v>40.77188028638186</v>
       </c>
       <c r="J149" t="n">
         <v>5.88</v>
@@ -5221,28 +5221,28 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>42.44910693910779</v>
+        <v>71.18459844511909</v>
       </c>
       <c r="C150" t="n">
-        <v>42.44910693910779</v>
+        <v>71.18459844511909</v>
       </c>
       <c r="D150" t="n">
-        <v>50.49881478590439</v>
+        <v>97.24251242603799</v>
       </c>
       <c r="E150" t="n">
-        <v>106.245812679544</v>
+        <v>94.2325500314947</v>
       </c>
       <c r="F150" t="n">
-        <v>15.63040791126397</v>
+        <v>119.3676800096565</v>
       </c>
       <c r="G150" t="n">
-        <v>23.89120412122165</v>
+        <v>132.6856992326579</v>
       </c>
       <c r="H150" t="n">
-        <v>120.6903307242735</v>
+        <v>57.45132180139679</v>
       </c>
       <c r="I150" t="n">
-        <v>121.7123977560124</v>
+        <v>40.43478658266552</v>
       </c>
       <c r="J150" t="n">
         <v>5.92</v>
@@ -5253,28 +5253,28 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>42.72948477113158</v>
+        <v>70.6097653964767</v>
       </c>
       <c r="C151" t="n">
-        <v>42.72948477113158</v>
+        <v>70.6097653964767</v>
       </c>
       <c r="D151" t="n">
-        <v>47.38305144636595</v>
+        <v>97.27752864169625</v>
       </c>
       <c r="E151" t="n">
-        <v>106.3389234203524</v>
+        <v>94.53023822647965</v>
       </c>
       <c r="F151" t="n">
-        <v>14.58427716131371</v>
+        <v>114.310106788494</v>
       </c>
       <c r="G151" t="n">
-        <v>24.6975625874409</v>
+        <v>131.1569405339419</v>
       </c>
       <c r="H151" t="n">
-        <v>123.0412213378612</v>
+        <v>53.79544750139137</v>
       </c>
       <c r="I151" t="n">
-        <v>120.5487702242702</v>
+        <v>39.76946371032596</v>
       </c>
       <c r="J151" t="n">
         <v>5.96</v>
@@ -5285,28 +5285,28 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>43.97482736955067</v>
+        <v>70.18125882177239</v>
       </c>
       <c r="C152" t="n">
-        <v>43.97482736955067</v>
+        <v>70.18125882177239</v>
       </c>
       <c r="D152" t="n">
-        <v>50.87414239087613</v>
+        <v>96.13313370855492</v>
       </c>
       <c r="E152" t="n">
-        <v>110.1612083793303</v>
+        <v>95.72468382849486</v>
       </c>
       <c r="F152" t="n">
-        <v>14.93710931298483</v>
+        <v>113.8842068079958</v>
       </c>
       <c r="G152" t="n">
-        <v>26.23132927452306</v>
+        <v>133.4262743994986</v>
       </c>
       <c r="H152" t="n">
-        <v>122.0970649709611</v>
+        <v>51.18829274057554</v>
       </c>
       <c r="I152" t="n">
-        <v>121.4764310836034</v>
+        <v>38.84231214336897</v>
       </c>
       <c r="J152" t="n">
         <v>6</v>
@@ -5317,28 +5317,28 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>43.33929062659183</v>
+        <v>70.34784777289724</v>
       </c>
       <c r="C153" t="n">
-        <v>43.33929062659183</v>
+        <v>70.34784777289724</v>
       </c>
       <c r="D153" t="n">
-        <v>56.20129530238404</v>
+        <v>95.34314308910028</v>
       </c>
       <c r="E153" t="n">
-        <v>105.3858551169719</v>
+        <v>95.55350666065462</v>
       </c>
       <c r="F153" t="n">
-        <v>17.68377974464116</v>
+        <v>115.4465217079905</v>
       </c>
       <c r="G153" t="n">
-        <v>33.15807432783316</v>
+        <v>132.9923417807635</v>
       </c>
       <c r="H153" t="n">
-        <v>119.5053115598066</v>
+        <v>51.271907194359</v>
       </c>
       <c r="I153" t="n">
-        <v>122.4251110756389</v>
+        <v>38.64007998076462</v>
       </c>
       <c r="J153" t="n">
         <v>6.04</v>
@@ -5349,28 +5349,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>43.92282878601537</v>
+        <v>73.92016525387545</v>
       </c>
       <c r="C154" t="n">
-        <v>43.92282878601537</v>
+        <v>73.92016525387545</v>
       </c>
       <c r="D154" t="n">
-        <v>64.2367487035109</v>
+        <v>94.53842476276732</v>
       </c>
       <c r="E154" t="n">
-        <v>105.7694501050779</v>
+        <v>93.6874806377989</v>
       </c>
       <c r="F154" t="n">
-        <v>21.73149418252535</v>
+        <v>113.8833609581059</v>
       </c>
       <c r="G154" t="n">
-        <v>33.49353637336</v>
+        <v>132.2040850100505</v>
       </c>
       <c r="H154" t="n">
-        <v>115.5397538367686</v>
+        <v>49.85165408297927</v>
       </c>
       <c r="I154" t="n">
-        <v>120.2249019487057</v>
+        <v>38.23827924345974</v>
       </c>
       <c r="J154" t="n">
         <v>6.08</v>
@@ -5381,28 +5381,28 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>44.50179421835787</v>
+        <v>77.85849208766459</v>
       </c>
       <c r="C155" t="n">
-        <v>44.50179421835787</v>
+        <v>77.85849208766459</v>
       </c>
       <c r="D155" t="n">
-        <v>66.48258149706517</v>
+        <v>93.77388317991642</v>
       </c>
       <c r="E155" t="n">
-        <v>109.5692902890471</v>
+        <v>91.67434697954222</v>
       </c>
       <c r="F155" t="n">
-        <v>23.14725425110535</v>
+        <v>111.775838043715</v>
       </c>
       <c r="G155" t="n">
-        <v>32.62969473113972</v>
+        <v>130.7066477415178</v>
       </c>
       <c r="H155" t="n">
-        <v>115.1097415249688</v>
+        <v>49.26729521990256</v>
       </c>
       <c r="I155" t="n">
-        <v>119.9139330121217</v>
+        <v>37.60701263444941</v>
       </c>
       <c r="J155" t="n">
         <v>6.12</v>
@@ -5413,28 +5413,28 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>46.25873650002953</v>
+        <v>81.41033578963882</v>
       </c>
       <c r="C156" t="n">
-        <v>46.25873650002953</v>
+        <v>81.41033578963882</v>
       </c>
       <c r="D156" t="n">
-        <v>66.21111418577854</v>
+        <v>93.20642987944815</v>
       </c>
       <c r="E156" t="n">
-        <v>113.3098139952869</v>
+        <v>89.98007133473945</v>
       </c>
       <c r="F156" t="n">
-        <v>20.28295906698014</v>
+        <v>109.5122743491476</v>
       </c>
       <c r="G156" t="n">
-        <v>32.77681467902795</v>
+        <v>128.6994539023858</v>
       </c>
       <c r="H156" t="n">
-        <v>114.3440608467646</v>
+        <v>47.90852591213739</v>
       </c>
       <c r="I156" t="n">
-        <v>116.749077964602</v>
+        <v>39.79158233580097</v>
       </c>
       <c r="J156" t="n">
         <v>6.16</v>
@@ -5445,28 +5445,28 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>45.82687499273476</v>
+        <v>84.97152060997098</v>
       </c>
       <c r="C157" t="n">
-        <v>45.82687499273476</v>
+        <v>84.97152060997098</v>
       </c>
       <c r="D157" t="n">
-        <v>63.78831818605452</v>
+        <v>92.25812116686872</v>
       </c>
       <c r="E157" t="n">
-        <v>116.3331190050157</v>
+        <v>87.54789730982587</v>
       </c>
       <c r="F157" t="n">
-        <v>21.4846221808381</v>
+        <v>104.0352711540582</v>
       </c>
       <c r="G157" t="n">
-        <v>36.25452875303276</v>
+        <v>118.8240860403093</v>
       </c>
       <c r="H157" t="n">
-        <v>117.7489477517884</v>
+        <v>43.8235356510168</v>
       </c>
       <c r="I157" t="n">
-        <v>115.5427542506398</v>
+        <v>45.48946578575606</v>
       </c>
       <c r="J157" t="n">
         <v>6.2</v>
@@ -5477,28 +5477,28 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>45.65388115920231</v>
+        <v>89.04386144917325</v>
       </c>
       <c r="C158" t="n">
-        <v>45.65388115920231</v>
+        <v>89.04386144917325</v>
       </c>
       <c r="D158" t="n">
-        <v>67.8619000124569</v>
+        <v>90.93527851517408</v>
       </c>
       <c r="E158" t="n">
-        <v>111.3937193009744</v>
+        <v>86.069241716175</v>
       </c>
       <c r="F158" t="n">
-        <v>24.03241356469874</v>
+        <v>100.598016028083</v>
       </c>
       <c r="G158" t="n">
-        <v>44.03692860210666</v>
+        <v>114.0090385927607</v>
       </c>
       <c r="H158" t="n">
-        <v>119.5881569423236</v>
+        <v>42.79142250779456</v>
       </c>
       <c r="I158" t="n">
-        <v>116.7286161803192</v>
+        <v>47.40948590371806</v>
       </c>
       <c r="J158" t="n">
         <v>6.24</v>
@@ -5509,28 +5509,28 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>44.89714390670449</v>
+        <v>90.52706207581568</v>
       </c>
       <c r="C159" t="n">
-        <v>44.89714390670449</v>
+        <v>90.52706207581568</v>
       </c>
       <c r="D159" t="n">
-        <v>67.97957570710673</v>
+        <v>90.09253170372153</v>
       </c>
       <c r="E159" t="n">
-        <v>102.3490960747107</v>
+        <v>85.96528953282301</v>
       </c>
       <c r="F159" t="n">
-        <v>30.65156143796966</v>
+        <v>98.78046228786832</v>
       </c>
       <c r="G159" t="n">
-        <v>48.10182302060977</v>
+        <v>112.8633520563843</v>
       </c>
       <c r="H159" t="n">
-        <v>117.0442364936878</v>
+        <v>42.47288658284656</v>
       </c>
       <c r="I159" t="n">
-        <v>100.085472152854</v>
+        <v>47.07609560862679</v>
       </c>
       <c r="J159" t="n">
         <v>6.28</v>
@@ -5541,28 +5541,28 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>45.22570832565717</v>
+        <v>97.28140147637207</v>
       </c>
       <c r="C160" t="n">
-        <v>45.22570832565717</v>
+        <v>97.28140147637207</v>
       </c>
       <c r="D160" t="n">
-        <v>72.88383368108745</v>
+        <v>88.06955414123911</v>
       </c>
       <c r="E160" t="n">
-        <v>94.2600426898094</v>
+        <v>84.42205140790873</v>
       </c>
       <c r="F160" t="n">
-        <v>30.40495336354618</v>
+        <v>101.4683423496674</v>
       </c>
       <c r="G160" t="n">
-        <v>68.67870462847311</v>
+        <v>114.6878839315355</v>
       </c>
       <c r="H160" t="n">
-        <v>114.801875758668</v>
+        <v>41.67447207858746</v>
       </c>
       <c r="I160" t="n">
-        <v>99.81311747354509</v>
+        <v>41.50094419642382</v>
       </c>
       <c r="J160" t="n">
         <v>6.32</v>
@@ -5573,28 +5573,28 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>47.77592886575783</v>
+        <v>106.3572991639687</v>
       </c>
       <c r="C161" t="n">
-        <v>47.77592886575783</v>
+        <v>106.3572991639687</v>
       </c>
       <c r="D161" t="n">
-        <v>78.85407448499261</v>
+        <v>88.39867051942574</v>
       </c>
       <c r="E161" t="n">
-        <v>83.93810558045774</v>
+        <v>83.61582034874178</v>
       </c>
       <c r="F161" t="n">
-        <v>29.13735543284014</v>
+        <v>107.2765356615901</v>
       </c>
       <c r="G161" t="n">
-        <v>78.20570559245643</v>
+        <v>111.8320901016531</v>
       </c>
       <c r="H161" t="n">
-        <v>103.6264928434338</v>
+        <v>40.7651832700841</v>
       </c>
       <c r="I161" t="n">
-        <v>95.03987321801218</v>
+        <v>39.2196828527509</v>
       </c>
       <c r="J161" t="n">
         <v>6.36</v>
@@ -5605,28 +5605,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>49.59059529054295</v>
+        <v>104.6146064949346</v>
       </c>
       <c r="C162" t="n">
-        <v>49.59059529054295</v>
+        <v>104.6146064949346</v>
       </c>
       <c r="D162" t="n">
-        <v>83.20558924198647</v>
+        <v>89.91005659367643</v>
       </c>
       <c r="E162" t="n">
-        <v>82.06321890896668</v>
+        <v>85.16161915074052</v>
       </c>
       <c r="F162" t="n">
-        <v>26.35609564267233</v>
+        <v>111.1040409116199</v>
       </c>
       <c r="G162" t="n">
-        <v>79.9682033250791</v>
+        <v>115.4570493320848</v>
       </c>
       <c r="H162" t="n">
-        <v>94.47650126675646</v>
+        <v>40.66008235822539</v>
       </c>
       <c r="I162" t="n">
-        <v>98.24839627930767</v>
+        <v>41.23526693134971</v>
       </c>
       <c r="J162" t="n">
         <v>6.4</v>
@@ -5637,28 +5637,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>50.59288334229234</v>
+        <v>103.5739701956321</v>
       </c>
       <c r="C163" t="n">
-        <v>50.59288334229234</v>
+        <v>103.5739701956321</v>
       </c>
       <c r="D163" t="n">
-        <v>76.16615315619592</v>
+        <v>91.58127479459054</v>
       </c>
       <c r="E163" t="n">
-        <v>81.77193134172528</v>
+        <v>85.69936224431349</v>
       </c>
       <c r="F163" t="n">
-        <v>18.82842197949731</v>
+        <v>116.7735528167841</v>
       </c>
       <c r="G163" t="n">
-        <v>74.80411608071319</v>
+        <v>117.9540954599964</v>
       </c>
       <c r="H163" t="n">
-        <v>93.84214009202555</v>
+        <v>40.35420489561996</v>
       </c>
       <c r="I163" t="n">
-        <v>99.95618406219023</v>
+        <v>44.24274578346125</v>
       </c>
       <c r="J163" t="n">
         <v>6.44</v>
@@ -5669,28 +5669,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>49.23159877537108</v>
+        <v>102.9695508991257</v>
       </c>
       <c r="C164" t="n">
-        <v>49.23159877537108</v>
+        <v>102.9695508991257</v>
       </c>
       <c r="D164" t="n">
-        <v>74.60593329013624</v>
+        <v>92.03455934278533</v>
       </c>
       <c r="E164" t="n">
-        <v>84.20287912400183</v>
+        <v>86.24984334759111</v>
       </c>
       <c r="F164" t="n">
-        <v>22.74272476326348</v>
+        <v>116.948746588028</v>
       </c>
       <c r="G164" t="n">
-        <v>66.76420666386177</v>
+        <v>117.437936964428</v>
       </c>
       <c r="H164" t="n">
-        <v>98.1473127680612</v>
+        <v>40.36906397209274</v>
       </c>
       <c r="I164" t="n">
-        <v>107.3792316452585</v>
+        <v>46.46621374558013</v>
       </c>
       <c r="J164" t="n">
         <v>6.48</v>
@@ -5701,28 +5701,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>48.25724674611936</v>
+        <v>102.6807861132977</v>
       </c>
       <c r="C165" t="n">
-        <v>48.25724674611936</v>
+        <v>102.6807861132977</v>
       </c>
       <c r="D165" t="n">
-        <v>70.57610580218318</v>
+        <v>92.39935642006061</v>
       </c>
       <c r="E165" t="n">
-        <v>83.02775558169785</v>
+        <v>87.11313874311533</v>
       </c>
       <c r="F165" t="n">
-        <v>15.29293332017033</v>
+        <v>115.8449529612605</v>
       </c>
       <c r="G165" t="n">
-        <v>62.17140321906635</v>
+        <v>114.95263139328</v>
       </c>
       <c r="H165" t="n">
-        <v>100.9875297535362</v>
+        <v>39.2214067998476</v>
       </c>
       <c r="I165" t="n">
-        <v>110.8794903949458</v>
+        <v>47.43444184095696</v>
       </c>
       <c r="J165" t="n">
         <v>6.52</v>
@@ -5733,28 +5733,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>44.26083169415301</v>
+        <v>103.2575841683616</v>
       </c>
       <c r="C166" t="n">
-        <v>44.26083169415301</v>
+        <v>103.2575841683616</v>
       </c>
       <c r="D166" t="n">
-        <v>61.31666904212818</v>
+        <v>92.96758459917206</v>
       </c>
       <c r="E166" t="n">
-        <v>95.67818976836274</v>
+        <v>88.9927924001983</v>
       </c>
       <c r="F166" t="n">
-        <v>11.09688679461161</v>
+        <v>116.7374235731885</v>
       </c>
       <c r="G166" t="n">
-        <v>44.9539525729212</v>
+        <v>113.2692691680097</v>
       </c>
       <c r="H166" t="n">
-        <v>106.2955298638992</v>
+        <v>37.51913138794855</v>
       </c>
       <c r="I166" t="n">
-        <v>107.585940607677</v>
+        <v>50.7105690873917</v>
       </c>
       <c r="J166" t="n">
         <v>6.56</v>
@@ -5765,28 +5765,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>42.65850488393031</v>
+        <v>103.0683665247872</v>
       </c>
       <c r="C167" t="n">
-        <v>42.65850488393031</v>
+        <v>103.0683665247872</v>
       </c>
       <c r="D167" t="n">
-        <v>54.68280071307933</v>
+        <v>92.92245462771277</v>
       </c>
       <c r="E167" t="n">
-        <v>96.80424102216543</v>
+        <v>89.82601782339545</v>
       </c>
       <c r="F167" t="n">
-        <v>8.824087432968383</v>
+        <v>116.4434817474934</v>
       </c>
       <c r="G167" t="n">
-        <v>41.48417664225852</v>
+        <v>112.4436623610892</v>
       </c>
       <c r="H167" t="n">
-        <v>111.4443806915279</v>
+        <v>36.59860148582046</v>
       </c>
       <c r="I167" t="n">
-        <v>111.4405417920724</v>
+        <v>51.87744895246814</v>
       </c>
       <c r="J167" t="n">
         <v>6.6</v>
@@ -5797,28 +5797,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>42.21320104101545</v>
+        <v>103.7611184310457</v>
       </c>
       <c r="C168" t="n">
-        <v>42.21320104101545</v>
+        <v>103.7611184310457</v>
       </c>
       <c r="D168" t="n">
-        <v>52.76186610692763</v>
+        <v>93.54592780764496</v>
       </c>
       <c r="E168" t="n">
-        <v>99.96721005517408</v>
+        <v>91.21146260131202</v>
       </c>
       <c r="F168" t="n">
-        <v>8.082617254971694</v>
+        <v>120.3471522749907</v>
       </c>
       <c r="G168" t="n">
-        <v>34.2139604539401</v>
+        <v>113.5416274879488</v>
       </c>
       <c r="H168" t="n">
-        <v>113.106837281725</v>
+        <v>37.05708989284277</v>
       </c>
       <c r="I168" t="n">
-        <v>110.0900452591244</v>
+        <v>55.11664099358578</v>
       </c>
       <c r="J168" t="n">
         <v>6.64</v>
@@ -5829,28 +5829,28 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>42.13965337361381</v>
+        <v>105.0059609981299</v>
       </c>
       <c r="C169" t="n">
-        <v>42.13965337361381</v>
+        <v>105.0059609981299</v>
       </c>
       <c r="D169" t="n">
-        <v>50.04024261268066</v>
+        <v>94.15868940241089</v>
       </c>
       <c r="E169" t="n">
-        <v>100.8217945488756</v>
+        <v>92.38839176798615</v>
       </c>
       <c r="F169" t="n">
-        <v>7.321221744313476</v>
+        <v>122.191371287202</v>
       </c>
       <c r="G169" t="n">
-        <v>29.38970410330305</v>
+        <v>113.4259685773711</v>
       </c>
       <c r="H169" t="n">
-        <v>115.2905468090972</v>
+        <v>37.05537468522654</v>
       </c>
       <c r="I169" t="n">
-        <v>111.0786771449213</v>
+        <v>57.06469378139849</v>
       </c>
       <c r="J169" t="n">
         <v>6.68</v>
@@ -5861,28 +5861,28 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>42.59757484222845</v>
+        <v>105.4647465739167</v>
       </c>
       <c r="C170" t="n">
-        <v>42.59757484222845</v>
+        <v>105.4647465739167</v>
       </c>
       <c r="D170" t="n">
-        <v>49.48297873384865</v>
+        <v>94.58397131747641</v>
       </c>
       <c r="E170" t="n">
-        <v>99.49531428208078</v>
+        <v>93.2634997141177</v>
       </c>
       <c r="F170" t="n">
-        <v>6.587537089116296</v>
+        <v>123.5655100926448</v>
       </c>
       <c r="G170" t="n">
-        <v>25.20746484765004</v>
+        <v>113.442587841261</v>
       </c>
       <c r="H170" t="n">
-        <v>115.6326918902812</v>
+        <v>37.05444653981971</v>
       </c>
       <c r="I170" t="n">
-        <v>108.8828752824713</v>
+        <v>58.83285417330464</v>
       </c>
       <c r="J170" t="n">
         <v>6.72</v>
@@ -5893,28 +5893,28 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>42.59617073682401</v>
+        <v>106.0298725883654</v>
       </c>
       <c r="C171" t="n">
-        <v>42.59617073682401</v>
+        <v>106.0298725883654</v>
       </c>
       <c r="D171" t="n">
-        <v>48.36313101467843</v>
+        <v>94.36872946551472</v>
       </c>
       <c r="E171" t="n">
-        <v>100.3674304385974</v>
+        <v>93.87374939200892</v>
       </c>
       <c r="F171" t="n">
-        <v>6.135788132565608</v>
+        <v>122.2893714759663</v>
       </c>
       <c r="G171" t="n">
-        <v>22.85660101035756</v>
+        <v>111.8331746574825</v>
       </c>
       <c r="H171" t="n">
-        <v>116.1631613474199</v>
+        <v>36.5762206544041</v>
       </c>
       <c r="I171" t="n">
-        <v>108.0107611098271</v>
+        <v>57.84239141219929</v>
       </c>
       <c r="J171" t="n">
         <v>6.76</v>
@@ -5925,28 +5925,28 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>42.6186067426828</v>
+        <v>106.2293244591626</v>
       </c>
       <c r="C172" t="n">
-        <v>42.6186067426828</v>
+        <v>106.2293244591626</v>
       </c>
       <c r="D172" t="n">
-        <v>47.2788271819623</v>
+        <v>94.3332720758231</v>
       </c>
       <c r="E172" t="n">
-        <v>102.1290023267738</v>
+        <v>94.23973079763762</v>
       </c>
       <c r="F172" t="n">
-        <v>5.359872265696254</v>
+        <v>122.1937494523532</v>
       </c>
       <c r="G172" t="n">
-        <v>19.97810664951908</v>
+        <v>111.6926505552482</v>
       </c>
       <c r="H172" t="n">
-        <v>115.8963099985345</v>
+        <v>36.53137423833554</v>
       </c>
       <c r="I172" t="n">
-        <v>105.2793787526005</v>
+        <v>58.18158003115944</v>
       </c>
       <c r="J172" t="n">
         <v>6.8</v>
@@ -5957,28 +5957,28 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>42.45329279468876</v>
+        <v>105.3697969295866</v>
       </c>
       <c r="C173" t="n">
-        <v>42.45329279468876</v>
+        <v>105.3697969295866</v>
       </c>
       <c r="D173" t="n">
-        <v>47.08158582773527</v>
+        <v>93.66611249605592</v>
       </c>
       <c r="E173" t="n">
-        <v>103.7590334816942</v>
+        <v>93.99919855499648</v>
       </c>
       <c r="F173" t="n">
-        <v>5.286358226725781</v>
+        <v>121.1414355516665</v>
       </c>
       <c r="G173" t="n">
-        <v>19.9087688735205</v>
+        <v>111.8112871370484</v>
       </c>
       <c r="H173" t="n">
-        <v>116.0721403610192</v>
+        <v>36.68713707116362</v>
       </c>
       <c r="I173" t="n">
-        <v>108.1629464535881</v>
+        <v>57.7061277387052</v>
       </c>
       <c r="J173" t="n">
         <v>6.84</v>
@@ -5989,28 +5989,28 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>42.04186828250505</v>
+        <v>102.5015947129467</v>
       </c>
       <c r="C174" t="n">
-        <v>42.04186828250505</v>
+        <v>102.5015947129467</v>
       </c>
       <c r="D174" t="n">
-        <v>47.5559972282181</v>
+        <v>92.57723128426741</v>
       </c>
       <c r="E174" t="n">
-        <v>102.3788619674549</v>
+        <v>92.90890059778148</v>
       </c>
       <c r="F174" t="n">
-        <v>5.835704882157785</v>
+        <v>119.8900298412003</v>
       </c>
       <c r="G174" t="n">
-        <v>20.51412207071996</v>
+        <v>110.8028046502317</v>
       </c>
       <c r="H174" t="n">
-        <v>116.2844592206008</v>
+        <v>37.193891931114</v>
       </c>
       <c r="I174" t="n">
-        <v>108.9344566579766</v>
+        <v>55.82269926633665</v>
       </c>
       <c r="J174" t="n">
         <v>6.88</v>
@@ -6021,28 +6021,28 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>41.8393387168656</v>
+        <v>101.25066621635</v>
       </c>
       <c r="C175" t="n">
-        <v>41.8393387168656</v>
+        <v>101.25066621635</v>
       </c>
       <c r="D175" t="n">
-        <v>48.34534859600677</v>
+        <v>91.22506420800885</v>
       </c>
       <c r="E175" t="n">
-        <v>103.9709520919026</v>
+        <v>92.75801341472571</v>
       </c>
       <c r="F175" t="n">
-        <v>8.091077256851861</v>
+        <v>115.4146629850045</v>
       </c>
       <c r="G175" t="n">
-        <v>22.77211554359164</v>
+        <v>110.6864078820198</v>
       </c>
       <c r="H175" t="n">
-        <v>115.359296185023</v>
+        <v>36.85532687150317</v>
       </c>
       <c r="I175" t="n">
-        <v>113.0936928695097</v>
+        <v>55.28480495183975</v>
       </c>
       <c r="J175" t="n">
         <v>6.92</v>
@@ -6053,28 +6053,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>41.70064614183462</v>
+        <v>101.6794227968443</v>
       </c>
       <c r="C176" t="n">
-        <v>41.70064614183462</v>
+        <v>101.6794227968443</v>
       </c>
       <c r="D176" t="n">
-        <v>48.81246693685512</v>
+        <v>90.7395060484005</v>
       </c>
       <c r="E176" t="n">
-        <v>102.0084022959796</v>
+        <v>93.02691762245014</v>
       </c>
       <c r="F176" t="n">
-        <v>11.06351976432924</v>
+        <v>111.5802004194899</v>
       </c>
       <c r="G176" t="n">
-        <v>22.22918370119797</v>
+        <v>110.8757792590236</v>
       </c>
       <c r="H176" t="n">
-        <v>111.5261171965334</v>
+        <v>39.00928369964446</v>
       </c>
       <c r="I176" t="n">
-        <v>108.7256328712995</v>
+        <v>54.90245047383522</v>
       </c>
       <c r="J176" t="n">
         <v>6.96</v>
@@ -6085,28 +6085,28 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>42.22766495868302</v>
+        <v>102.3394257668447</v>
       </c>
       <c r="C177" t="n">
-        <v>42.22766495868302</v>
+        <v>102.3394257668447</v>
       </c>
       <c r="D177" t="n">
-        <v>48.97424431537752</v>
+        <v>90.35053664829439</v>
       </c>
       <c r="E177" t="n">
-        <v>99.35323721131373</v>
+        <v>93.29898088857043</v>
       </c>
       <c r="F177" t="n">
-        <v>14.91693862641884</v>
+        <v>106.9464306634737</v>
       </c>
       <c r="G177" t="n">
-        <v>23.39114689752265</v>
+        <v>108.9589303442904</v>
       </c>
       <c r="H177" t="n">
-        <v>111.8234377236946</v>
+        <v>43.1433174370866</v>
       </c>
       <c r="I177" t="n">
-        <v>106.9863238630489</v>
+        <v>53.36921764162871</v>
       </c>
       <c r="J177" t="n">
         <v>7</v>
@@ -6117,28 +6117,28 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>44.85849113311616</v>
+        <v>101.0630734071088</v>
       </c>
       <c r="C178" t="n">
-        <v>44.85849113311616</v>
+        <v>101.0630734071088</v>
       </c>
       <c r="D178" t="n">
-        <v>52.09215292150792</v>
+        <v>88.40878988317475</v>
       </c>
       <c r="E178" t="n">
-        <v>99.54214497221557</v>
+        <v>92.55130292405295</v>
       </c>
       <c r="F178" t="n">
-        <v>20.82219982225615</v>
+        <v>97.49526251707894</v>
       </c>
       <c r="G178" t="n">
-        <v>23.76655901585693</v>
+        <v>106.4813605570166</v>
       </c>
       <c r="H178" t="n">
-        <v>104.9065471776429</v>
+        <v>46.07755486658133</v>
       </c>
       <c r="I178" t="n">
-        <v>107.6051880289538</v>
+        <v>48.95483183083567</v>
       </c>
       <c r="J178" t="n">
         <v>7.04</v>
@@ -6149,28 +6149,28 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>45.22679197065492</v>
+        <v>99.24472532651971</v>
       </c>
       <c r="C179" t="n">
-        <v>45.22679197065492</v>
+        <v>99.24472532651971</v>
       </c>
       <c r="D179" t="n">
-        <v>52.01291666262986</v>
+        <v>86.51457788546327</v>
       </c>
       <c r="E179" t="n">
-        <v>102.7413471322273</v>
+        <v>91.85742036125197</v>
       </c>
       <c r="F179" t="n">
-        <v>27.05992745975911</v>
+        <v>86.64069927068216</v>
       </c>
       <c r="G179" t="n">
-        <v>22.95768721945964</v>
+        <v>105.0327189380275</v>
       </c>
       <c r="H179" t="n">
-        <v>103.5446678917592</v>
+        <v>48.92643643795396</v>
       </c>
       <c r="I179" t="n">
-        <v>110.1631815784116</v>
+        <v>45.96456523594257</v>
       </c>
       <c r="J179" t="n">
         <v>7.08</v>
@@ -6181,28 +6181,28 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>45.26096945717279</v>
+        <v>97.33281874447761</v>
       </c>
       <c r="C180" t="n">
-        <v>45.26096945717279</v>
+        <v>97.33281874447761</v>
       </c>
       <c r="D180" t="n">
-        <v>49.51308342285927</v>
+        <v>86.22863080828698</v>
       </c>
       <c r="E180" t="n">
-        <v>105.5423679967351</v>
+        <v>91.22051962842765</v>
       </c>
       <c r="F180" t="n">
-        <v>30.72125455555135</v>
+        <v>85.20636444492918</v>
       </c>
       <c r="G180" t="n">
-        <v>20.54886283566876</v>
+        <v>106.1123314157062</v>
       </c>
       <c r="H180" t="n">
-        <v>103.6618428336861</v>
+        <v>51.82518969530609</v>
       </c>
       <c r="I180" t="n">
-        <v>110.6256357271822</v>
+        <v>45.2934793590914</v>
       </c>
       <c r="J180" t="n">
         <v>7.12</v>
@@ -6213,28 +6213,28 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>43.5209948014745</v>
+        <v>96.95111151027852</v>
       </c>
       <c r="C181" t="n">
-        <v>43.5209948014745</v>
+        <v>96.95111151027852</v>
       </c>
       <c r="D181" t="n">
-        <v>47.00256649084</v>
+        <v>86.38790137250497</v>
       </c>
       <c r="E181" t="n">
-        <v>106.4869551488842</v>
+        <v>91.09251201500339</v>
       </c>
       <c r="F181" t="n">
-        <v>32.59313593476199</v>
+        <v>88.43975326335904</v>
       </c>
       <c r="G181" t="n">
-        <v>18.13509008572044</v>
+        <v>107.9477125978459</v>
       </c>
       <c r="H181" t="n">
-        <v>103.9899302776688</v>
+        <v>53.63854655445653</v>
       </c>
       <c r="I181" t="n">
-        <v>110.2379675108998</v>
+        <v>45.61033693069702</v>
       </c>
       <c r="J181" t="n">
         <v>7.16</v>
@@ -6245,28 +6245,28 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>43.43122552359728</v>
+        <v>96.9765667678284</v>
       </c>
       <c r="C182" t="n">
-        <v>43.43122552359728</v>
+        <v>96.9765667678284</v>
       </c>
       <c r="D182" t="n">
-        <v>48.23035241923162</v>
+        <v>87.47397524771772</v>
       </c>
       <c r="E182" t="n">
-        <v>113.0392555144905</v>
+        <v>91.50883275348031</v>
       </c>
       <c r="F182" t="n">
-        <v>37.15839047259558</v>
+        <v>98.9824982103919</v>
       </c>
       <c r="G182" t="n">
-        <v>14.87966342218704</v>
+        <v>108.613407257549</v>
       </c>
       <c r="H182" t="n">
-        <v>103.953682833757</v>
+        <v>53.51317808584087</v>
       </c>
       <c r="I182" t="n">
-        <v>113.8713558004551</v>
+        <v>45.69360709928546</v>
       </c>
       <c r="J182" t="n">
         <v>7.2</v>
@@ -6277,28 +6277,28 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>44.88523720785315</v>
+        <v>96.91378983602081</v>
       </c>
       <c r="C183" t="n">
-        <v>44.88523720785315</v>
+        <v>96.91378983602081</v>
       </c>
       <c r="D183" t="n">
-        <v>53.93285041881707</v>
+        <v>88.08630007480953</v>
       </c>
       <c r="E183" t="n">
-        <v>117.0858343505255</v>
+        <v>91.60298499554273</v>
       </c>
       <c r="F183" t="n">
-        <v>41.42872277499106</v>
+        <v>103.3393214897036</v>
       </c>
       <c r="G183" t="n">
-        <v>12.31140524662428</v>
+        <v>110.6885001180066</v>
       </c>
       <c r="H183" t="n">
-        <v>102.9856655953654</v>
+        <v>52.70751057078525</v>
       </c>
       <c r="I183" t="n">
-        <v>116.0179311477249</v>
+        <v>49.55319931491439</v>
       </c>
       <c r="J183" t="n">
         <v>7.24</v>
@@ -6309,28 +6309,28 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>43.83523235440589</v>
+        <v>97.50007489760115</v>
       </c>
       <c r="C184" t="n">
-        <v>43.83523235440589</v>
+        <v>97.50007489760115</v>
       </c>
       <c r="D184" t="n">
-        <v>48.90972942775684</v>
+        <v>89.17421402339363</v>
       </c>
       <c r="E184" t="n">
-        <v>124.0576495417042</v>
+        <v>91.87039613791529</v>
       </c>
       <c r="F184" t="n">
-        <v>38.68059730445188</v>
+        <v>109.5439493850175</v>
       </c>
       <c r="G184" t="n">
-        <v>9.832096842279924</v>
+        <v>113.3082547916195</v>
       </c>
       <c r="H184" t="n">
-        <v>104.5489556217571</v>
+        <v>50.32006641831153</v>
       </c>
       <c r="I184" t="n">
-        <v>119.8695140037882</v>
+        <v>53.49806679934477</v>
       </c>
       <c r="J184" t="n">
         <v>7.28</v>
@@ -6341,28 +6341,28 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>45.4938944663775</v>
+        <v>97.53648719060176</v>
       </c>
       <c r="C185" t="n">
-        <v>45.4938944663775</v>
+        <v>97.53648719060176</v>
       </c>
       <c r="D185" t="n">
-        <v>49.00688224799069</v>
+        <v>88.87274034165999</v>
       </c>
       <c r="E185" t="n">
-        <v>120.586969153985</v>
+        <v>91.21656421152127</v>
       </c>
       <c r="F185" t="n">
-        <v>38.2570156768528</v>
+        <v>108.8054301284172</v>
       </c>
       <c r="G185" t="n">
-        <v>9.851914371338864</v>
+        <v>110.721802458858</v>
       </c>
       <c r="H185" t="n">
-        <v>101.9114649477314</v>
+        <v>48.74378286343121</v>
       </c>
       <c r="I185" t="n">
-        <v>114.5141005313469</v>
+        <v>50.06521522859171</v>
       </c>
       <c r="J185" t="n">
         <v>7.32</v>
@@ -6373,28 +6373,28 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>45.99415397469733</v>
+        <v>92.99772573779939</v>
       </c>
       <c r="C186" t="n">
-        <v>45.99415397469733</v>
+        <v>92.99772573779939</v>
       </c>
       <c r="D186" t="n">
-        <v>57.29408717062098</v>
+        <v>88.42013655502862</v>
       </c>
       <c r="E186" t="n">
-        <v>119.5941896912284</v>
+        <v>88.40654844381829</v>
       </c>
       <c r="F186" t="n">
-        <v>48.08465634306583</v>
+        <v>120.9193536178778</v>
       </c>
       <c r="G186" t="n">
-        <v>11.35802674974192</v>
+        <v>120.9615050499554</v>
       </c>
       <c r="H186" t="n">
-        <v>88.04390967819586</v>
+        <v>38.81298754215502</v>
       </c>
       <c r="I186" t="n">
-        <v>115.1789220532684</v>
+        <v>44.03838187974092</v>
       </c>
       <c r="J186" t="n">
         <v>7.36</v>
@@ -6405,28 +6405,28 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>46.61942702767124</v>
+        <v>83.37598330498048</v>
       </c>
       <c r="C187" t="n">
-        <v>46.61942702767124</v>
+        <v>83.37598330498048</v>
       </c>
       <c r="D187" t="n">
-        <v>62.46399647217196</v>
+        <v>88.21229420175663</v>
       </c>
       <c r="E187" t="n">
-        <v>97.85659151402891</v>
+        <v>88.65807859162898</v>
       </c>
       <c r="F187" t="n">
-        <v>38.62508304465086</v>
+        <v>126.5689333570357</v>
       </c>
       <c r="G187" t="n">
-        <v>18.00888031698702</v>
+        <v>126.1179986710889</v>
       </c>
       <c r="H187" t="n">
-        <v>114.3935913488724</v>
+        <v>46.61369147052409</v>
       </c>
       <c r="I187" t="n">
-        <v>107.1635724921249</v>
+        <v>44.32058278226278</v>
       </c>
       <c r="J187" t="n">
         <v>7.4</v>
@@ -6437,28 +6437,28 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>45.83726316102408</v>
+        <v>79.38523669395224</v>
       </c>
       <c r="C188" t="n">
-        <v>45.83726316102408</v>
+        <v>79.38523669395224</v>
       </c>
       <c r="D188" t="n">
-        <v>57.15916630639568</v>
+        <v>91.38879317362522</v>
       </c>
       <c r="E188" t="n">
-        <v>96.34681861009038</v>
+        <v>90.4477278133034</v>
       </c>
       <c r="F188" t="n">
-        <v>30.76406349503259</v>
+        <v>126.3586855969682</v>
       </c>
       <c r="G188" t="n">
-        <v>20.33972672713546</v>
+        <v>130.4964504915134</v>
       </c>
       <c r="H188" t="n">
-        <v>119.8562232240336</v>
+        <v>55.78940440728815</v>
       </c>
       <c r="I188" t="n">
-        <v>107.4496645805972</v>
+        <v>41.26798474070409</v>
       </c>
       <c r="J188" t="n">
         <v>7.44</v>
@@ -6469,28 +6469,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>42.27369906450869</v>
+        <v>73.20214368860022</v>
       </c>
       <c r="C189" t="n">
-        <v>42.27369906450869</v>
+        <v>73.20214368860022</v>
       </c>
       <c r="D189" t="n">
-        <v>49.63051716806132</v>
+        <v>93.79200354958694</v>
       </c>
       <c r="E189" t="n">
-        <v>100.2510991678721</v>
+        <v>93.79423472544097</v>
       </c>
       <c r="F189" t="n">
-        <v>18.01307204517738</v>
+        <v>126.7897901359696</v>
       </c>
       <c r="G189" t="n">
-        <v>20.86985923135808</v>
+        <v>134.2126029312694</v>
       </c>
       <c r="H189" t="n">
-        <v>117.1878020584615</v>
+        <v>58.75235875180952</v>
       </c>
       <c r="I189" t="n">
-        <v>112.3109602022354</v>
+        <v>41.23878185161087</v>
       </c>
       <c r="J189" t="n">
         <v>7.48</v>
@@ -6501,28 +6501,28 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>42.55684345356292</v>
+        <v>70.99529195220644</v>
       </c>
       <c r="C190" t="n">
-        <v>42.55684345356292</v>
+        <v>70.99529195220644</v>
       </c>
       <c r="D190" t="n">
-        <v>51.66547506487532</v>
+        <v>95.13350144699206</v>
       </c>
       <c r="E190" t="n">
-        <v>103.4370706286146</v>
+        <v>94.94354764909137</v>
       </c>
       <c r="F190" t="n">
-        <v>16.21595179146703</v>
+        <v>127.4180026769537</v>
       </c>
       <c r="G190" t="n">
-        <v>26.46414549142605</v>
+        <v>134.7161854343397</v>
       </c>
       <c r="H190" t="n">
-        <v>110.1342049365986</v>
+        <v>60.47173366626225</v>
       </c>
       <c r="I190" t="n">
-        <v>121.2491065293205</v>
+        <v>41.49651951591316</v>
       </c>
       <c r="J190" t="n">
         <v>7.52</v>
@@ -6533,28 +6533,28 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>42.69073402703583</v>
+        <v>70.9635367790644</v>
       </c>
       <c r="C191" t="n">
-        <v>42.69073402703583</v>
+        <v>70.9635367790644</v>
       </c>
       <c r="D191" t="n">
-        <v>52.29709797320953</v>
+        <v>96.01781470771625</v>
       </c>
       <c r="E191" t="n">
-        <v>107.8151663837703</v>
+        <v>95.35759305872624</v>
       </c>
       <c r="F191" t="n">
-        <v>16.98028154168347</v>
+        <v>124.8917587941375</v>
       </c>
       <c r="G191" t="n">
-        <v>23.02795649061471</v>
+        <v>134.9969567946171</v>
       </c>
       <c r="H191" t="n">
-        <v>113.1953370520612</v>
+        <v>60.28912053287242</v>
       </c>
       <c r="I191" t="n">
-        <v>121.5663083367151</v>
+        <v>41.43945464252263</v>
       </c>
       <c r="J191" t="n">
         <v>7.56</v>
@@ -6565,28 +6565,28 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>42.69311212917157</v>
+        <v>69.90955911879075</v>
       </c>
       <c r="C192" t="n">
-        <v>42.69311212917157</v>
+        <v>69.90955911879075</v>
       </c>
       <c r="D192" t="n">
-        <v>48.32593467088148</v>
+        <v>97.28489099034412</v>
       </c>
       <c r="E192" t="n">
-        <v>107.8268788077562</v>
+        <v>94.66793897181091</v>
       </c>
       <c r="F192" t="n">
-        <v>15.05132504636393</v>
+        <v>117.5047828784978</v>
       </c>
       <c r="G192" t="n">
-        <v>22.75965276593243</v>
+        <v>131.5050176482908</v>
       </c>
       <c r="H192" t="n">
-        <v>121.0128223020316</v>
+        <v>56.25356107554838</v>
       </c>
       <c r="I192" t="n">
-        <v>121.3665882572197</v>
+        <v>41.16272686744671</v>
       </c>
       <c r="J192" t="n">
         <v>7.6</v>
@@ -6597,28 +6597,28 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>41.98472852632472</v>
+        <v>70.50664238820326</v>
       </c>
       <c r="C193" t="n">
-        <v>41.98472852632472</v>
+        <v>70.50664238820326</v>
       </c>
       <c r="D193" t="n">
-        <v>47.64034425685503</v>
+        <v>97.54636235379245</v>
       </c>
       <c r="E193" t="n">
-        <v>106.7126958643586</v>
+        <v>94.20647853329247</v>
       </c>
       <c r="F193" t="n">
-        <v>14.73787380710201</v>
+        <v>116.3557331689328</v>
       </c>
       <c r="G193" t="n">
-        <v>24.09814977150594</v>
+        <v>130.8040151201442</v>
       </c>
       <c r="H193" t="n">
-        <v>122.0309086851258</v>
+        <v>55.39286332930967</v>
       </c>
       <c r="I193" t="n">
-        <v>120.5514165819185</v>
+        <v>40.09323975063441</v>
       </c>
       <c r="J193" t="n">
         <v>7.64</v>
@@ -6629,28 +6629,28 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>42.34986399640729</v>
+        <v>69.31173940571649</v>
       </c>
       <c r="C194" t="n">
-        <v>42.34986399640729</v>
+        <v>69.31173940571649</v>
       </c>
       <c r="D194" t="n">
-        <v>47.00977566664591</v>
+        <v>97.27649734788935</v>
       </c>
       <c r="E194" t="n">
-        <v>108.3426698721868</v>
+        <v>95.84868304069261</v>
       </c>
       <c r="F194" t="n">
-        <v>14.12214997901407</v>
+        <v>113.3099030566737</v>
       </c>
       <c r="G194" t="n">
-        <v>26.25137318824477</v>
+        <v>132.6647493337861</v>
       </c>
       <c r="H194" t="n">
-        <v>123.0628281365988</v>
+        <v>51.78902528571884</v>
       </c>
       <c r="I194" t="n">
-        <v>121.3923412073443</v>
+        <v>39.28282534532289</v>
       </c>
       <c r="J194" t="n">
         <v>7.68</v>
@@ -6661,28 +6661,28 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>44.75640074953813</v>
+        <v>69.95833143262156</v>
       </c>
       <c r="C195" t="n">
-        <v>44.75640074953813</v>
+        <v>69.95833143262156</v>
       </c>
       <c r="D195" t="n">
-        <v>53.36918076592474</v>
+        <v>95.82908254147424</v>
       </c>
       <c r="E195" t="n">
-        <v>108.1772399744063</v>
+        <v>95.9544297049007</v>
       </c>
       <c r="F195" t="n">
-        <v>15.59532563470765</v>
+        <v>115.1202131409</v>
       </c>
       <c r="G195" t="n">
-        <v>26.85643806924315</v>
+        <v>133.8657235303296</v>
       </c>
       <c r="H195" t="n">
-        <v>119.8223773144859</v>
+        <v>51.01781272214016</v>
       </c>
       <c r="I195" t="n">
-        <v>119.2352287384312</v>
+        <v>38.45768819959734</v>
       </c>
       <c r="J195" t="n">
         <v>7.72</v>
@@ -6693,28 +6693,28 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>43.73012390681941</v>
+        <v>70.81682008965767</v>
       </c>
       <c r="C196" t="n">
-        <v>43.73012390681941</v>
+        <v>70.81682008965767</v>
       </c>
       <c r="D196" t="n">
-        <v>59.46929784442321</v>
+        <v>95.06901467623486</v>
       </c>
       <c r="E196" t="n">
-        <v>105.247794159809</v>
+        <v>95.3062775598527</v>
       </c>
       <c r="F196" t="n">
-        <v>19.28529359160126</v>
+        <v>115.2194848910826</v>
       </c>
       <c r="G196" t="n">
-        <v>31.0065474215034</v>
+        <v>132.69897152927</v>
       </c>
       <c r="H196" t="n">
-        <v>118.4879788350426</v>
+        <v>50.50636761219316</v>
       </c>
       <c r="I196" t="n">
-        <v>119.4555603606786</v>
+        <v>38.38519306373956</v>
       </c>
       <c r="J196" t="n">
         <v>7.76</v>
@@ -6725,28 +6725,28 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>44.00173194572113</v>
+        <v>74.56865235693655</v>
       </c>
       <c r="C197" t="n">
-        <v>44.00173194572113</v>
+        <v>74.56865235693655</v>
       </c>
       <c r="D197" t="n">
-        <v>64.19830486361765</v>
+        <v>94.45128761231076</v>
       </c>
       <c r="E197" t="n">
-        <v>105.8940945829385</v>
+        <v>93.17372310425189</v>
       </c>
       <c r="F197" t="n">
-        <v>21.98643120954819</v>
+        <v>113.3113478640323</v>
       </c>
       <c r="G197" t="n">
-        <v>32.23970025078722</v>
+        <v>131.0044883593456</v>
       </c>
       <c r="H197" t="n">
-        <v>115.061132580907</v>
+        <v>49.48810073119666</v>
       </c>
       <c r="I197" t="n">
-        <v>118.7122455912224</v>
+        <v>37.98150684809288</v>
       </c>
       <c r="J197" t="n">
         <v>7.8</v>
@@ -6757,28 +6757,28 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>45.51299479963996</v>
+        <v>77.73014243164786</v>
       </c>
       <c r="C198" t="n">
-        <v>45.51299479963996</v>
+        <v>77.73014243164786</v>
       </c>
       <c r="D198" t="n">
-        <v>67.78379232428762</v>
+        <v>93.9165585926056</v>
       </c>
       <c r="E198" t="n">
-        <v>111.1034160541276</v>
+        <v>91.67236005403578</v>
       </c>
       <c r="F198" t="n">
-        <v>22.91673501156134</v>
+        <v>111.5712672114068</v>
       </c>
       <c r="G198" t="n">
-        <v>31.09645696745878</v>
+        <v>129.4580791462119</v>
       </c>
       <c r="H198" t="n">
-        <v>114.1484065068357</v>
+        <v>48.762534233852</v>
       </c>
       <c r="I198" t="n">
-        <v>118.3687343543158</v>
+        <v>38.36846491402635</v>
       </c>
       <c r="J198" t="n">
         <v>7.84</v>
@@ -6789,28 +6789,28 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>47.08003542787364</v>
+        <v>80.84096655264401</v>
       </c>
       <c r="C199" t="n">
-        <v>47.08003542787364</v>
+        <v>80.84096655264401</v>
       </c>
       <c r="D199" t="n">
-        <v>63.42365651593231</v>
+        <v>93.63982799306994</v>
       </c>
       <c r="E199" t="n">
-        <v>120.254373979584</v>
+        <v>89.92049807231631</v>
       </c>
       <c r="F199" t="n">
-        <v>21.62157446110569</v>
+        <v>106.5366654739154</v>
       </c>
       <c r="G199" t="n">
-        <v>21.10464921211175</v>
+        <v>125.3371676743358</v>
       </c>
       <c r="H199" t="n">
-        <v>116.9197300935037</v>
+        <v>46.06472065371996</v>
       </c>
       <c r="I199" t="n">
-        <v>115.0169107096881</v>
+        <v>41.78820740107923</v>
       </c>
       <c r="J199" t="n">
         <v>7.88</v>
@@ -6821,28 +6821,28 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>46.42478867059964</v>
+        <v>83.60341963018273</v>
       </c>
       <c r="C200" t="n">
-        <v>46.42478867059964</v>
+        <v>83.60341963018273</v>
       </c>
       <c r="D200" t="n">
-        <v>62.64035671446319</v>
+        <v>92.9917796116021</v>
       </c>
       <c r="E200" t="n">
-        <v>118.2178614802957</v>
+        <v>88.02882983884965</v>
       </c>
       <c r="F200" t="n">
-        <v>21.93852820122925</v>
+        <v>102.8966102113044</v>
       </c>
       <c r="G200" t="n">
-        <v>27.23851357235472</v>
+        <v>117.4985145311512</v>
       </c>
       <c r="H200" t="n">
-        <v>119.232219932758</v>
+        <v>44.05051318975277</v>
       </c>
       <c r="I200" t="n">
-        <v>111.1561894040001</v>
+        <v>47.32954303254824</v>
       </c>
       <c r="J200" t="n">
         <v>7.92</v>
@@ -6853,28 +6853,28 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>46.13481073878404</v>
+        <v>88.81539431762893</v>
       </c>
       <c r="C201" t="n">
-        <v>46.13481073878404</v>
+        <v>88.81539431762893</v>
       </c>
       <c r="D201" t="n">
-        <v>72.04522053681269</v>
+        <v>91.12121459958443</v>
       </c>
       <c r="E201" t="n">
-        <v>104.2064294405321</v>
+        <v>86.08601086756826</v>
       </c>
       <c r="F201" t="n">
-        <v>27.14428120642586</v>
+        <v>99.76723832183772</v>
       </c>
       <c r="G201" t="n">
-        <v>44.60228270973656</v>
+        <v>112.1854718287995</v>
       </c>
       <c r="H201" t="n">
-        <v>118.248773855554</v>
+        <v>43.23302003001183</v>
       </c>
       <c r="I201" t="n">
-        <v>106.5194446685508</v>
+        <v>47.99600489919783</v>
       </c>
       <c r="J201" t="n">
         <v>7.96</v>
@@ -6885,28 +6885,28 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>44.21184183481543</v>
+        <v>92.67543371729204</v>
       </c>
       <c r="C202" t="n">
-        <v>44.21184183481543</v>
+        <v>92.67543371729204</v>
       </c>
       <c r="D202" t="n">
-        <v>68.06163950916728</v>
+        <v>89.37182774972629</v>
       </c>
       <c r="E202" t="n">
-        <v>98.69459803320031</v>
+        <v>85.39222184380981</v>
       </c>
       <c r="F202" t="n">
-        <v>25.53001091178146</v>
+        <v>98.61520638277241</v>
       </c>
       <c r="G202" t="n">
-        <v>59.49774619417649</v>
+        <v>112.5451164694701</v>
       </c>
       <c r="H202" t="n">
-        <v>117.0348597690961</v>
+        <v>42.76466366477982</v>
       </c>
       <c r="I202" t="n">
-        <v>98.78435050512803</v>
+        <v>45.18331159551338</v>
       </c>
       <c r="J202" t="n">
         <v>8</v>
@@ -6917,28 +6917,28 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>46.62704675242634</v>
+        <v>101.7768093169849</v>
       </c>
       <c r="C203" t="n">
-        <v>46.62704675242634</v>
+        <v>101.7768093169849</v>
       </c>
       <c r="D203" t="n">
-        <v>77.58940659972821</v>
+        <v>87.70739502293702</v>
       </c>
       <c r="E203" t="n">
-        <v>87.79288953408619</v>
+        <v>83.72354091993429</v>
       </c>
       <c r="F203" t="n">
-        <v>31.29968058054649</v>
+        <v>102.6851414073226</v>
       </c>
       <c r="G203" t="n">
-        <v>75.50645682966736</v>
+        <v>110.4941959571911</v>
       </c>
       <c r="H203" t="n">
-        <v>113.2191841264963</v>
+        <v>40.70074473135816</v>
       </c>
       <c r="I203" t="n">
-        <v>103.3871925805602</v>
+        <v>39.41978780125564</v>
       </c>
       <c r="J203" t="n">
         <v>8.039999999999999</v>
@@ -6949,28 +6949,28 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>48.00916901918814</v>
+        <v>101.8362008747614</v>
       </c>
       <c r="C204" t="n">
-        <v>48.00916901918814</v>
+        <v>101.8362008747614</v>
       </c>
       <c r="D204" t="n">
-        <v>81.13459480339239</v>
+        <v>89.19035203409369</v>
       </c>
       <c r="E204" t="n">
-        <v>84.33868319300046</v>
+        <v>84.39136574898808</v>
       </c>
       <c r="F204" t="n">
-        <v>31.80320153835115</v>
+        <v>108.5852074520644</v>
       </c>
       <c r="G204" t="n">
-        <v>78.73664022926675</v>
+        <v>113.5576967584592</v>
       </c>
       <c r="H204" t="n">
-        <v>103.5057186625695</v>
+        <v>41.27601916113799</v>
       </c>
       <c r="I204" t="n">
-        <v>98.60835862750612</v>
+        <v>39.17506132220135</v>
       </c>
       <c r="J204" t="n">
         <v>8.08</v>
@@ -6981,28 +6981,28 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>49.46530010828829</v>
+        <v>102.4239269652251</v>
       </c>
       <c r="C205" t="n">
-        <v>49.46530010828829</v>
+        <v>102.4239269652251</v>
       </c>
       <c r="D205" t="n">
-        <v>80.61933993374775</v>
+        <v>90.64546150370469</v>
       </c>
       <c r="E205" t="n">
-        <v>82.1212347028347</v>
+        <v>85.39267375896372</v>
       </c>
       <c r="F205" t="n">
-        <v>23.36654369402387</v>
+        <v>114.8148030200238</v>
       </c>
       <c r="G205" t="n">
-        <v>80.12370595656994</v>
+        <v>116.7697862288837</v>
       </c>
       <c r="H205" t="n">
-        <v>92.01283747243063</v>
+        <v>40.28482531695887</v>
       </c>
       <c r="I205" t="n">
-        <v>100.1202058337973</v>
+        <v>42.15547389447287</v>
       </c>
       <c r="J205" t="n">
         <v>8.119999999999999</v>
@@ -7013,28 +7013,28 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>49.88562240234754</v>
+        <v>102.1835595111613</v>
       </c>
       <c r="C206" t="n">
-        <v>49.88562240234754</v>
+        <v>102.1835595111613</v>
       </c>
       <c r="D206" t="n">
-        <v>73.6811661055452</v>
+        <v>91.82062902338265</v>
       </c>
       <c r="E206" t="n">
-        <v>84.68514020226648</v>
+        <v>85.63427512749887</v>
       </c>
       <c r="F206" t="n">
-        <v>18.71207317070096</v>
+        <v>117.7117311429204</v>
       </c>
       <c r="G206" t="n">
-        <v>71.20191267196725</v>
+        <v>117.8345861001104</v>
       </c>
       <c r="H206" t="n">
-        <v>93.40238835229736</v>
+        <v>40.51283167387134</v>
       </c>
       <c r="I206" t="n">
-        <v>101.7321600238622</v>
+        <v>44.38885748113603</v>
       </c>
       <c r="J206" t="n">
         <v>8.16</v>
@@ -7045,28 +7045,28 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>48.82465397370288</v>
+        <v>101.5356031345287</v>
       </c>
       <c r="C207" t="n">
-        <v>48.82465397370288</v>
+        <v>101.5356031345287</v>
       </c>
       <c r="D207" t="n">
-        <v>71.47580272047803</v>
+        <v>91.75940512928921</v>
       </c>
       <c r="E207" t="n">
-        <v>85.73019405331691</v>
+        <v>86.46034486090983</v>
       </c>
       <c r="F207" t="n">
-        <v>15.68349890889903</v>
+        <v>116.2016799639365</v>
       </c>
       <c r="G207" t="n">
-        <v>62.99871087448938</v>
+        <v>116.9794492395765</v>
       </c>
       <c r="H207" t="n">
-        <v>94.6167442942167</v>
+        <v>40.42376095668899</v>
       </c>
       <c r="I207" t="n">
-        <v>109.5780810336654</v>
+        <v>47.15142432784217</v>
       </c>
       <c r="J207" t="n">
         <v>8.199999999999999</v>
@@ -7077,28 +7077,28 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>46.68468636067746</v>
+        <v>101.4355318705519</v>
       </c>
       <c r="C208" t="n">
-        <v>46.68468636067746</v>
+        <v>101.4355318705519</v>
       </c>
       <c r="D208" t="n">
-        <v>68.63874530168584</v>
+        <v>92.30211143762169</v>
       </c>
       <c r="E208" t="n">
-        <v>87.65936664138059</v>
+        <v>87.3116990374722</v>
       </c>
       <c r="F208" t="n">
-        <v>14.43422553155827</v>
+        <v>116.2229429268919</v>
       </c>
       <c r="G208" t="n">
-        <v>57.20528300387562</v>
+        <v>114.2502685907735</v>
       </c>
       <c r="H208" t="n">
-        <v>101.7792752120261</v>
+        <v>38.99533359897521</v>
       </c>
       <c r="I208" t="n">
-        <v>111.1007062558315</v>
+        <v>47.98000672911216</v>
       </c>
       <c r="J208" t="n">
         <v>8.24</v>
@@ -7109,28 +7109,28 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>43.75070674967785</v>
+        <v>102.0981275813304</v>
       </c>
       <c r="C209" t="n">
-        <v>43.75070674967785</v>
+        <v>102.0981275813304</v>
       </c>
       <c r="D209" t="n">
-        <v>57.96784427140686</v>
+        <v>92.60418861744076</v>
       </c>
       <c r="E209" t="n">
-        <v>94.89135031221889</v>
+        <v>89.07644817646526</v>
       </c>
       <c r="F209" t="n">
-        <v>10.67716677479248</v>
+        <v>116.6614157147484</v>
       </c>
       <c r="G209" t="n">
-        <v>47.00508395976874</v>
+        <v>112.8010795510818</v>
       </c>
       <c r="H209" t="n">
-        <v>108.3777649739792</v>
+        <v>37.58255830508541</v>
       </c>
       <c r="I209" t="n">
-        <v>112.3849868712171</v>
+        <v>51.07720549127277</v>
       </c>
       <c r="J209" t="n">
         <v>8.279999999999999</v>
@@ -7141,28 +7141,28 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>42.2501587774824</v>
+        <v>102.3448498129625</v>
       </c>
       <c r="C210" t="n">
-        <v>42.2501587774824</v>
+        <v>102.3448498129625</v>
       </c>
       <c r="D210" t="n">
-        <v>53.16234284651792</v>
+        <v>92.91479693603996</v>
       </c>
       <c r="E210" t="n">
-        <v>97.24821156502659</v>
+        <v>90.32420835833521</v>
       </c>
       <c r="F210" t="n">
-        <v>8.817717818462683</v>
+        <v>118.5869782125918</v>
       </c>
       <c r="G210" t="n">
-        <v>40.14131261224244</v>
+        <v>112.493408179149</v>
       </c>
       <c r="H210" t="n">
-        <v>112.7404392198249</v>
+        <v>36.4992176791187</v>
       </c>
       <c r="I210" t="n">
-        <v>112.5734713744687</v>
+        <v>53.18115231970752</v>
       </c>
       <c r="J210" t="n">
         <v>8.32</v>
@@ -7173,28 +7173,28 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>42.04240451949477</v>
+        <v>103.7343076367246</v>
       </c>
       <c r="C211" t="n">
-        <v>42.04240451949477</v>
+        <v>103.7343076367246</v>
       </c>
       <c r="D211" t="n">
-        <v>50.48483616768138</v>
+        <v>93.43028893294424</v>
       </c>
       <c r="E211" t="n">
-        <v>100.1061168873392</v>
+        <v>91.64652092797031</v>
       </c>
       <c r="F211" t="n">
-        <v>8.023453278985073</v>
+        <v>120.5522143675763</v>
       </c>
       <c r="G211" t="n">
-        <v>32.90012212238523</v>
+        <v>112.5569004153185</v>
       </c>
       <c r="H211" t="n">
-        <v>115.0182626588108</v>
+        <v>36.81842525175692</v>
       </c>
       <c r="I211" t="n">
-        <v>111.4890107218502</v>
+        <v>55.27476849592782</v>
       </c>
       <c r="J211" t="n">
         <v>8.359999999999999</v>
@@ -7205,28 +7205,28 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>42.21095471743737</v>
+        <v>105.0299794977051</v>
       </c>
       <c r="C212" t="n">
-        <v>42.21095471743737</v>
+        <v>105.0299794977051</v>
       </c>
       <c r="D212" t="n">
-        <v>48.70831238027236</v>
+        <v>93.65351478544294</v>
       </c>
       <c r="E212" t="n">
-        <v>99.91029795431889</v>
+        <v>92.81717007093316</v>
       </c>
       <c r="F212" t="n">
-        <v>7.522451283354371</v>
+        <v>120.6407408166432</v>
       </c>
       <c r="G212" t="n">
-        <v>28.1337471136994</v>
+        <v>112.3436378634709</v>
       </c>
       <c r="H212" t="n">
-        <v>116.3506619126382</v>
+        <v>36.7741929879741</v>
       </c>
       <c r="I212" t="n">
-        <v>110.6808983075926</v>
+        <v>56.75948703349471</v>
       </c>
       <c r="J212" t="n">
         <v>8.4</v>
@@ -7237,28 +7237,28 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>42.6155034837505</v>
+        <v>105.384406676747</v>
       </c>
       <c r="C213" t="n">
-        <v>42.6155034837505</v>
+        <v>105.384406676747</v>
       </c>
       <c r="D213" t="n">
-        <v>49.08101715030909</v>
+        <v>94.38902453723578</v>
       </c>
       <c r="E213" t="n">
-        <v>98.58919680884307</v>
+        <v>93.47857036645833</v>
       </c>
       <c r="F213" t="n">
-        <v>7.00455181138048</v>
+        <v>123.4215095280573</v>
       </c>
       <c r="G213" t="n">
-        <v>23.46816753269547</v>
+        <v>113.3563991303661</v>
       </c>
       <c r="H213" t="n">
-        <v>116.4605304149592</v>
+        <v>36.94216431702845</v>
       </c>
       <c r="I213" t="n">
-        <v>106.3757252350699</v>
+        <v>58.90537803132095</v>
       </c>
       <c r="J213" t="n">
         <v>8.44</v>
@@ -7269,28 +7269,28 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>42.61444345225308</v>
+        <v>106.0467058080791</v>
       </c>
       <c r="C214" t="n">
-        <v>42.61444345225308</v>
+        <v>106.0467058080791</v>
       </c>
       <c r="D214" t="n">
-        <v>47.88732600158983</v>
+        <v>93.95085867683355</v>
       </c>
       <c r="E214" t="n">
-        <v>100.0823540152099</v>
+        <v>94.06525752664216</v>
       </c>
       <c r="F214" t="n">
-        <v>6.357760194763188</v>
+        <v>121.4676830029875</v>
       </c>
       <c r="G214" t="n">
-        <v>21.75484778545419</v>
+        <v>111.5482773804724</v>
       </c>
       <c r="H214" t="n">
-        <v>116.5063763511998</v>
+        <v>36.58982486959913</v>
       </c>
       <c r="I214" t="n">
-        <v>106.1440041794038</v>
+        <v>57.64503614529442</v>
       </c>
       <c r="J214" t="n">
         <v>8.48</v>
@@ -7301,28 +7301,28 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>42.58399961088332</v>
+        <v>106.2997947441978</v>
       </c>
       <c r="C215" t="n">
-        <v>42.58399961088332</v>
+        <v>106.2997947441978</v>
       </c>
       <c r="D215" t="n">
-        <v>47.08410431998831</v>
+        <v>94.94253399367435</v>
       </c>
       <c r="E215" t="n">
-        <v>102.126844562199</v>
+        <v>94.58430391179429</v>
       </c>
       <c r="F215" t="n">
-        <v>5.696863460855354</v>
+        <v>125.052172239742</v>
       </c>
       <c r="G215" t="n">
-        <v>19.71091722086339</v>
+        <v>112.7517105294333</v>
       </c>
       <c r="H215" t="n">
-        <v>116.3043888422255</v>
+        <v>36.75827921590121</v>
       </c>
       <c r="I215" t="n">
-        <v>105.0824389611092</v>
+        <v>59.51790042958484</v>
       </c>
       <c r="J215" t="n">
         <v>8.52</v>
@@ -7333,28 +7333,28 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>42.37922432430031</v>
+        <v>105.4894080068837</v>
       </c>
       <c r="C216" t="n">
-        <v>42.37922432430031</v>
+        <v>105.4894080068837</v>
       </c>
       <c r="D216" t="n">
-        <v>47.13092289272726</v>
+        <v>93.76115866802826</v>
       </c>
       <c r="E216" t="n">
-        <v>102.0373789974276</v>
+        <v>94.01537968015055</v>
       </c>
       <c r="F216" t="n">
-        <v>5.758516091646527</v>
+        <v>121.5684693756532</v>
       </c>
       <c r="G216" t="n">
-        <v>19.29885774549462</v>
+        <v>111.1406791565997</v>
       </c>
       <c r="H216" t="n">
-        <v>116.6450696778611</v>
+        <v>36.96271919159871</v>
       </c>
       <c r="I216" t="n">
-        <v>105.1448328967499</v>
+        <v>56.65889954231232</v>
       </c>
       <c r="J216" t="n">
         <v>8.56</v>
@@ -7365,28 +7365,28 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>42.13279594175418</v>
+        <v>103.6840201864696</v>
       </c>
       <c r="C217" t="n">
-        <v>42.13279594175418</v>
+        <v>103.6840201864696</v>
       </c>
       <c r="D217" t="n">
-        <v>47.8854412222056</v>
+        <v>92.48854610130176</v>
       </c>
       <c r="E217" t="n">
-        <v>102.2939167813647</v>
+        <v>93.6829801146112</v>
       </c>
       <c r="F217" t="n">
-        <v>6.553877649745033</v>
+        <v>118.9458524112583</v>
       </c>
       <c r="G217" t="n">
-        <v>20.74323500520657</v>
+        <v>111.8659587986412</v>
       </c>
       <c r="H217" t="n">
-        <v>115.8656403094377</v>
+        <v>37.45591260868331</v>
       </c>
       <c r="I217" t="n">
-        <v>108.5282968492487</v>
+        <v>56.28851325947466</v>
       </c>
       <c r="J217" t="n">
         <v>8.6</v>
@@ -7397,28 +7397,28 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>42.04114616200638</v>
+        <v>102.7190123774784</v>
       </c>
       <c r="C218" t="n">
-        <v>42.04114616200638</v>
+        <v>102.7190123774784</v>
       </c>
       <c r="D218" t="n">
-        <v>48.03255880138784</v>
+        <v>91.05674257875282</v>
       </c>
       <c r="E218" t="n">
-        <v>105.1105503915686</v>
+        <v>93.74902337750358</v>
       </c>
       <c r="F218" t="n">
-        <v>9.215516865038268</v>
+        <v>114.9737852923123</v>
       </c>
       <c r="G218" t="n">
-        <v>22.28598555862308</v>
+        <v>111.3004959596535</v>
       </c>
       <c r="H218" t="n">
-        <v>118.0537173810817</v>
+        <v>37.36423778943644</v>
       </c>
       <c r="I218" t="n">
-        <v>111.795766355449</v>
+        <v>55.48258923077865</v>
       </c>
       <c r="J218" t="n">
         <v>8.640000000000001</v>
@@ -7429,28 +7429,28 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>42.25444177615964</v>
+        <v>103.1332548815568</v>
       </c>
       <c r="C219" t="n">
-        <v>42.25444177615964</v>
+        <v>103.1332548815568</v>
       </c>
       <c r="D219" t="n">
-        <v>48.40430421839631</v>
+        <v>90.79088867229237</v>
       </c>
       <c r="E219" t="n">
-        <v>99.90295980832194</v>
+        <v>93.98053143916395</v>
       </c>
       <c r="F219" t="n">
-        <v>12.68416733012606</v>
+        <v>111.3198939381316</v>
       </c>
       <c r="G219" t="n">
-        <v>21.98778825289941</v>
+        <v>110.7937778304479</v>
       </c>
       <c r="H219" t="n">
-        <v>116.5618758416315</v>
+        <v>40.3750823502801</v>
       </c>
       <c r="I219" t="n">
-        <v>106.0462371332681</v>
+        <v>54.66451715957418</v>
       </c>
       <c r="J219" t="n">
         <v>8.68</v>
@@ -7461,28 +7461,28 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>43.7454564933706</v>
+        <v>102.9474083302724</v>
       </c>
       <c r="C220" t="n">
-        <v>43.7454564933706</v>
+        <v>102.9474083302724</v>
       </c>
       <c r="D220" t="n">
-        <v>50.35060699353241</v>
+        <v>90.22680419707388</v>
       </c>
       <c r="E220" t="n">
-        <v>97.96885408528304</v>
+        <v>93.90877268560506</v>
       </c>
       <c r="F220" t="n">
-        <v>17.26455144115894</v>
+        <v>106.4845755693157</v>
       </c>
       <c r="G220" t="n">
-        <v>23.198949381593</v>
+        <v>108.3249281903846</v>
       </c>
       <c r="H220" t="n">
-        <v>111.8712455972288</v>
+        <v>45.73054759812531</v>
       </c>
       <c r="I220" t="n">
-        <v>105.6678439917862</v>
+        <v>52.51087912095834</v>
       </c>
       <c r="J220" t="n">
         <v>8.720000000000001</v>
@@ -7493,28 +7493,28 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>46.36415979388644</v>
+        <v>101.3441628183443</v>
       </c>
       <c r="C221" t="n">
-        <v>46.36415979388644</v>
+        <v>101.3441628183443</v>
       </c>
       <c r="D221" t="n">
-        <v>54.15572453087754</v>
+        <v>87.86095749075024</v>
       </c>
       <c r="E221" t="n">
-        <v>100.0909535495908</v>
+        <v>92.84433753216594</v>
       </c>
       <c r="F221" t="n">
-        <v>24.26603006538889</v>
+        <v>95.44703059664276</v>
       </c>
       <c r="G221" t="n">
-        <v>22.00348910370519</v>
+        <v>106.1270806294718</v>
       </c>
       <c r="H221" t="n">
-        <v>103.9168611741256</v>
+        <v>46.95682226524827</v>
       </c>
       <c r="I221" t="n">
-        <v>106.2665130089541</v>
+        <v>48.22447818484159</v>
       </c>
       <c r="J221" t="n">
         <v>8.76</v>
@@ -7525,28 +7525,28 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>45.86971463585539</v>
+        <v>98.99185776362212</v>
       </c>
       <c r="C222" t="n">
-        <v>45.86971463585539</v>
+        <v>98.99185776362212</v>
       </c>
       <c r="D222" t="n">
-        <v>53.4422431364044</v>
+        <v>86.27489396835827</v>
       </c>
       <c r="E222" t="n">
-        <v>102.6679189141864</v>
+        <v>91.78064537143911</v>
       </c>
       <c r="F222" t="n">
-        <v>27.44317286465309</v>
+        <v>86.87929734133486</v>
       </c>
       <c r="G222" t="n">
-        <v>23.29870819684839</v>
+        <v>105.9534423108153</v>
       </c>
       <c r="H222" t="n">
-        <v>102.3325103387283</v>
+        <v>50.10052230328935</v>
       </c>
       <c r="I222" t="n">
-        <v>110.7472142944901</v>
+        <v>45.45127951955175</v>
       </c>
       <c r="J222" t="n">
         <v>8.800000000000001</v>
@@ -7557,28 +7557,28 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>45.85364830825634</v>
+        <v>96.64448431268937</v>
       </c>
       <c r="C223" t="n">
-        <v>45.85364830825634</v>
+        <v>96.64448431268937</v>
       </c>
       <c r="D223" t="n">
-        <v>49.7344911425013</v>
+        <v>86.09851108398576</v>
       </c>
       <c r="E223" t="n">
-        <v>104.070313564616</v>
+        <v>90.88535318983247</v>
       </c>
       <c r="F223" t="n">
-        <v>33.99400255057148</v>
+        <v>85.08039596169407</v>
       </c>
       <c r="G223" t="n">
-        <v>20.99182981478469</v>
+        <v>107.4846888700308</v>
       </c>
       <c r="H223" t="n">
-        <v>103.3709365427194</v>
+        <v>54.06303949526423</v>
       </c>
       <c r="I223" t="n">
-        <v>110.5973585777332</v>
+        <v>44.64182596200644</v>
       </c>
       <c r="J223" t="n">
         <v>8.84</v>
@@ -7589,28 +7589,28 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>44.52107184455971</v>
+        <v>96.65045034507803</v>
       </c>
       <c r="C224" t="n">
-        <v>44.52107184455971</v>
+        <v>96.65045034507803</v>
       </c>
       <c r="D224" t="n">
-        <v>48.81295178783611</v>
+        <v>86.70208879454627</v>
       </c>
       <c r="E224" t="n">
-        <v>105.3125129825664</v>
+        <v>91.15480355969662</v>
       </c>
       <c r="F224" t="n">
-        <v>35.56702433117295</v>
+        <v>92.21441617086029</v>
       </c>
       <c r="G224" t="n">
-        <v>17.53353039755831</v>
+        <v>109.2697738607828</v>
       </c>
       <c r="H224" t="n">
-        <v>104.3918124609454</v>
+        <v>54.09794794992847</v>
       </c>
       <c r="I224" t="n">
-        <v>109.3600304670304</v>
+        <v>46.71270968215375</v>
       </c>
       <c r="J224" t="n">
         <v>8.880000000000001</v>
@@ -7621,28 +7621,28 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>44.62018481396228</v>
+        <v>96.51175907102292</v>
       </c>
       <c r="C225" t="n">
-        <v>44.62018481396228</v>
+        <v>96.51175907102292</v>
       </c>
       <c r="D225" t="n">
-        <v>49.86065706598555</v>
+        <v>88.20485327459033</v>
       </c>
       <c r="E225" t="n">
-        <v>113.0816763238853</v>
+        <v>91.5673156955265</v>
       </c>
       <c r="F225" t="n">
-        <v>39.15108140250004</v>
+        <v>106.0481415556938</v>
       </c>
       <c r="G225" t="n">
-        <v>12.75673213036376</v>
+        <v>111.0846120631963</v>
       </c>
       <c r="H225" t="n">
-        <v>104.1367280680788</v>
+        <v>53.50894645581929</v>
       </c>
       <c r="I225" t="n">
-        <v>112.4226736208891</v>
+        <v>51.07979081361666</v>
       </c>
       <c r="J225" t="n">
         <v>8.92</v>
@@ -7653,28 +7653,28 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>44.68263532560781</v>
+        <v>96.55925244538776</v>
       </c>
       <c r="C226" t="n">
-        <v>44.68263532560781</v>
+        <v>96.55925244538776</v>
       </c>
       <c r="D226" t="n">
-        <v>52.48162372253286</v>
+        <v>88.08469144134376</v>
       </c>
       <c r="E226" t="n">
-        <v>119.2241714318606</v>
+        <v>91.59714343124831</v>
       </c>
       <c r="F226" t="n">
-        <v>40.71375333931661</v>
+        <v>105.0956483501964</v>
       </c>
       <c r="G226" t="n">
-        <v>10.94235782589257</v>
+        <v>111.5290939128337</v>
       </c>
       <c r="H226" t="n">
-        <v>110.0847860227376</v>
+        <v>52.44885326957999</v>
       </c>
       <c r="I226" t="n">
-        <v>117.1786088840747</v>
+        <v>52.21783821875335</v>
       </c>
       <c r="J226" t="n">
         <v>8.960000000000001</v>
@@ -7685,28 +7685,28 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>43.17259437223169</v>
+        <v>98.13594785054312</v>
       </c>
       <c r="C227" t="n">
-        <v>43.17259437223169</v>
+        <v>98.13594785054312</v>
       </c>
       <c r="D227" t="n">
-        <v>49.86132683533106</v>
+        <v>89.01505987714201</v>
       </c>
       <c r="E227" t="n">
-        <v>123.7390366248117</v>
+        <v>91.76209037720231</v>
       </c>
       <c r="F227" t="n">
-        <v>39.85811450228618</v>
+        <v>107.1118312730246</v>
       </c>
       <c r="G227" t="n">
-        <v>9.82096938273105</v>
+        <v>110.5274898021002</v>
       </c>
       <c r="H227" t="n">
-        <v>101.5737326807882</v>
+        <v>50.57154845008625</v>
       </c>
       <c r="I227" t="n">
-        <v>119.2563304263233</v>
+        <v>52.72405295609508</v>
       </c>
       <c r="J227" t="n">
         <v>9</v>
@@ -7717,28 +7717,28 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>45.64974820141663</v>
+        <v>98.75716795744657</v>
       </c>
       <c r="C228" t="n">
-        <v>45.64974820141663</v>
+        <v>98.75716795744657</v>
       </c>
       <c r="D228" t="n">
-        <v>49.3669947200099</v>
+        <v>90.45149835449605</v>
       </c>
       <c r="E228" t="n">
-        <v>123.8842713247042</v>
+        <v>89.95864502308913</v>
       </c>
       <c r="F228" t="n">
-        <v>38.78258696042363</v>
+        <v>119.4088402152897</v>
       </c>
       <c r="G228" t="n">
-        <v>9.379055717048487</v>
+        <v>113.7248174429444</v>
       </c>
       <c r="H228" t="n">
-        <v>100.8410850031552</v>
+        <v>35.49261617840558</v>
       </c>
       <c r="I228" t="n">
-        <v>115.4521095916758</v>
+        <v>45.61647215354533</v>
       </c>
       <c r="J228" t="n">
         <v>9.039999999999999</v>
@@ -7749,28 +7749,28 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>45.75148361992916</v>
+        <v>91.07062031386454</v>
       </c>
       <c r="C229" t="n">
-        <v>45.75148361992916</v>
+        <v>91.07062031386454</v>
       </c>
       <c r="D229" t="n">
-        <v>60.53432686625227</v>
+        <v>88.11710768824679</v>
       </c>
       <c r="E229" t="n">
-        <v>115.0545252058324</v>
+        <v>88.22853238292794</v>
       </c>
       <c r="F229" t="n">
-        <v>48.45421831913805</v>
+        <v>125.1740771557444</v>
       </c>
       <c r="G229" t="n">
-        <v>12.82571801509118</v>
+        <v>122.2574575548195</v>
       </c>
       <c r="H229" t="n">
-        <v>98.79210953137364</v>
+        <v>42.13845965477404</v>
       </c>
       <c r="I229" t="n">
-        <v>116.1049696329182</v>
+        <v>44.16394369460934</v>
       </c>
       <c r="J229" t="n">
         <v>9.08</v>
@@ -7781,28 +7781,28 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>46.26116408469824</v>
+        <v>80.22435207868872</v>
       </c>
       <c r="C230" t="n">
-        <v>46.26116408469824</v>
+        <v>80.22435207868872</v>
       </c>
       <c r="D230" t="n">
-        <v>64.71246833290616</v>
+        <v>89.90587629034286</v>
       </c>
       <c r="E230" t="n">
-        <v>90.00382320739055</v>
+        <v>90.29997107295632</v>
       </c>
       <c r="F230" t="n">
-        <v>39.60641575797808</v>
+        <v>125.5361237796247</v>
       </c>
       <c r="G230" t="n">
-        <v>26.78404546775118</v>
+        <v>129.3331552294353</v>
       </c>
       <c r="H230" t="n">
-        <v>116.5799568722698</v>
+        <v>52.60083560932472</v>
       </c>
       <c r="I230" t="n">
-        <v>109.5758371119463</v>
+        <v>41.80165027624131</v>
       </c>
       <c r="J230" t="n">
         <v>9.119999999999999</v>
@@ -7813,28 +7813,28 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>44.98902036595825</v>
+        <v>75.42574284120739</v>
       </c>
       <c r="C231" t="n">
-        <v>44.98902036595825</v>
+        <v>75.42574284120739</v>
       </c>
       <c r="D231" t="n">
-        <v>51.43791658428924</v>
+        <v>91.89287092336144</v>
       </c>
       <c r="E231" t="n">
-        <v>99.50363995552033</v>
+        <v>92.92834585424609</v>
       </c>
       <c r="F231" t="n">
-        <v>22.82108790661417</v>
+        <v>129.7418538345123</v>
       </c>
       <c r="G231" t="n">
-        <v>20.81809210723392</v>
+        <v>134.1545654076057</v>
       </c>
       <c r="H231" t="n">
-        <v>118.4093085810212</v>
+        <v>58.57533083501783</v>
       </c>
       <c r="I231" t="n">
-        <v>112.2009516075956</v>
+        <v>41.47515794128515</v>
       </c>
       <c r="J231" t="n">
         <v>9.16</v>
@@ -7845,28 +7845,28 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>43.28263505614404</v>
+        <v>71.57652069493192</v>
       </c>
       <c r="C232" t="n">
-        <v>43.28263505614404</v>
+        <v>71.57652069493192</v>
       </c>
       <c r="D232" t="n">
-        <v>50.64748695541158</v>
+        <v>94.60422215158705</v>
       </c>
       <c r="E232" t="n">
-        <v>101.9166376769189</v>
+        <v>95.02385013801066</v>
       </c>
       <c r="F232" t="n">
-        <v>16.55617580614617</v>
+        <v>127.1768598059385</v>
       </c>
       <c r="G232" t="n">
-        <v>18.75837934008845</v>
+        <v>135.0076667146423</v>
       </c>
       <c r="H232" t="n">
-        <v>114.4592604257198</v>
+        <v>60.08407835921059</v>
       </c>
       <c r="I232" t="n">
-        <v>112.1410253610453</v>
+        <v>41.18064798125896</v>
       </c>
       <c r="J232" t="n">
         <v>9.199999999999999</v>
@@ -7877,28 +7877,28 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>42.89498706985472</v>
+        <v>71.46133848305581</v>
       </c>
       <c r="C233" t="n">
-        <v>42.89498706985472</v>
+        <v>71.46133848305581</v>
       </c>
       <c r="D233" t="n">
-        <v>51.86454102002955</v>
+        <v>95.83480748352014</v>
       </c>
       <c r="E233" t="n">
-        <v>106.7312764531827</v>
+        <v>95.27165011326019</v>
       </c>
       <c r="F233" t="n">
-        <v>16.34515693392544</v>
+        <v>123.8526635262098</v>
       </c>
       <c r="G233" t="n">
-        <v>22.15258742968797</v>
+        <v>134.819406120992</v>
       </c>
       <c r="H233" t="n">
-        <v>115.650929351731</v>
+        <v>59.4588535958574</v>
       </c>
       <c r="I233" t="n">
-        <v>120.4606376549919</v>
+        <v>41.06859809680898</v>
       </c>
       <c r="J233" t="n">
         <v>9.24</v>
@@ -7909,28 +7909,28 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>43.19478331352761</v>
+        <v>70.89784332603003</v>
       </c>
       <c r="C234" t="n">
-        <v>43.19478331352761</v>
+        <v>70.89784332603003</v>
       </c>
       <c r="D234" t="n">
-        <v>53.04745321702099</v>
+        <v>96.63368434148673</v>
       </c>
       <c r="E234" t="n">
-        <v>108.0266216603624</v>
+        <v>94.87967273152097</v>
       </c>
       <c r="F234" t="n">
-        <v>17.28120629873831</v>
+        <v>120.2951022951606</v>
       </c>
       <c r="G234" t="n">
-        <v>21.89301445108214</v>
+        <v>133.0156063267288</v>
       </c>
       <c r="H234" t="n">
-        <v>115.6422049968754</v>
+        <v>57.73914715865993</v>
       </c>
       <c r="I234" t="n">
-        <v>121.0880192493912</v>
+        <v>40.73058543260981</v>
       </c>
       <c r="J234" t="n">
         <v>9.279999999999999</v>
@@ -7941,28 +7941,28 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>42.09570683814309</v>
+        <v>70.40356677356115</v>
       </c>
       <c r="C235" t="n">
-        <v>42.09570683814309</v>
+        <v>70.40356677356115</v>
       </c>
       <c r="D235" t="n">
-        <v>49.1113126353022</v>
+        <v>97.44040848187313</v>
       </c>
       <c r="E235" t="n">
-        <v>108.2303720281008</v>
+        <v>94.7094190364765</v>
       </c>
       <c r="F235" t="n">
-        <v>15.64259929643427</v>
+        <v>117.6652814675123</v>
       </c>
       <c r="G235" t="n">
-        <v>22.55116027270512</v>
+        <v>131.8173322979955</v>
       </c>
       <c r="H235" t="n">
-        <v>120.899013035042</v>
+        <v>56.61339310528542</v>
       </c>
       <c r="I235" t="n">
-        <v>121.7820840762061</v>
+        <v>40.56133226832984</v>
       </c>
       <c r="J235" t="n">
         <v>9.32</v>
@@ -7973,28 +7973,28 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>42.35041840484232</v>
+        <v>70.34684137936782</v>
       </c>
       <c r="C236" t="n">
-        <v>42.35041840484232</v>
+        <v>70.34684137936782</v>
       </c>
       <c r="D236" t="n">
-        <v>48.15553418577858</v>
+        <v>97.08920032503583</v>
       </c>
       <c r="E236" t="n">
-        <v>108.3820244595537</v>
+        <v>94.86874412129454</v>
       </c>
       <c r="F236" t="n">
-        <v>15.19226677669317</v>
+        <v>114.4884245297736</v>
       </c>
       <c r="G236" t="n">
-        <v>23.17888160733625</v>
+        <v>131.3311706160251</v>
       </c>
       <c r="H236" t="n">
-        <v>122.3303104497784</v>
+        <v>53.62588664894527</v>
       </c>
       <c r="I236" t="n">
-        <v>121.3899619307826</v>
+        <v>39.74947635513656</v>
       </c>
       <c r="J236" t="n">
         <v>9.359999999999999</v>
@@ -8005,28 +8005,28 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>43.19160594497461</v>
+        <v>70.00867395634732</v>
       </c>
       <c r="C237" t="n">
-        <v>43.19160594497461</v>
+        <v>70.00867395634732</v>
       </c>
       <c r="D237" t="n">
-        <v>49.31721700488012</v>
+        <v>95.99318852714826</v>
       </c>
       <c r="E237" t="n">
-        <v>108.6233054144444</v>
+        <v>96.1374909638628</v>
       </c>
       <c r="F237" t="n">
-        <v>15.47193943829859</v>
+        <v>113.9806647490009</v>
       </c>
       <c r="G237" t="n">
-        <v>26.00989582197261</v>
+        <v>133.8714808965094</v>
       </c>
       <c r="H237" t="n">
-        <v>122.8993140350573</v>
+        <v>50.99050975802525</v>
       </c>
       <c r="I237" t="n">
-        <v>120.9584371224752</v>
+        <v>38.80425726695452</v>
       </c>
       <c r="J237" t="n">
         <v>9.4</v>
@@ -8037,28 +8037,28 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>44.5208634978373</v>
+        <v>70.49658109922919</v>
       </c>
       <c r="C238" t="n">
-        <v>44.5208634978373</v>
+        <v>70.49658109922919</v>
       </c>
       <c r="D238" t="n">
-        <v>56.29286035593111</v>
+        <v>94.93376723194095</v>
       </c>
       <c r="E238" t="n">
-        <v>107.8100311912546</v>
+        <v>96.31680890145574</v>
       </c>
       <c r="F238" t="n">
-        <v>17.91246353368905</v>
+        <v>115.8883583582325</v>
       </c>
       <c r="G238" t="n">
-        <v>27.45150870803687</v>
+        <v>134.6439677791061</v>
       </c>
       <c r="H238" t="n">
-        <v>119.3601694346091</v>
+        <v>51.20475736639639</v>
       </c>
       <c r="I238" t="n">
-        <v>119.8584465282103</v>
+        <v>38.54174174370047</v>
       </c>
       <c r="J238" t="n">
         <v>9.44</v>
@@ -8069,28 +8069,28 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>43.85712604754679</v>
+        <v>73.69649135754497</v>
       </c>
       <c r="C239" t="n">
-        <v>43.85712604754679</v>
+        <v>73.69649135754497</v>
       </c>
       <c r="D239" t="n">
-        <v>58.87838713787036</v>
+        <v>94.19572482339643</v>
       </c>
       <c r="E239" t="n">
-        <v>106.9654983621637</v>
+        <v>94.19063294345477</v>
       </c>
       <c r="F239" t="n">
-        <v>19.7389153007291</v>
+        <v>114.4037621138463</v>
       </c>
       <c r="G239" t="n">
-        <v>28.51494187464712</v>
+        <v>132.7496369062342</v>
       </c>
       <c r="H239" t="n">
-        <v>117.5154365106109</v>
+        <v>49.85404162739021</v>
       </c>
       <c r="I239" t="n">
-        <v>118.6289461795681</v>
+        <v>38.30746737682936</v>
       </c>
       <c r="J239" t="n">
         <v>9.48</v>
@@ -8101,28 +8101,28 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>44.83594596568472</v>
+        <v>77.71433407583397</v>
       </c>
       <c r="C240" t="n">
-        <v>44.83594596568472</v>
+        <v>77.71433407583397</v>
       </c>
       <c r="D240" t="n">
-        <v>67.71358171536484</v>
+        <v>93.59262962378099</v>
       </c>
       <c r="E240" t="n">
-        <v>109.4078301429335</v>
+        <v>92.1221700297823</v>
       </c>
       <c r="F240" t="n">
-        <v>24.3266408912159</v>
+        <v>111.5743806848031</v>
       </c>
       <c r="G240" t="n">
-        <v>30.9022824995188</v>
+        <v>131.5136048853147</v>
       </c>
       <c r="H240" t="n">
-        <v>114.2904717068724</v>
+        <v>49.17747856771275</v>
       </c>
       <c r="I240" t="n">
-        <v>119.3426383062442</v>
+        <v>38.17816247610771</v>
       </c>
       <c r="J240" t="n">
         <v>9.52</v>
@@ -8133,28 +8133,28 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>46.28883418755893</v>
+        <v>80.15095210747535</v>
       </c>
       <c r="C241" t="n">
-        <v>46.28883418755893</v>
+        <v>80.15095210747535</v>
       </c>
       <c r="D241" t="n">
-        <v>68.84150863459827</v>
+        <v>93.28215516089936</v>
       </c>
       <c r="E241" t="n">
-        <v>112.6856028355948</v>
+        <v>90.7774242979482</v>
       </c>
       <c r="F241" t="n">
-        <v>21.87012581352468</v>
+        <v>109.4944919194179</v>
       </c>
       <c r="G241" t="n">
-        <v>30.9692090054719</v>
+        <v>129.4471829837775</v>
       </c>
       <c r="H241" t="n">
-        <v>113.9289819580209</v>
+        <v>47.62354357265764</v>
       </c>
       <c r="I241" t="n">
-        <v>117.5334910750304</v>
+        <v>39.48316868193766</v>
       </c>
       <c r="J241" t="n">
         <v>9.56</v>
@@ -8165,28 +8165,28 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>46.87441066182893</v>
+        <v>84.34161141420245</v>
       </c>
       <c r="C242" t="n">
-        <v>46.87441066182893</v>
+        <v>84.34161141420245</v>
       </c>
       <c r="D242" t="n">
-        <v>65.20496770905312</v>
+        <v>92.30228315769635</v>
       </c>
       <c r="E242" t="n">
-        <v>121.1611443433044</v>
+        <v>87.70288134857135</v>
       </c>
       <c r="F242" t="n">
-        <v>23.04596095650163</v>
+        <v>103.8731991070587</v>
       </c>
       <c r="G242" t="n">
-        <v>24.21915451110056</v>
+        <v>117.8629777074019</v>
       </c>
       <c r="H242" t="n">
-        <v>116.2236803370735</v>
+        <v>43.72675168681307</v>
       </c>
       <c r="I242" t="n">
-        <v>115.0507564330786</v>
+        <v>45.45410068113362</v>
       </c>
       <c r="J242" t="n">
         <v>9.6</v>
@@ -8197,28 +8197,28 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>46.28429069571587</v>
+        <v>90.44418011211643</v>
       </c>
       <c r="C243" t="n">
-        <v>46.28429069571587</v>
+        <v>90.44418011211643</v>
       </c>
       <c r="D243" t="n">
-        <v>66.80691373061694</v>
+        <v>90.32950677000566</v>
       </c>
       <c r="E243" t="n">
-        <v>117.6082653541629</v>
+        <v>85.71819361318819</v>
       </c>
       <c r="F243" t="n">
-        <v>24.21723809355851</v>
+        <v>100.1966621438091</v>
       </c>
       <c r="G243" t="n">
-        <v>34.66492083801057</v>
+        <v>113.0135845691456</v>
       </c>
       <c r="H243" t="n">
-        <v>118.835722919502</v>
+        <v>43.22726140648365</v>
       </c>
       <c r="I243" t="n">
-        <v>118.1643296051452</v>
+        <v>47.63610221783131</v>
       </c>
       <c r="J243" t="n">
         <v>9.640000000000001</v>
@@ -8229,28 +8229,28 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>45.00229460480361</v>
+        <v>91.87083184442702</v>
       </c>
       <c r="C244" t="n">
-        <v>45.00229460480361</v>
+        <v>91.87083184442702</v>
       </c>
       <c r="D244" t="n">
-        <v>67.9464865222739</v>
+        <v>89.60228907331653</v>
       </c>
       <c r="E244" t="n">
-        <v>108.210282272028</v>
+        <v>85.61337999912875</v>
       </c>
       <c r="F244" t="n">
-        <v>33.11566576439594</v>
+        <v>98.78441063186629</v>
       </c>
       <c r="G244" t="n">
-        <v>35.97603985043287</v>
+        <v>112.5135526896224</v>
       </c>
       <c r="H244" t="n">
-        <v>107.3750449897158</v>
+        <v>42.50548857409345</v>
       </c>
       <c r="I244" t="n">
-        <v>119.6782377903901</v>
+        <v>46.21577422025587</v>
       </c>
       <c r="J244" t="n">
         <v>9.68</v>
@@ -8261,28 +8261,28 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>44.55731067902599</v>
+        <v>96.16926761148505</v>
       </c>
       <c r="C245" t="n">
-        <v>44.55731067902599</v>
+        <v>96.16926761148505</v>
       </c>
       <c r="D245" t="n">
-        <v>69.44312543195075</v>
+        <v>88.08267109510142</v>
       </c>
       <c r="E245" t="n">
-        <v>101.2040482575833</v>
+        <v>84.68609327390348</v>
       </c>
       <c r="F245" t="n">
-        <v>28.70370631139633</v>
+        <v>99.89242855610622</v>
       </c>
       <c r="G245" t="n">
-        <v>60.43509039351399</v>
+        <v>115.5283318881134</v>
       </c>
       <c r="H245" t="n">
-        <v>112.8311422220544</v>
+        <v>41.74814827336488</v>
       </c>
       <c r="I245" t="n">
-        <v>106.2301336021765</v>
+        <v>41.58108492596426</v>
       </c>
       <c r="J245" t="n">
         <v>9.720000000000001</v>
@@ -8293,28 +8293,28 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>47.01446011588919</v>
+        <v>105.2030887258566</v>
       </c>
       <c r="C246" t="n">
-        <v>47.01446011588919</v>
+        <v>105.2030887258566</v>
       </c>
       <c r="D246" t="n">
-        <v>77.1664223433076</v>
+        <v>88.46531443003732</v>
       </c>
       <c r="E246" t="n">
-        <v>87.33851640114541</v>
+        <v>83.97517045539556</v>
       </c>
       <c r="F246" t="n">
-        <v>32.33341501206843</v>
+        <v>107.4617469938229</v>
       </c>
       <c r="G246" t="n">
-        <v>75.15157630141496</v>
+        <v>111.5476178421237</v>
       </c>
       <c r="H246" t="n">
-        <v>110.6929474800713</v>
+        <v>40.86910473254136</v>
       </c>
       <c r="I246" t="n">
-        <v>94.01392134933532</v>
+        <v>39.31402236001803</v>
       </c>
       <c r="J246" t="n">
         <v>9.76</v>
@@ -8325,28 +8325,28 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>48.63232161725068</v>
+        <v>103.4851166819467</v>
       </c>
       <c r="C247" t="n">
-        <v>48.63232161725068</v>
+        <v>103.4851166819467</v>
       </c>
       <c r="D247" t="n">
-        <v>83.11585319238222</v>
+        <v>90.06118524204118</v>
       </c>
       <c r="E247" t="n">
-        <v>83.44872144231374</v>
+        <v>85.13073052158437</v>
       </c>
       <c r="F247" t="n">
-        <v>31.20564169354793</v>
+        <v>111.7943377234325</v>
       </c>
       <c r="G247" t="n">
-        <v>78.09753894559871</v>
+        <v>116.2451579786415</v>
       </c>
       <c r="H247" t="n">
-        <v>100.1474896957375</v>
+        <v>40.63317475917215</v>
       </c>
       <c r="I247" t="n">
-        <v>97.14699439358513</v>
+        <v>41.47146937564419</v>
       </c>
       <c r="J247" t="n">
         <v>9.800000000000001</v>
@@ -8357,28 +8357,28 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>49.98177909226504</v>
+        <v>102.9381823970099</v>
       </c>
       <c r="C248" t="n">
-        <v>49.98177909226504</v>
+        <v>102.9381823970099</v>
       </c>
       <c r="D248" t="n">
-        <v>76.4873244032536</v>
+        <v>91.63738153448068</v>
       </c>
       <c r="E248" t="n">
-        <v>82.38236810866233</v>
+        <v>85.65397959883224</v>
       </c>
       <c r="F248" t="n">
-        <v>20.99466053894963</v>
+        <v>117.2303316370738</v>
       </c>
       <c r="G248" t="n">
-        <v>75.49224073996928</v>
+        <v>117.962751603144</v>
       </c>
       <c r="H248" t="n">
-        <v>94.47482106032959</v>
+        <v>40.43396094321424</v>
       </c>
       <c r="I248" t="n">
-        <v>101.4799979824661</v>
+        <v>44.42908844941275</v>
       </c>
       <c r="J248" t="n">
         <v>9.84</v>
@@ -8389,28 +8389,28 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>49.03807075950616</v>
+        <v>102.4475076501663</v>
       </c>
       <c r="C249" t="n">
-        <v>49.03807075950616</v>
+        <v>102.4475076501663</v>
       </c>
       <c r="D249" t="n">
-        <v>72.1858294796034</v>
+        <v>91.94520887971319</v>
       </c>
       <c r="E249" t="n">
-        <v>85.59972183866761</v>
+        <v>86.19568746673949</v>
       </c>
       <c r="F249" t="n">
-        <v>18.82304971263491</v>
+        <v>116.4070971273284</v>
       </c>
       <c r="G249" t="n">
-        <v>68.84539879214103</v>
+        <v>116.9848266510804</v>
       </c>
       <c r="H249" t="n">
-        <v>96.66516896626425</v>
+        <v>40.16221017922102</v>
       </c>
       <c r="I249" t="n">
-        <v>106.4057384348845</v>
+        <v>46.32422205186493</v>
       </c>
       <c r="J249" t="n">
         <v>9.880000000000001</v>
@@ -8421,28 +8421,28 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>47.73354043614776</v>
+        <v>102.2518347232703</v>
       </c>
       <c r="C250" t="n">
-        <v>47.73354043614776</v>
+        <v>102.2518347232703</v>
       </c>
       <c r="D250" t="n">
-        <v>70.21289958446972</v>
+        <v>92.25955422361478</v>
       </c>
       <c r="E250" t="n">
-        <v>86.24037847816344</v>
+        <v>87.08583043164609</v>
       </c>
       <c r="F250" t="n">
-        <v>14.70739609884532</v>
+        <v>115.7066866090889</v>
       </c>
       <c r="G250" t="n">
-        <v>60.57044926354676</v>
+        <v>114.7820521256714</v>
       </c>
       <c r="H250" t="n">
-        <v>98.64905826381002</v>
+        <v>39.16529468759344</v>
       </c>
       <c r="I250" t="n">
-        <v>110.7806224198838</v>
+        <v>47.42816478627419</v>
       </c>
       <c r="J250" t="n">
         <v>9.92</v>
@@ -8453,28 +8453,28 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>45.94116342147794</v>
+        <v>102.609373025018</v>
       </c>
       <c r="C251" t="n">
-        <v>45.94116342147794</v>
+        <v>102.609373025018</v>
       </c>
       <c r="D251" t="n">
-        <v>68.31468266930007</v>
+        <v>92.82279525679294</v>
       </c>
       <c r="E251" t="n">
-        <v>92.05158007291513</v>
+        <v>88.93407839833492</v>
       </c>
       <c r="F251" t="n">
-        <v>15.13985126698651</v>
+        <v>116.7978394415145</v>
       </c>
       <c r="G251" t="n">
-        <v>51.39846423491844</v>
+        <v>113.3858802702101</v>
       </c>
       <c r="H251" t="n">
-        <v>105.8271361731996</v>
+        <v>37.50128361443119</v>
       </c>
       <c r="I251" t="n">
-        <v>111.5476023129939</v>
+        <v>50.89967980401262</v>
       </c>
       <c r="J251" t="n">
         <v>9.960000000000001</v>
@@ -8485,28 +8485,28 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>43.07924769961232</v>
+        <v>102.4483967744351</v>
       </c>
       <c r="C252" t="n">
-        <v>43.07924769961232</v>
+        <v>102.4483967744351</v>
       </c>
       <c r="D252" t="n">
-        <v>58.18349355951651</v>
+        <v>92.81091355728317</v>
       </c>
       <c r="E252" t="n">
-        <v>94.79166912661816</v>
+        <v>89.84533818960399</v>
       </c>
       <c r="F252" t="n">
-        <v>10.15747009259809</v>
+        <v>116.8043667937037</v>
       </c>
       <c r="G252" t="n">
-        <v>44.48551514077855</v>
+        <v>112.3443604206178</v>
       </c>
       <c r="H252" t="n">
-        <v>109.9096177821853</v>
+        <v>36.44246442206335</v>
       </c>
       <c r="I252" t="n">
-        <v>112.9858144674604</v>
+        <v>52.14501761858136</v>
       </c>
       <c r="J252" t="n">
         <v>10</v>
@@ -8517,28 +8517,28 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>42.09174121476096</v>
+        <v>103.1759689786934</v>
       </c>
       <c r="C253" t="n">
-        <v>42.09174121476096</v>
+        <v>103.1759689786934</v>
       </c>
       <c r="D253" t="n">
-        <v>54.1171015537962</v>
+        <v>93.26669568220204</v>
       </c>
       <c r="E253" t="n">
-        <v>98.45957615306453</v>
+        <v>91.11750633554223</v>
       </c>
       <c r="F253" t="n">
-        <v>8.556512664815045</v>
+        <v>119.9508455627671</v>
       </c>
       <c r="G253" t="n">
-        <v>37.0971820131526</v>
+        <v>113.0813520051662</v>
       </c>
       <c r="H253" t="n">
-        <v>113.2589546058155</v>
+        <v>36.97971501940113</v>
       </c>
       <c r="I253" t="n">
-        <v>110.8327831074896</v>
+        <v>55.10205304683021</v>
       </c>
       <c r="J253" t="n">
         <v>10.04</v>
@@ -8549,28 +8549,28 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>41.92998412589759</v>
+        <v>104.4478991484615</v>
       </c>
       <c r="C254" t="n">
-        <v>41.92998412589759</v>
+        <v>104.4478991484615</v>
       </c>
       <c r="D254" t="n">
-        <v>50.24760988978701</v>
+        <v>93.81166358995864</v>
       </c>
       <c r="E254" t="n">
-        <v>99.93268358276396</v>
+        <v>92.29084006995799</v>
       </c>
       <c r="F254" t="n">
-        <v>7.685298418043374</v>
+        <v>121.4993567427516</v>
       </c>
       <c r="G254" t="n">
-        <v>31.03279530119141</v>
+        <v>112.6790957810771</v>
       </c>
       <c r="H254" t="n">
-        <v>115.98095965469</v>
+        <v>36.81615857188263</v>
       </c>
       <c r="I254" t="n">
-        <v>111.0207308968002</v>
+        <v>56.63263257242872</v>
       </c>
       <c r="J254" t="n">
         <v>10.08</v>
@@ -8581,28 +8581,28 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>42.27040669210439</v>
+        <v>105.1458934707902</v>
       </c>
       <c r="C255" t="n">
-        <v>42.27040669210439</v>
+        <v>105.1458934707902</v>
       </c>
       <c r="D255" t="n">
-        <v>48.4818621973707</v>
+        <v>94.48065634934682</v>
       </c>
       <c r="E255" t="n">
-        <v>99.31659520243331</v>
+        <v>93.30048280687842</v>
       </c>
       <c r="F255" t="n">
-        <v>6.868425971470941</v>
+        <v>124.1124446742033</v>
       </c>
       <c r="G255" t="n">
-        <v>26.09342151689256</v>
+        <v>113.5626714797563</v>
       </c>
       <c r="H255" t="n">
-        <v>116.9613467570414</v>
+        <v>37.07265943739304</v>
       </c>
       <c r="I255" t="n">
-        <v>109.0896342280721</v>
+        <v>59.12133586131304</v>
       </c>
       <c r="J255" t="n">
         <v>10.12</v>
